--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EC702-9D2B-48ED-9605-266904A94A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7590" windowWidth="25185" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="Y8" authorId="0" shapeId="0" xr:uid="{23A90CEB-65AA-48AA-BA1A-4AD717A19B66}">
       <text>
         <r>
           <rPr>
@@ -42,12 +54,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-il faut éviter de mettre des références de librairies sur le disque
-</t>
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
-    <comment ref="AR8" authorId="0" shapeId="0">
+    <comment ref="Y9" authorId="0" shapeId="0" xr:uid="{BF79895A-3837-4A64-95A1-2CF77DF03242}">
       <text>
         <r>
           <rPr>
@@ -67,11 +78,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-l'attribut </t>
+listes non instanciées ni UUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="AW8" authorId="0" shapeId="0">
+    <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{FFFC51DC-CFB2-4591-802E-BDFA9BFDC18A}">
       <text>
         <r>
           <rPr>
@@ -91,1204 +102,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">manque l'instanciation de la list
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>manque le remove
-constructeur public au lieu de protected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le unmodifiableList</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-il n'y a pas d'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le setter de typeMail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le setter de typeNumero</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>manque le read</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-il n'y a pas d'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque la description des constantes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-pas utiliser au bon endroit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-retour de méthodes non corrects</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-methode non implémentée</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-il n'y a pas d'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe
-pk fabriquerCoordonneesDao ???</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BS14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>plagiat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>pas dans le bon package</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-du code pour l'init qui traine en plein milieu ???
-fabriquerMail ?!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>manque le update
-erreur dans le read</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--0,25 : la classe doit être "abstraite" !!!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-plein de code qui ne sert à rien…
-types de retour non corrects</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BS16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>plagiat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>manque l'instanciation de la list
-erreur dans le read</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-enum simple et non complexe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-….......</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-il n'y a pas d'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe
-….......</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-il n'y a pas d'appel aux setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le constructeur</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>manque le unmodifiableList</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque final sur la classe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque constructeur private + final sur la classe</t>
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -1750,7 +564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2468,7 +1282,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2758,7 +1572,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2770,10 +1620,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,67 +1650,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2864,6 +1678,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2899,16 +1716,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Input" xfId="2"/>
+    <cellStyle name="Excel Built-in Input" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3092,6 +2035,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3127,6 +2087,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3302,15 +2279,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3870" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="G8" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1:AQ1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B22"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="A8:C8"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3342,86 +2319,86 @@
       <c r="E1" s="57"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="98" t="s">
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="98" t="s">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="98" t="s">
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="98" t="s">
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="98" t="s">
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="111" t="s">
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="112"/>
+      <c r="BA1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="98" t="s">
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="114"/>
+      <c r="BD1" s="114"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="114"/>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="115"/>
+      <c r="BP1" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="BQ1" s="99"/>
-      <c r="BR1" s="100"/>
-      <c r="BS1" s="109" t="s">
+      <c r="BQ1" s="111"/>
+      <c r="BR1" s="112"/>
+      <c r="BS1" s="100" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3433,124 +2410,124 @@
       <c r="E2" s="57"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="118" t="s">
+      <c r="K2" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="116" t="s">
+      <c r="O2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="96" t="s">
+      <c r="P2" s="109"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97" t="s">
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97" t="s">
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="s">
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="96" t="s">
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97" t="s">
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="101" t="s">
+      <c r="AV2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="96" t="s">
+      <c r="AW2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="97" t="s">
+      <c r="AX2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="97" t="s">
+      <c r="AY2" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" s="101" t="s">
+      <c r="AZ2" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="106" t="s">
+      <c r="BA2" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="114" t="s">
+      <c r="BB2" s="121"/>
+      <c r="BC2" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" s="96" t="s">
+      <c r="BD2" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="103"/>
+      <c r="BL2" s="103"/>
+      <c r="BM2" s="103"/>
       <c r="BN2" s="72" t="s">
         <v>113</v>
       </c>
       <c r="BO2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="96" t="s">
+      <c r="BP2" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="BQ2" s="97" t="s">
+      <c r="BQ2" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="BR2" s="101" t="s">
+      <c r="BR2" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="BS2" s="110"/>
+      <c r="BS2" s="101"/>
     </row>
     <row r="3" spans="1:71" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3564,33 +2541,33 @@
       </c>
       <c r="D3" s="22" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G5,")")</f>
-        <v>Note/20 ( sur 62)</v>
+        <v>Note/20 ( sur 49)</v>
       </c>
       <c r="E3" s="23" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 62)</v>
+        <v>Note/20 ( sur 49)</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/62</v>
+        <v>Note/49</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>CONCATENATE("Note/",G5)</f>
-        <v>Note/62</v>
-      </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="96" t="s">
+        <v>Note/49</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="96" t="s">
+      <c r="Q3" s="99"/>
+      <c r="R3" s="109" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="72" t="s">
@@ -3611,16 +2588,16 @@
       <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="96" t="s">
+      <c r="Y3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="97" t="s">
+      <c r="Z3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="97" t="s">
+      <c r="AB3" s="103" t="s">
         <v>84</v>
       </c>
       <c r="AC3" s="72" t="s">
@@ -3638,54 +2615,54 @@
       <c r="AG3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="97" t="s">
+      <c r="AH3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="97" t="s">
+      <c r="AI3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="97" t="s">
+      <c r="AJ3" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="97" t="s">
+      <c r="AK3" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="97" t="s">
+      <c r="AL3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="97" t="s">
+      <c r="AM3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="97" t="s">
+      <c r="AN3" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="AO3" s="97" t="s">
+      <c r="AO3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="97" t="s">
+      <c r="AP3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="101" t="s">
+      <c r="AQ3" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="96" t="s">
+      <c r="AR3" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" s="97" t="s">
+      <c r="AS3" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="AT3" s="97" t="s">
+      <c r="AT3" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="110"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="101"/>
       <c r="BD3" s="81" t="s">
         <v>13</v>
       </c>
@@ -3722,10 +2699,10 @@
       <c r="BO3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="96"/>
-      <c r="BQ3" s="97"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="110"/>
+      <c r="BP3" s="109"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="101"/>
     </row>
     <row r="4" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -3735,21 +2712,21 @@
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="102"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="108"/>
       <c r="P4" s="75" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="72" t="s">
         <v>78</v>
       </c>
@@ -3768,10 +2745,10 @@
       <c r="X4" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
       <c r="AC4" s="72" t="s">
         <v>87</v>
       </c>
@@ -3787,32 +2764,32 @@
       <c r="AG4" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="101"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="99"/>
       <c r="BA4" s="75" t="s">
         <v>75</v>
       </c>
       <c r="BB4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="BC4" s="115"/>
+      <c r="BC4" s="102"/>
       <c r="BD4" s="81" t="s">
         <v>103</v>
       </c>
@@ -3849,10 +2826,10 @@
       <c r="BO4" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="BP4" s="96"/>
-      <c r="BQ4" s="97"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="110"/>
+      <c r="BP4" s="109"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="99"/>
+      <c r="BS4" s="101"/>
     </row>
     <row r="5" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -3863,7 +2840,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7">
         <f>SUM(H5:BR5)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H5" s="63">
         <v>1</v>
@@ -3941,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="72">
         <v>1</v>
@@ -4008,40 +2985,40 @@
       </c>
       <c r="BC5" s="68"/>
       <c r="BD5" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="75">
         <v>1</v>
@@ -4065,7 +3042,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="7">
         <f>SUM(H6:BR6)</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H6" s="64">
         <v>1</v>
@@ -4143,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="87">
         <v>1</v>
@@ -4210,40 +3187,40 @@
       </c>
       <c r="BC6" s="94"/>
       <c r="BD6" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="84">
         <v>1</v>
@@ -4289,55 +3266,55 @@
         <f>SUM(X5:X5)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="102">
+      <c r="Y7" s="108">
         <f>SUM(Y5:AG5)</f>
-        <v>9</v>
-      </c>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="102">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="117"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="108">
         <f>SUM(AH5:AK5)</f>
         <v>4</v>
       </c>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="104"/>
-      <c r="AL7" s="102">
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="108">
         <f>SUM(AL5:AQ5)</f>
         <v>6</v>
       </c>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="102">
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="117"/>
+      <c r="AR7" s="108">
         <f>SUM(AR5:AV5)</f>
         <v>5</v>
       </c>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="102">
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="117"/>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="108">
         <f>SUM(AW5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
+      <c r="AX7" s="117"/>
+      <c r="AY7" s="117"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
       <c r="BC7" s="78"/>
       <c r="BD7" s="77">
         <f>SUM(BD5:BD5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="77"/>
       <c r="BF7" s="77"/>
@@ -4367,19 +3344,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="27">
         <f t="shared" ref="D8:D20" si="0">G8/$G$5*20+BS8*$BS$5</f>
-        <v>0</v>
+        <v>3.1836734693877551</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" ref="E8:E20" si="1">F8/$G$6*20+BS8*$BS$6</f>
-        <v>0</v>
+        <v>3.1836734693877551</v>
       </c>
       <c r="F8" s="20">
         <f>G61</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="G8" s="20">
         <f>G31</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -4398,15 +3375,33 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="15"/>
+      <c r="Y8" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="60">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>99</v>
+      </c>
       <c r="AH8" s="14"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -4455,19 +3450,19 @@
       <c r="C9" s="5"/>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.510204081632653</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.510204081632653</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" ref="F9:F23" si="2">G62</f>
-        <v>0</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G28" si="3">G32</f>
-        <v>0</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="14"/>
@@ -4486,15 +3481,33 @@
       <c r="V9" s="75"/>
       <c r="W9" s="75"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="15"/>
+      <c r="Y9" s="96">
+        <v>0.75</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="AD9" s="72">
+        <v>0.65</v>
+      </c>
+      <c r="AE9" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" s="72">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>99</v>
+      </c>
       <c r="AH9" s="14"/>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -4543,19 +3556,19 @@
       <c r="C10" s="4"/>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3673469387755102</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3673469387755102</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H10" s="92"/>
       <c r="I10" s="14"/>
@@ -4574,15 +3587,33 @@
       <c r="V10" s="75"/>
       <c r="W10" s="75"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="15"/>
+      <c r="Y10" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="72">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="72">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>99</v>
+      </c>
       <c r="AH10" s="14"/>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -4670,7 +3701,9 @@
       <c r="AD11" s="72"/>
       <c r="AE11" s="72"/>
       <c r="AF11" s="72"/>
-      <c r="AG11" s="15"/>
+      <c r="AG11" s="15">
+        <v>99</v>
+      </c>
       <c r="AH11" s="14"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -4758,7 +3791,9 @@
       <c r="AD12" s="72"/>
       <c r="AE12" s="72"/>
       <c r="AF12" s="72"/>
-      <c r="AG12" s="15"/>
+      <c r="AG12" s="15">
+        <v>99</v>
+      </c>
       <c r="AH12" s="59"/>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="60"/>
@@ -4846,7 +3881,9 @@
       <c r="AD13" s="72"/>
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
-      <c r="AG13" s="15"/>
+      <c r="AG13" s="15">
+        <v>99</v>
+      </c>
       <c r="AH13" s="14"/>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -4934,7 +3971,9 @@
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
       <c r="AF14" s="72"/>
-      <c r="AG14" s="15"/>
+      <c r="AG14" s="15">
+        <v>99</v>
+      </c>
       <c r="AH14" s="80"/>
       <c r="AI14" s="79"/>
       <c r="AJ14" s="15"/>
@@ -5022,7 +4061,9 @@
       <c r="AD15" s="72"/>
       <c r="AE15" s="72"/>
       <c r="AF15" s="72"/>
-      <c r="AG15" s="15"/>
+      <c r="AG15" s="15">
+        <v>99</v>
+      </c>
       <c r="AH15" s="80"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
@@ -5110,7 +4151,9 @@
       <c r="AD16" s="72"/>
       <c r="AE16" s="72"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="15"/>
+      <c r="AG16" s="15">
+        <v>99</v>
+      </c>
       <c r="AH16" s="80"/>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
@@ -5198,7 +4241,9 @@
       <c r="AD17" s="72"/>
       <c r="AE17" s="72"/>
       <c r="AF17" s="72"/>
-      <c r="AG17" s="15"/>
+      <c r="AG17" s="15">
+        <v>99</v>
+      </c>
       <c r="AH17" s="14"/>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -5286,7 +4331,9 @@
       <c r="AD18" s="72"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="72"/>
-      <c r="AG18" s="15"/>
+      <c r="AG18" s="15">
+        <v>99</v>
+      </c>
       <c r="AH18" s="14"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -5374,7 +4421,9 @@
       <c r="AD19" s="72"/>
       <c r="AE19" s="72"/>
       <c r="AF19" s="72"/>
-      <c r="AG19" s="15"/>
+      <c r="AG19" s="15">
+        <v>99</v>
+      </c>
       <c r="AH19" s="14"/>
       <c r="AI19" s="79"/>
       <c r="AJ19" s="15"/>
@@ -5462,7 +4511,9 @@
       <c r="AD20" s="72"/>
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
-      <c r="AG20" s="15"/>
+      <c r="AG20" s="15">
+        <v>99</v>
+      </c>
       <c r="AH20" s="14"/>
       <c r="AI20" s="79"/>
       <c r="AJ20" s="15"/>
@@ -5550,7 +4601,9 @@
       <c r="AD21" s="72"/>
       <c r="AE21" s="72"/>
       <c r="AF21" s="72"/>
-      <c r="AG21" s="67"/>
+      <c r="AG21" s="67">
+        <v>99</v>
+      </c>
       <c r="AH21" s="69"/>
       <c r="AI21" s="67"/>
       <c r="AJ21" s="67"/>
@@ -5639,7 +4692,9 @@
       <c r="AD22" s="72"/>
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
-      <c r="AG22" s="67"/>
+      <c r="AG22" s="67">
+        <v>99</v>
+      </c>
       <c r="AH22" s="69"/>
       <c r="AI22" s="67"/>
       <c r="AJ22" s="67"/>
@@ -5724,7 +4779,9 @@
       <c r="AD23" s="72"/>
       <c r="AE23" s="72"/>
       <c r="AF23" s="72"/>
-      <c r="AG23" s="67"/>
+      <c r="AG23" s="67">
+        <v>99</v>
+      </c>
       <c r="AH23" s="69"/>
       <c r="AI23" s="67"/>
       <c r="AJ23" s="67"/>
@@ -5809,7 +4866,9 @@
       <c r="AD24" s="93"/>
       <c r="AE24" s="93"/>
       <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
+      <c r="AG24" s="93">
+        <v>99</v>
+      </c>
       <c r="AH24" s="92"/>
       <c r="AI24" s="93"/>
       <c r="AJ24" s="93"/>
@@ -5894,7 +4953,9 @@
       <c r="AD25" s="93"/>
       <c r="AE25" s="93"/>
       <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
+      <c r="AG25" s="93">
+        <v>99</v>
+      </c>
       <c r="AH25" s="92"/>
       <c r="AI25" s="93"/>
       <c r="AJ25" s="93"/>
@@ -5978,7 +5039,9 @@
       <c r="AD26" s="93"/>
       <c r="AE26" s="93"/>
       <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
+      <c r="AG26" s="93">
+        <v>99</v>
+      </c>
       <c r="AH26" s="92"/>
       <c r="AI26" s="93"/>
       <c r="AJ26" s="93"/>
@@ -6062,7 +5125,9 @@
       <c r="AD27" s="93"/>
       <c r="AE27" s="93"/>
       <c r="AF27" s="93"/>
-      <c r="AG27" s="93"/>
+      <c r="AG27" s="93">
+        <v>99</v>
+      </c>
       <c r="AH27" s="92"/>
       <c r="AI27" s="93"/>
       <c r="AJ27" s="93"/>
@@ -6115,11 +5180,11 @@
       </c>
       <c r="F28" s="20">
         <f t="shared" si="8"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H28" s="92">
         <v>1</v>
@@ -6383,41 +5448,41 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y29" s="73" t="e">
+      <c r="Y29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="73" t="e">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="Z29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="73" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB29" s="73" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC29" s="73" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="73" t="e">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AD29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="73" t="e">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="AE29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="73" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AF29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="73" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="AH29" s="73" t="e">
         <f t="shared" si="9"/>
@@ -6575,7 +5640,7 @@
     <row r="31" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f>SUM(H31:BR31)</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AM31" si="10">H8*H$5</f>
@@ -6647,35 +5712,35 @@
       </c>
       <c r="Y31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="73">
         <f t="shared" si="10"/>
@@ -6833,7 +5898,7 @@
     <row r="32" spans="1:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="73">
         <f t="shared" ref="G32:G51" si="12">SUM(H32:BR32)</f>
-        <v>0</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="H32" s="73">
         <f t="shared" ref="H32:BS32" si="13">H9*H$5</f>
@@ -6905,11 +5970,11 @@
       </c>
       <c r="Y32" s="73">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z32" s="73">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="73">
         <f t="shared" si="13"/>
@@ -6921,15 +5986,15 @@
       </c>
       <c r="AC32" s="73">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD32" s="73">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AE32" s="73">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF32" s="73">
         <f t="shared" si="13"/>
@@ -7091,7 +6156,7 @@
     <row r="33" spans="4:71" x14ac:dyDescent="0.25">
       <c r="G33" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H33" s="73">
         <f t="shared" ref="H33:BS33" si="14">H10*H$5</f>
@@ -7163,11 +6228,11 @@
       </c>
       <c r="Y33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="73">
         <f t="shared" si="14"/>
@@ -7179,19 +6244,19 @@
       </c>
       <c r="AC33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" s="73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="73">
         <f t="shared" si="14"/>
@@ -11749,7 +10814,7 @@
       <c r="E51" s="24"/>
       <c r="G51" s="73">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H51" s="73">
         <f t="shared" ref="H51:BS51" si="32">H28*H$5</f>
@@ -11853,7 +10918,7 @@
       </c>
       <c r="AG51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="73">
         <f t="shared" si="32"/>
@@ -11941,51 +11006,51 @@
       </c>
       <c r="BD51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO51" s="73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="73">
         <f t="shared" si="32"/>
@@ -12035,7 +11100,7 @@
     <row r="61" spans="4:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" ref="G61:G73" si="33">SUM(H61:BR61)</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:BR61" si="34">H8*H$6</f>
@@ -12107,35 +11172,35 @@
       </c>
       <c r="Y61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61" s="73">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" s="73">
         <f t="shared" si="34"/>
@@ -12293,7 +11358,7 @@
     <row r="62" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="H62" s="73">
         <f t="shared" ref="H62:BR62" si="36">H9*H$6</f>
@@ -12365,11 +11430,11 @@
       </c>
       <c r="Y62" s="73">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z62" s="73">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62" s="73">
         <f t="shared" si="36"/>
@@ -12381,15 +11446,15 @@
       </c>
       <c r="AC62" s="73">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD62" s="73">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AE62" s="73">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF62" s="73">
         <f t="shared" si="36"/>
@@ -12551,7 +11616,7 @@
     <row r="63" spans="4:71" x14ac:dyDescent="0.25">
       <c r="G63" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H63" s="73">
         <f t="shared" ref="H63:BR63" si="38">H10*H$6</f>
@@ -12623,11 +11688,11 @@
       </c>
       <c r="Y63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63" s="73">
         <f t="shared" si="38"/>
@@ -12639,19 +11704,19 @@
       </c>
       <c r="AC63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63" s="73">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="73">
         <f t="shared" si="38"/>
@@ -17167,7 +16232,7 @@
     <row r="81" spans="7:70" x14ac:dyDescent="0.25">
       <c r="G81" s="73">
         <f t="shared" si="60"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H81" s="73">
         <f t="shared" ref="H81:BR81" si="68">H28*H$6</f>
@@ -17271,7 +16336,7 @@
       </c>
       <c r="AG81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH81" s="73">
         <f t="shared" si="68"/>
@@ -17359,51 +16424,51 @@
       </c>
       <c r="BD81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO81" s="73">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP81" s="73">
         <f t="shared" si="68"/>
@@ -23288,6 +22353,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="R1:X2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AR7:AV7"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AL7:AQ7"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="BA2:BB3"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="Y7:AG7"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="BS1:BS4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="BD2:BM2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="BC2:BC4"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="N2:N4"/>
@@ -23304,73 +22412,82 @@
     <mergeCell ref="Y2:AG2"/>
     <mergeCell ref="Y1:AQ1"/>
     <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="BS1:BS4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="BD2:BM2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AR7:AV7"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="AL7:AQ7"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="BA2:BB3"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="Y7:AG7"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="R1:X2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AQ3:AQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BS23">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="I11:BS23 I8:X10 Z8:BS10">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS28">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H23">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H28">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23383,20 +22500,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H23">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H28">
+  <conditionalFormatting sqref="Y10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23416,7 +22520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AS14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23465,43 +22569,43 @@
       <c r="C1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="126" t="s">
+      <c r="E1" s="124"/>
+      <c r="F1" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="134"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="135"/>
       <c r="AK1" s="130" t="s">
         <v>54</v>
       </c>
@@ -23511,98 +22615,98 @@
       <c r="AO1" s="131"/>
       <c r="AP1" s="131"/>
       <c r="AQ1" s="132"/>
-      <c r="AR1" s="126" t="s">
+      <c r="AR1" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="128"/>
+      <c r="AS1" s="124"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="139" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="139" t="s">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="139" t="s">
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="143"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="144"/>
       <c r="AJ2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="139" t="s">
+      <c r="AK2" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="143"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="144"/>
       <c r="AN2" s="36"/>
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="48"/>
-      <c r="AR2" s="135" t="s">
+      <c r="AR2" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="137" t="s">
+      <c r="AS2" s="138" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="124"/>
       <c r="P3" s="36" t="s">
         <v>30</v>
       </c>
@@ -23612,20 +22716,20 @@
       <c r="R3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="139" t="s">
+      <c r="S3" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="139" t="s">
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
       <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
@@ -23638,11 +22742,11 @@
       <c r="AF3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="123" t="s">
+      <c r="AG3" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="125"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="126"/>
       <c r="AJ3" s="37" t="s">
         <v>7</v>
       </c>
@@ -23667,77 +22771,77 @@
       <c r="AQ3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="138"/>
+      <c r="AR3" s="137"/>
+      <c r="AS3" s="139"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="123" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="123" t="s">
+      <c r="K4" s="126"/>
+      <c r="L4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="124" t="s">
+      <c r="N4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="122" t="s">
+      <c r="Q4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="123" t="s">
+      <c r="S4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="124" t="s">
+      <c r="T4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="124" t="s">
+      <c r="U4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="124" t="s">
+      <c r="V4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="129" t="s">
+      <c r="W4" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="123" t="s">
+      <c r="X4" s="126"/>
+      <c r="Y4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="124" t="s">
+      <c r="Z4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="124" t="s">
+      <c r="AA4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="144" t="s">
+      <c r="AB4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="40"/>
@@ -23766,40 +22870,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
       <c r="W5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="144"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="128"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="40"/>
@@ -24246,18 +23350,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -24272,20 +23378,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24293,7 +23397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EC702-9D2B-48ED-9605-266904A94A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5895281-2D03-4926-880C-3D51E1D4E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,6 +82,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC9" authorId="0" shapeId="0" xr:uid="{639FAF51-DF63-49B0-A4A0-2719EC06808B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle is null</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{FFFC51DC-CFB2-4591-802E-BDFA9BFDC18A}">
       <text>
         <r>
@@ -103,6 +127,102 @@
           </rPr>
           <t xml:space="preserve">
 manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0" shapeId="0" xr:uid="{780FE20F-F5E2-410C-9249-3AA8E6CA445B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y12" authorId="0" shapeId="0" xr:uid="{1935A505-7675-4E75-B008-E2876B796CF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC12" authorId="0" shapeId="0" xr:uid="{CBE3E463-A405-4B5A-BAE0-217B4FA90CEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle is null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0" shapeId="0" xr:uid="{DC047359-EE00-41FB-B42E-B64B9B108875}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle is null</t>
         </r>
       </text>
     </comment>
@@ -1282,7 +1402,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,6 +1692,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,7 +1848,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2285,9 +2450,9 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4200" ySplit="3210" topLeftCell="G8" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1:AQ1"/>
+      <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B22"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2319,86 +2484,86 @@
       <c r="E1" s="57"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="110" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="110" t="s">
+      <c r="Q1" s="113"/>
+      <c r="R1" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="110" t="s">
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="110" t="s">
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="110" t="s">
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="113" t="s">
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="114"/>
-      <c r="BC1" s="114"/>
-      <c r="BD1" s="114"/>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="114"/>
-      <c r="BH1" s="114"/>
-      <c r="BI1" s="114"/>
-      <c r="BJ1" s="114"/>
-      <c r="BK1" s="114"/>
-      <c r="BL1" s="114"/>
-      <c r="BM1" s="114"/>
-      <c r="BN1" s="114"/>
-      <c r="BO1" s="115"/>
-      <c r="BP1" s="110" t="s">
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="116"/>
+      <c r="BP1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="BQ1" s="111"/>
-      <c r="BR1" s="112"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BQ1" s="112"/>
+      <c r="BR1" s="113"/>
+      <c r="BS1" s="101" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2410,124 +2575,124 @@
       <c r="E2" s="57"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="104" t="s">
+      <c r="L2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="109" t="s">
+      <c r="P2" s="110"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103" t="s">
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103" t="s">
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103" t="s">
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="109" t="s">
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103" t="s">
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="99" t="s">
+      <c r="AV2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="109" t="s">
+      <c r="AW2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="103" t="s">
+      <c r="AX2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="103" t="s">
+      <c r="AY2" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" s="99" t="s">
+      <c r="AZ2" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="120" t="s">
+      <c r="BA2" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="121"/>
-      <c r="BC2" s="116" t="s">
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" s="109" t="s">
+      <c r="BD2" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="103"/>
-      <c r="BK2" s="103"/>
-      <c r="BL2" s="103"/>
-      <c r="BM2" s="103"/>
+      <c r="BE2" s="104"/>
+      <c r="BF2" s="104"/>
+      <c r="BG2" s="104"/>
+      <c r="BH2" s="104"/>
+      <c r="BI2" s="104"/>
+      <c r="BJ2" s="104"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
       <c r="BN2" s="72" t="s">
         <v>113</v>
       </c>
       <c r="BO2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="109" t="s">
+      <c r="BP2" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="BQ2" s="103" t="s">
+      <c r="BQ2" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="BR2" s="99" t="s">
+      <c r="BR2" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="BS2" s="101"/>
+      <c r="BS2" s="102"/>
     </row>
     <row r="3" spans="1:71" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2555,19 +2720,19 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/49</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="109" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="109" t="s">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="110" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="72" t="s">
@@ -2588,16 +2753,16 @@
       <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="109" t="s">
+      <c r="Y3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="103" t="s">
+      <c r="Z3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="103" t="s">
+      <c r="AA3" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="103" t="s">
+      <c r="AB3" s="104" t="s">
         <v>84</v>
       </c>
       <c r="AC3" s="72" t="s">
@@ -2615,54 +2780,54 @@
       <c r="AG3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="103" t="s">
+      <c r="AH3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="103" t="s">
+      <c r="AI3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="103" t="s">
+      <c r="AJ3" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="103" t="s">
+      <c r="AK3" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="103" t="s">
+      <c r="AL3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="103" t="s">
+      <c r="AM3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="103" t="s">
+      <c r="AN3" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="AO3" s="103" t="s">
+      <c r="AO3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="103" t="s">
+      <c r="AP3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="99" t="s">
+      <c r="AQ3" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="109" t="s">
+      <c r="AR3" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" s="103" t="s">
+      <c r="AS3" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="AT3" s="103" t="s">
+      <c r="AT3" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="122"/>
-      <c r="BC3" s="101"/>
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="123"/>
+      <c r="BC3" s="102"/>
       <c r="BD3" s="81" t="s">
         <v>13</v>
       </c>
@@ -2699,10 +2864,10 @@
       <c r="BO3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="109"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="101"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="104"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="102"/>
     </row>
     <row r="4" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2712,21 +2877,21 @@
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="108"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="109"/>
       <c r="P4" s="75" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="109"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="72" t="s">
         <v>78</v>
       </c>
@@ -2745,10 +2910,10 @@
       <c r="X4" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
       <c r="AC4" s="72" t="s">
         <v>87</v>
       </c>
@@ -2764,32 +2929,32 @@
       <c r="AG4" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="99"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="100"/>
       <c r="BA4" s="75" t="s">
         <v>75</v>
       </c>
       <c r="BB4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="BC4" s="102"/>
+      <c r="BC4" s="103"/>
       <c r="BD4" s="81" t="s">
         <v>103</v>
       </c>
@@ -2826,10 +2991,10 @@
       <c r="BO4" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="BP4" s="109"/>
-      <c r="BQ4" s="103"/>
-      <c r="BR4" s="99"/>
-      <c r="BS4" s="101"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="104"/>
+      <c r="BR4" s="100"/>
+      <c r="BS4" s="102"/>
     </row>
     <row r="5" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -3266,51 +3431,51 @@
         <f>SUM(X5:X5)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="108">
+      <c r="Y7" s="109">
         <f>SUM(Y5:AG5)</f>
         <v>8</v>
       </c>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="117"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="108">
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="109">
         <f>SUM(AH5:AK5)</f>
         <v>4</v>
       </c>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="117"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="108">
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="109">
         <f>SUM(AL5:AQ5)</f>
         <v>6</v>
       </c>
-      <c r="AM7" s="117"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="117"/>
-      <c r="AP7" s="117"/>
-      <c r="AQ7" s="117"/>
-      <c r="AR7" s="108">
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="118"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="118"/>
+      <c r="AR7" s="109">
         <f>SUM(AR5:AV5)</f>
         <v>5</v>
       </c>
-      <c r="AS7" s="117"/>
-      <c r="AT7" s="117"/>
-      <c r="AU7" s="117"/>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="108">
+      <c r="AS7" s="118"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="109">
         <f>SUM(AW5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AX7" s="117"/>
-      <c r="AY7" s="117"/>
-      <c r="AZ7" s="118"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="120"/>
+      <c r="BB7" s="120"/>
       <c r="BC7" s="78"/>
       <c r="BD7" s="77">
         <f>SUM(BD5:BD5)</f>
@@ -3662,19 +3827,19 @@
       <c r="C11" s="5"/>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1632653061224487</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1632653061224487</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H11" s="92"/>
       <c r="I11" s="14"/>
@@ -3693,14 +3858,30 @@
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
       <c r="X11" s="53"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
+      <c r="Y11" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="72">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="72">
+        <v>0.5</v>
+      </c>
       <c r="AG11" s="15">
         <v>99</v>
       </c>
@@ -3752,19 +3933,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.204081632653061</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.204081632653061</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="H12" s="92"/>
       <c r="I12" s="14"/>
@@ -3783,14 +3964,30 @@
       <c r="V12" s="75"/>
       <c r="W12" s="75"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
+      <c r="Y12" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="Z12" s="79">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="AD12" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="AE12" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" s="72">
+        <v>0.5</v>
+      </c>
       <c r="AG12" s="15">
         <v>99</v>
       </c>
@@ -5450,7 +5647,7 @@
       </c>
       <c r="Y29" s="73">
         <f t="shared" si="9"/>
-        <v>0.78333333333333333</v>
+        <v>0.79</v>
       </c>
       <c r="Z29" s="73">
         <f t="shared" si="9"/>
@@ -5458,27 +5655,27 @@
       </c>
       <c r="AA29" s="73">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="AB29" s="73">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="AC29" s="73">
         <f t="shared" si="9"/>
-        <v>0.93333333333333324</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="AD29" s="73">
         <f t="shared" si="9"/>
-        <v>0.8833333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="AE29" s="73">
         <f t="shared" si="9"/>
-        <v>0.83333333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="AF29" s="73">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AG29" s="73">
         <f t="shared" si="9"/>
@@ -6414,7 +6611,7 @@
     <row r="34" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" ref="H34:BS34" si="15">H11*H$5</f>
@@ -6486,11 +6683,11 @@
       </c>
       <c r="Y34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="73">
         <f t="shared" si="15"/>
@@ -6498,15 +6695,15 @@
       </c>
       <c r="AB34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="73">
         <f t="shared" si="15"/>
@@ -6514,7 +6711,7 @@
       </c>
       <c r="AF34" s="73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG34" s="73">
         <f t="shared" si="15"/>
@@ -6672,7 +6869,7 @@
     <row r="35" spans="4:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="H35" s="73">
         <f t="shared" ref="H35:BS35" si="16">H12*H$5</f>
@@ -6744,11 +6941,11 @@
       </c>
       <c r="Y35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="73">
         <f t="shared" si="16"/>
@@ -6756,23 +6953,23 @@
       </c>
       <c r="AB35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF35" s="73">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG35" s="73">
         <f t="shared" si="16"/>
@@ -11874,7 +12071,7 @@
     <row r="64" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H64" s="73">
         <f t="shared" ref="H64:BR64" si="40">H11*H$6</f>
@@ -11946,11 +12143,11 @@
       </c>
       <c r="Y64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA64" s="73">
         <f t="shared" si="40"/>
@@ -11958,15 +12155,15 @@
       </c>
       <c r="AB64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64" s="73">
         <f t="shared" si="40"/>
@@ -11974,7 +12171,7 @@
       </c>
       <c r="AF64" s="73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG64" s="73">
         <f t="shared" si="40"/>
@@ -12132,7 +12329,7 @@
     <row r="65" spans="7:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="H65" s="73">
         <f t="shared" ref="H65:BR65" si="42">H12*H$6</f>
@@ -12204,11 +12401,11 @@
       </c>
       <c r="Y65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65" s="73">
         <f t="shared" si="42"/>
@@ -12216,23 +12413,23 @@
       </c>
       <c r="AB65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF65" s="73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG65" s="73">
         <f t="shared" si="42"/>
@@ -22414,28 +22611,54 @@
     <mergeCell ref="P1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BS23 I8:X10 Z8:BS10">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+  <conditionalFormatting sqref="I13:BS23 I8:X12 Z8:BS12">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS28">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H23">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H28">
     <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22448,20 +22671,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H23">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H28">
+  <conditionalFormatting sqref="Y8">
     <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22474,20 +22684,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y9">
+  <conditionalFormatting sqref="Y10">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22500,7 +22710,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22569,144 +22792,144 @@
       <c r="C1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="123" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="130" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="123" t="s">
+      <c r="AL1" s="132"/>
+      <c r="AM1" s="132"/>
+      <c r="AN1" s="132"/>
+      <c r="AO1" s="132"/>
+      <c r="AP1" s="132"/>
+      <c r="AQ1" s="133"/>
+      <c r="AR1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="124"/>
+      <c r="AS1" s="125"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="140" t="s">
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="140" t="s">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="140" t="s">
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="144"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="140" t="s">
+      <c r="AK2" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="144"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="36"/>
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="48"/>
-      <c r="AR2" s="136" t="s">
+      <c r="AR2" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="138" t="s">
+      <c r="AS2" s="139" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="123" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="124"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="125"/>
       <c r="P3" s="36" t="s">
         <v>30</v>
       </c>
@@ -22716,20 +22939,20 @@
       <c r="R3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="140" t="s">
+      <c r="S3" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="140" t="s">
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
       <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
@@ -22742,11 +22965,11 @@
       <c r="AF3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="129" t="s">
+      <c r="AG3" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="126"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="37" t="s">
         <v>7</v>
       </c>
@@ -22771,77 +22994,77 @@
       <c r="AQ3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="139"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="140"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="129" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="126"/>
-      <c r="L4" s="129" t="s">
+      <c r="K4" s="127"/>
+      <c r="L4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="127" t="s">
+      <c r="M4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="126" t="s">
+      <c r="O4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="P4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="125" t="s">
+      <c r="Q4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="125" t="s">
+      <c r="R4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="T4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="127" t="s">
+      <c r="U4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="127" t="s">
+      <c r="V4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="145" t="s">
+      <c r="W4" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="129" t="s">
+      <c r="X4" s="127"/>
+      <c r="Y4" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="127" t="s">
+      <c r="Z4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="127" t="s">
+      <c r="AA4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="128" t="s">
+      <c r="AB4" s="129" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="40"/>
@@ -22870,40 +23093,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
       <c r="W5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="128"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="129"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="40"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5895281-2D03-4926-880C-3D51E1D4E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708BA36-A87B-4140-AC47-0D17FCA39B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1170" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -223,6 +224,30 @@
           </rPr>
           <t xml:space="preserve">
 manque contrôle is null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{766941FF-E6FC-4D6A-B8BF-1B9BB27B55BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -1402,7 +1427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1695,43 +1720,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,16 +1738,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,25 +1762,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1801,9 +1832,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1848,49 +1876,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -2448,11 +2434,11 @@
   <dimension ref="A1:BS244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="G8" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="G9" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B22"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2484,63 +2470,63 @@
       <c r="E1" s="57"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="111" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="111" t="s">
+      <c r="Q1" s="103"/>
+      <c r="R1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="111" t="s">
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="111" t="s">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="111" t="s">
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="103"/>
       <c r="BA1" s="114" t="s">
         <v>9</v>
       </c>
@@ -2558,12 +2544,12 @@
       <c r="BM1" s="115"/>
       <c r="BN1" s="115"/>
       <c r="BO1" s="116"/>
-      <c r="BP1" s="111" t="s">
+      <c r="BP1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="BQ1" s="112"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="101" t="s">
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="103"/>
+      <c r="BS1" s="112" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2575,124 +2561,124 @@
       <c r="E2" s="57"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="110" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104" t="s">
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104" t="s">
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104" t="s">
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="110" t="s">
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104" t="s">
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="100" t="s">
+      <c r="AV2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="110" t="s">
+      <c r="AW2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="104" t="s">
+      <c r="AX2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="104" t="s">
+      <c r="AY2" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" s="100" t="s">
+      <c r="AZ2" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="121" t="s">
+      <c r="BA2" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="122"/>
+      <c r="BB2" s="110"/>
       <c r="BC2" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" s="110" t="s">
+      <c r="BD2" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="104"/>
-      <c r="BF2" s="104"/>
-      <c r="BG2" s="104"/>
-      <c r="BH2" s="104"/>
-      <c r="BI2" s="104"/>
-      <c r="BJ2" s="104"/>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
       <c r="BN2" s="72" t="s">
         <v>113</v>
       </c>
       <c r="BO2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="110" t="s">
+      <c r="BP2" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="BQ2" s="104" t="s">
+      <c r="BQ2" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="BR2" s="100" t="s">
+      <c r="BR2" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="BS2" s="102"/>
+      <c r="BS2" s="113"/>
     </row>
     <row r="3" spans="1:71" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2720,19 +2706,19 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/49</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="110" t="s">
+      <c r="H3" s="122"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="110" t="s">
+      <c r="Q3" s="104"/>
+      <c r="R3" s="99" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="72" t="s">
@@ -2753,16 +2739,16 @@
       <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="110" t="s">
+      <c r="Y3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="104" t="s">
+      <c r="Z3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="104" t="s">
+      <c r="AA3" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="104" t="s">
+      <c r="AB3" s="100" t="s">
         <v>84</v>
       </c>
       <c r="AC3" s="72" t="s">
@@ -2780,54 +2766,54 @@
       <c r="AG3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="104" t="s">
+      <c r="AH3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="104" t="s">
+      <c r="AI3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="104" t="s">
+      <c r="AJ3" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="104" t="s">
+      <c r="AK3" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="104" t="s">
+      <c r="AL3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="104" t="s">
+      <c r="AM3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="104" t="s">
+      <c r="AN3" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="AO3" s="104" t="s">
+      <c r="AO3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="104" t="s">
+      <c r="AP3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="100" t="s">
+      <c r="AQ3" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="110" t="s">
+      <c r="AR3" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" s="104" t="s">
+      <c r="AS3" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="AT3" s="104" t="s">
+      <c r="AT3" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="110"/>
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="109"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="102"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="111"/>
+      <c r="BC3" s="113"/>
       <c r="BD3" s="81" t="s">
         <v>13</v>
       </c>
@@ -2864,10 +2850,10 @@
       <c r="BO3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="110"/>
-      <c r="BQ3" s="104"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="102"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="104"/>
+      <c r="BS3" s="113"/>
     </row>
     <row r="4" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2877,21 +2863,21 @@
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="109"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="105"/>
       <c r="P4" s="75" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="110"/>
+      <c r="R4" s="99"/>
       <c r="S4" s="72" t="s">
         <v>78</v>
       </c>
@@ -2910,10 +2896,10 @@
       <c r="X4" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
       <c r="AC4" s="72" t="s">
         <v>87</v>
       </c>
@@ -2929,32 +2915,32 @@
       <c r="AG4" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="104"/>
       <c r="BA4" s="75" t="s">
         <v>75</v>
       </c>
       <c r="BB4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="BC4" s="103"/>
+      <c r="BC4" s="118"/>
       <c r="BD4" s="81" t="s">
         <v>103</v>
       </c>
@@ -2991,10 +2977,10 @@
       <c r="BO4" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="104"/>
-      <c r="BR4" s="100"/>
-      <c r="BS4" s="102"/>
+      <c r="BP4" s="99"/>
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="104"/>
+      <c r="BS4" s="113"/>
     </row>
     <row r="5" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -3431,51 +3417,51 @@
         <f>SUM(X5:X5)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="109">
+      <c r="Y7" s="105">
         <f>SUM(Y5:AG5)</f>
         <v>8</v>
       </c>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="109">
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="105">
         <f>SUM(AH5:AK5)</f>
         <v>4</v>
       </c>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="109">
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="105">
         <f>SUM(AL5:AQ5)</f>
         <v>6</v>
       </c>
-      <c r="AM7" s="118"/>
-      <c r="AN7" s="118"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="118"/>
-      <c r="AR7" s="109">
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="105">
         <f>SUM(AR5:AV5)</f>
         <v>5</v>
       </c>
-      <c r="AS7" s="118"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="118"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="109">
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="105">
         <f>SUM(AW5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AX7" s="118"/>
-      <c r="AY7" s="118"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="120"/>
-      <c r="BB7" s="120"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
       <c r="BC7" s="78"/>
       <c r="BD7" s="77">
         <f>SUM(BD5:BD5)</f>
@@ -4039,19 +4025,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6938775510204085</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6938775510204085</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="H13" s="92"/>
       <c r="I13" s="14"/>
@@ -4070,14 +4056,30 @@
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
       <c r="X13" s="53"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
+      <c r="Y13" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="72">
+        <v>0.9</v>
+      </c>
+      <c r="AF13" s="72">
+        <v>0.9</v>
+      </c>
       <c r="AG13" s="15">
         <v>99</v>
       </c>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="Y29" s="73">
         <f t="shared" si="9"/>
-        <v>0.79</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Z29" s="73">
         <f t="shared" si="9"/>
@@ -5655,27 +5657,27 @@
       </c>
       <c r="AA29" s="73">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AB29" s="73">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AC29" s="73">
         <f t="shared" si="9"/>
-        <v>0.91999999999999993</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="AD29" s="73">
         <f t="shared" si="9"/>
-        <v>0.89</v>
+        <v>0.90833333333333333</v>
       </c>
       <c r="AE29" s="73">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="AF29" s="73">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="AG29" s="73">
         <f t="shared" si="9"/>
@@ -7127,7 +7129,7 @@
     <row r="36" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="H36" s="73">
         <f t="shared" ref="H36:BS36" si="17">H13*H$5</f>
@@ -7199,11 +7201,11 @@
       </c>
       <c r="Y36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="73">
         <f t="shared" si="17"/>
@@ -7211,23 +7213,23 @@
       </c>
       <c r="AB36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AF36" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AG36" s="73">
         <f t="shared" si="17"/>
@@ -12587,7 +12589,7 @@
     <row r="66" spans="7:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="H66" s="73">
         <f t="shared" ref="H66:BR66" si="44">H13*H$6</f>
@@ -12659,11 +12661,11 @@
       </c>
       <c r="Y66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66" s="73">
         <f t="shared" si="44"/>
@@ -12671,23 +12673,23 @@
       </c>
       <c r="AB66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AF66" s="73">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AG66" s="73">
         <f t="shared" si="44"/>
@@ -22550,17 +22552,38 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="R1:X2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="Y2:AG2"/>
+    <mergeCell ref="Y1:AQ1"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="BS1:BS4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="BD2:BM2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="BC2:BC4"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AR7:AV7"/>
     <mergeCell ref="AW7:AZ7"/>
@@ -22577,127 +22600,119 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="BS1:BS4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="BD2:BM2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="Y2:AG2"/>
-    <mergeCell ref="Y1:AQ1"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="R1:X2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AQ3:AQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BS23 I8:X12 Z8:BS12">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+  <conditionalFormatting sqref="I14:BS23 I8:X13 Z8:BS13">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS28">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H23">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H28">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22710,7 +22725,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
+  <conditionalFormatting sqref="Y12">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22723,7 +22738,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
+  <conditionalFormatting sqref="Y13">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22792,144 +22807,144 @@
       <c r="C1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="124" t="s">
+      <c r="E1" s="131"/>
+      <c r="F1" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="131" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="132"/>
-      <c r="AO1" s="132"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="124" t="s">
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="125"/>
+      <c r="AS1" s="131"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="141" t="s">
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="141" t="s">
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="141" t="s">
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="145"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="141" t="s">
+      <c r="AK2" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="145"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="146"/>
       <c r="AN2" s="36"/>
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="48"/>
-      <c r="AR2" s="137" t="s">
+      <c r="AR2" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="139" t="s">
+      <c r="AS2" s="140" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="124" t="s">
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="125"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
       <c r="P3" s="36" t="s">
         <v>30</v>
       </c>
@@ -22939,20 +22954,20 @@
       <c r="R3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="141" t="s">
+      <c r="S3" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="141" t="s">
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
       <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
@@ -22965,11 +22980,11 @@
       <c r="AF3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="130" t="s">
+      <c r="AG3" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="128"/>
       <c r="AJ3" s="37" t="s">
         <v>7</v>
       </c>
@@ -22994,77 +23009,77 @@
       <c r="AQ3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="140"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="141"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="130" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="128" t="s">
+      <c r="J4" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="130" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="128" t="s">
+      <c r="M4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="127" t="s">
+      <c r="O4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="126" t="s">
+      <c r="P4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="126" t="s">
+      <c r="Q4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="R4" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="130" t="s">
+      <c r="S4" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="128" t="s">
+      <c r="T4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="128" t="s">
+      <c r="U4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="146" t="s">
+      <c r="W4" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="130" t="s">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="128" t="s">
+      <c r="Z4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="128" t="s">
+      <c r="AA4" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="129" t="s">
+      <c r="AB4" s="147" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="40"/>
@@ -23093,40 +23108,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="130"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
       <c r="W5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="129"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="147"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="40"/>
@@ -23573,6 +23588,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -23587,32 +23628,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708BA36-A87B-4140-AC47-0D17FCA39B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7DB25-EF80-49E9-9DA6-089A4278ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1170" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -228,6 +227,274 @@
       </text>
     </comment>
     <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{766941FF-E6FC-4D6A-B8BF-1B9BB27B55BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y14" authorId="0" shapeId="0" xr:uid="{6F96960F-4E8E-45DD-B974-852B3DBFF03A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable
+manque le contrôle sur la date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{3D9FA97D-CD87-4BD3-9738-1FAC32C2FA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+printStackTrace</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0" shapeId="0" xr:uid="{BEF70B4F-3122-47A3-8ABD-A18A3FE31BAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y16" authorId="0" shapeId="0" xr:uid="{26E90EA5-6189-41FE-BA7A-03FAD0DAB0A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y17" authorId="0" shapeId="0" xr:uid="{7214300A-1EDA-4F3A-8D06-5A27D57E6FEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y18" authorId="0" shapeId="0" xr:uid="{45F7B35D-64CC-43E8-80B8-3A2F44BF4287}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque unmodifiableList
+UUID non instancié</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC18" authorId="0" shapeId="0" xr:uid="{BD0B0F5A-8918-4509-AFD0-9F543DDDAF99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle is null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y19" authorId="0" shapeId="0" xr:uid="{E4C9764B-2D1A-4FF1-8BC8-52F6F5A7A3D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque unmodifiableList
+UUID non instancié
+list non instanciée</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y20" authorId="0" shapeId="0" xr:uid="{AFDC2605-AAAF-425A-978D-FD476351B4D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y21" authorId="0" shapeId="0" xr:uid="{DC033F28-48DD-4D36-BB8C-C9995D50ECE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y22" authorId="0" shapeId="0" xr:uid="{56FD261A-2FBD-4E6E-9B90-C143B0C5575B}">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1694,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1729,6 +1996,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1738,10 +2044,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,67 +2074,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,6 +2102,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1867,7 +2140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,7 +2149,301 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2434,11 +3001,11 @@
   <dimension ref="A1:BS244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="G9" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="G18" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B22"/>
-      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
+      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2470,86 +3037,86 @@
       <c r="E1" s="57"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="101" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="101" t="s">
+      <c r="Q1" s="116"/>
+      <c r="R1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="101" t="s">
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="101" t="s">
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="101" t="s">
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="114" t="s">
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="116"/>
+      <c r="BA1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="115"/>
-      <c r="BC1" s="115"/>
-      <c r="BD1" s="115"/>
-      <c r="BE1" s="115"/>
-      <c r="BF1" s="115"/>
-      <c r="BG1" s="115"/>
-      <c r="BH1" s="115"/>
-      <c r="BI1" s="115"/>
-      <c r="BJ1" s="115"/>
-      <c r="BK1" s="115"/>
-      <c r="BL1" s="115"/>
-      <c r="BM1" s="115"/>
-      <c r="BN1" s="115"/>
-      <c r="BO1" s="116"/>
-      <c r="BP1" s="101" t="s">
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="118"/>
+      <c r="BO1" s="119"/>
+      <c r="BP1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="BQ1" s="102"/>
-      <c r="BR1" s="103"/>
-      <c r="BS1" s="112" t="s">
+      <c r="BQ1" s="115"/>
+      <c r="BR1" s="116"/>
+      <c r="BS1" s="104" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2561,124 +3128,124 @@
       <c r="E2" s="57"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="119" t="s">
+      <c r="O2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="99" t="s">
+      <c r="P2" s="113"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100" t="s">
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100" t="s">
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100" t="s">
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="99" t="s">
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100" t="s">
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="104" t="s">
+      <c r="AV2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="99" t="s">
+      <c r="AW2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="100" t="s">
+      <c r="AX2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="100" t="s">
+      <c r="AY2" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" s="104" t="s">
+      <c r="AZ2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="109" t="s">
+      <c r="BA2" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="117" t="s">
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" s="99" t="s">
+      <c r="BD2" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
       <c r="BN2" s="72" t="s">
         <v>113</v>
       </c>
       <c r="BO2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="99" t="s">
+      <c r="BP2" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="BQ2" s="100" t="s">
+      <c r="BQ2" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="BR2" s="104" t="s">
+      <c r="BR2" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="BS2" s="113"/>
+      <c r="BS2" s="105"/>
     </row>
     <row r="3" spans="1:71" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2706,19 +3273,19 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/49</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="99" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="99" t="s">
+      <c r="Q3" s="103"/>
+      <c r="R3" s="113" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="72" t="s">
@@ -2739,16 +3306,16 @@
       <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="99" t="s">
+      <c r="Y3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="100" t="s">
+      <c r="Z3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="100" t="s">
+      <c r="AA3" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="100" t="s">
+      <c r="AB3" s="107" t="s">
         <v>84</v>
       </c>
       <c r="AC3" s="72" t="s">
@@ -2766,54 +3333,54 @@
       <c r="AG3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="100" t="s">
+      <c r="AH3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="100" t="s">
+      <c r="AI3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="100" t="s">
+      <c r="AJ3" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="100" t="s">
+      <c r="AK3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="100" t="s">
+      <c r="AL3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="100" t="s">
+      <c r="AM3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="100" t="s">
+      <c r="AN3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="AO3" s="100" t="s">
+      <c r="AO3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="100" t="s">
+      <c r="AP3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="104" t="s">
+      <c r="AQ3" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="99" t="s">
+      <c r="AR3" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" s="100" t="s">
+      <c r="AS3" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="AT3" s="100" t="s">
+      <c r="AT3" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="113"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="112"/>
+      <c r="BB3" s="126"/>
+      <c r="BC3" s="105"/>
       <c r="BD3" s="81" t="s">
         <v>13</v>
       </c>
@@ -2850,10 +3417,10 @@
       <c r="BO3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="104"/>
-      <c r="BS3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="105"/>
     </row>
     <row r="4" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2863,21 +3430,21 @@
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="105"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="112"/>
       <c r="P4" s="75" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="99"/>
+      <c r="R4" s="113"/>
       <c r="S4" s="72" t="s">
         <v>78</v>
       </c>
@@ -2896,10 +3463,10 @@
       <c r="X4" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
       <c r="AC4" s="72" t="s">
         <v>87</v>
       </c>
@@ -2915,32 +3482,32 @@
       <c r="AG4" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="104"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="103"/>
       <c r="BA4" s="75" t="s">
         <v>75</v>
       </c>
       <c r="BB4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="BC4" s="118"/>
+      <c r="BC4" s="106"/>
       <c r="BD4" s="81" t="s">
         <v>103</v>
       </c>
@@ -2977,10 +3544,10 @@
       <c r="BO4" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="BP4" s="99"/>
-      <c r="BQ4" s="100"/>
-      <c r="BR4" s="104"/>
-      <c r="BS4" s="113"/>
+      <c r="BP4" s="113"/>
+      <c r="BQ4" s="107"/>
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="105"/>
     </row>
     <row r="5" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -3417,51 +3984,51 @@
         <f>SUM(X5:X5)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="105">
+      <c r="Y7" s="112">
         <f>SUM(Y5:AG5)</f>
         <v>8</v>
       </c>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="105">
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="112">
         <f>SUM(AH5:AK5)</f>
         <v>4</v>
       </c>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="105">
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="112">
         <f>SUM(AL5:AQ5)</f>
         <v>6</v>
       </c>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="105">
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="112">
         <f>SUM(AR5:AV5)</f>
         <v>5</v>
       </c>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="105">
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="112">
         <f>SUM(AW5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="108"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
       <c r="BC7" s="78"/>
       <c r="BD7" s="77">
         <f>SUM(BD5:BD5)</f>
@@ -4131,19 +4698,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="14"/>
@@ -4162,14 +4729,30 @@
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
+      <c r="Y14" s="99">
+        <v>0.75</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="AF14" s="72">
+        <v>0.125</v>
+      </c>
       <c r="AG14" s="15">
         <v>99</v>
       </c>
@@ -4221,19 +4804,19 @@
       <c r="C15" s="5"/>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5816326530612246</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5816326530612246</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="H15" s="92"/>
       <c r="I15" s="14"/>
@@ -4241,7 +4824,9 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="56"/>
+      <c r="N15" s="56">
+        <v>0.125</v>
+      </c>
       <c r="O15" s="14"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="75"/>
@@ -4252,14 +4837,30 @@
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
+      <c r="Y15" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="AD15" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="AE15" s="72">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="72">
+        <v>0.9</v>
+      </c>
       <c r="AG15" s="15">
         <v>99</v>
       </c>
@@ -4311,19 +4912,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H16" s="92"/>
       <c r="I16" s="14"/>
@@ -4342,14 +4943,30 @@
       <c r="V16" s="75"/>
       <c r="W16" s="75"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
+      <c r="Y16" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z16" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="100">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="72">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="72">
+        <v>1</v>
+      </c>
       <c r="AG16" s="15">
         <v>99</v>
       </c>
@@ -4401,19 +5018,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H17" s="92"/>
       <c r="I17" s="14"/>
@@ -4432,14 +5049,30 @@
       <c r="V17" s="75"/>
       <c r="W17" s="75"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
+      <c r="Y17" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z17" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="100">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="100">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="100">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="100">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="100">
+        <v>1</v>
+      </c>
       <c r="AG17" s="15">
         <v>99</v>
       </c>
@@ -4491,19 +5124,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6326530612244896</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6326530612244896</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="14"/>
@@ -4522,14 +5155,30 @@
       <c r="V18" s="75"/>
       <c r="W18" s="75"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
+      <c r="Y18" s="99">
+        <v>0.75</v>
+      </c>
+      <c r="Z18" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="100">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="AD18" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="AE18" s="100">
+        <v>0.125</v>
+      </c>
+      <c r="AF18" s="100">
+        <v>0.125</v>
+      </c>
       <c r="AG18" s="15">
         <v>99</v>
       </c>
@@ -4581,19 +5230,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2448979591836733</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2448979591836733</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="14"/>
@@ -4612,14 +5261,30 @@
       <c r="V19" s="75"/>
       <c r="W19" s="75"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
+      <c r="Y19" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="Z19" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="AF19" s="72">
+        <v>0.5</v>
+      </c>
       <c r="AG19" s="15">
         <v>99</v>
       </c>
@@ -4671,19 +5336,19 @@
       <c r="C20" s="5"/>
       <c r="D20" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="14"/>
@@ -4702,14 +5367,30 @@
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
+      <c r="Y20" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="AD20" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="AE20" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="AF20" s="72">
+        <v>0.8</v>
+      </c>
       <c r="AG20" s="15">
         <v>99</v>
       </c>
@@ -4761,19 +5442,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="27">
         <f t="shared" ref="D21:D23" si="4">G21/$G$5*20+BS21*$BS$5</f>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" ref="E21:E23" si="5">F21/$G$6*20+BS21*$BS$6</f>
-        <v>0</v>
+        <v>2.7755102040816326</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="69"/>
@@ -4792,14 +5473,30 @@
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
+      <c r="Y21" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="72">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="72">
+        <v>1</v>
+      </c>
       <c r="AG21" s="67">
         <v>99</v>
       </c>
@@ -4852,19 +5549,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.1632653061224487</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.1632653061224487</v>
       </c>
       <c r="F22" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="69"/>
@@ -4883,14 +5580,30 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
+      <c r="Y22" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="Z22" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="72">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="72">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="AF22" s="72">
+        <v>0.75</v>
+      </c>
       <c r="AG22" s="67">
         <v>99</v>
       </c>
@@ -5603,9 +6316,9 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="73" t="e">
+      <c r="N29" s="73">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.125</v>
       </c>
       <c r="O29" s="73" t="e">
         <f t="shared" si="9"/>
@@ -5649,7 +6362,7 @@
       </c>
       <c r="Y29" s="73">
         <f t="shared" si="9"/>
-        <v>0.79166666666666663</v>
+        <v>0.77</v>
       </c>
       <c r="Z29" s="73">
         <f t="shared" si="9"/>
@@ -5657,27 +6370,27 @@
       </c>
       <c r="AA29" s="73">
         <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB29" s="73">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AC29" s="73">
         <f t="shared" si="9"/>
-        <v>0.93333333333333324</v>
+        <v>0.91</v>
       </c>
       <c r="AD29" s="73">
         <f t="shared" si="9"/>
-        <v>0.90833333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="AE29" s="73">
         <f t="shared" si="9"/>
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="AF29" s="73">
         <f t="shared" si="9"/>
-        <v>0.65</v>
+        <v>0.67333333333333345</v>
       </c>
       <c r="AG29" s="73">
         <f t="shared" si="9"/>
@@ -7387,7 +8100,7 @@
     <row r="37" spans="4:71" x14ac:dyDescent="0.25">
       <c r="G37" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37" s="73">
         <f t="shared" ref="H37:BS37" si="18">H14*H$5</f>
@@ -7459,11 +8172,11 @@
       </c>
       <c r="Y37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="73">
         <f t="shared" si="18"/>
@@ -7471,23 +8184,23 @@
       </c>
       <c r="AB37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AF37" s="73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AG37" s="73">
         <f t="shared" si="18"/>
@@ -7645,7 +8358,7 @@
     <row r="38" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" ref="H38:BS38" si="19">H15*H$5</f>
@@ -7673,7 +8386,7 @@
       </c>
       <c r="N38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O38" s="73">
         <f t="shared" si="19"/>
@@ -7717,11 +8430,11 @@
       </c>
       <c r="Y38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="73">
         <f t="shared" si="19"/>
@@ -7729,23 +8442,23 @@
       </c>
       <c r="AB38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AG38" s="73">
         <f t="shared" si="19"/>
@@ -7903,7 +8616,7 @@
     <row r="39" spans="4:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H39" s="73">
         <f t="shared" ref="H39:BS39" si="20">H16*H$5</f>
@@ -7975,11 +8688,11 @@
       </c>
       <c r="Y39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="73">
         <f t="shared" si="20"/>
@@ -7987,23 +8700,23 @@
       </c>
       <c r="AB39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="73">
         <f t="shared" si="20"/>
@@ -8161,7 +8874,7 @@
     <row r="40" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H40" s="73">
         <f t="shared" ref="H40:BS40" si="21">H17*H$5</f>
@@ -8233,11 +8946,11 @@
       </c>
       <c r="Y40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="73">
         <f t="shared" si="21"/>
@@ -8245,23 +8958,23 @@
       </c>
       <c r="AB40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="73">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="73">
         <f t="shared" si="21"/>
@@ -8419,7 +9132,7 @@
     <row r="41" spans="4:71" x14ac:dyDescent="0.25">
       <c r="G41" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="73">
         <f t="shared" ref="H41:BS41" si="22">H18*H$5</f>
@@ -8491,11 +9204,11 @@
       </c>
       <c r="Y41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="73">
         <f t="shared" si="22"/>
@@ -8503,23 +9216,23 @@
       </c>
       <c r="AB41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AF41" s="73">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AG41" s="73">
         <f t="shared" si="22"/>
@@ -8677,7 +9390,7 @@
     <row r="42" spans="4:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H42" s="73">
         <f t="shared" ref="H42:BS42" si="23">H19*H$5</f>
@@ -8749,11 +9462,11 @@
       </c>
       <c r="Y42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="73">
         <f t="shared" si="23"/>
@@ -8761,23 +9474,23 @@
       </c>
       <c r="AB42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF42" s="73">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG42" s="73">
         <f t="shared" si="23"/>
@@ -8935,7 +9648,7 @@
     <row r="43" spans="4:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="73">
         <f t="shared" ref="H43:BS43" si="24">H20*H$5</f>
@@ -9007,11 +9720,11 @@
       </c>
       <c r="Y43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="73">
         <f t="shared" si="24"/>
@@ -9023,19 +9736,19 @@
       </c>
       <c r="AC43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AF43" s="73">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AG43" s="73">
         <f t="shared" si="24"/>
@@ -9193,7 +9906,7 @@
     <row r="44" spans="4:71" x14ac:dyDescent="0.25">
       <c r="G44" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H44" s="73">
         <f t="shared" ref="H44:BS44" si="25">H21*H$5</f>
@@ -9265,11 +9978,11 @@
       </c>
       <c r="Y44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="73">
         <f t="shared" si="25"/>
@@ -9277,23 +9990,23 @@
       </c>
       <c r="AB44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="73">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="73">
         <f t="shared" si="25"/>
@@ -9453,7 +10166,7 @@
       <c r="E45" s="24"/>
       <c r="G45" s="73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H45" s="73">
         <f t="shared" ref="H45:BS45" si="26">H22*H$5</f>
@@ -9525,11 +10238,11 @@
       </c>
       <c r="Y45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="73">
         <f t="shared" si="26"/>
@@ -9541,19 +10254,19 @@
       </c>
       <c r="AC45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF45" s="73">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG45" s="73">
         <f t="shared" si="26"/>
@@ -12847,7 +13560,7 @@
     <row r="67" spans="7:71" x14ac:dyDescent="0.25">
       <c r="G67" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="73">
         <f t="shared" ref="H67:BR67" si="46">H14*H$6</f>
@@ -12919,11 +13632,11 @@
       </c>
       <c r="Y67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="73">
         <f t="shared" si="46"/>
@@ -12931,23 +13644,23 @@
       </c>
       <c r="AB67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AF67" s="73">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AG67" s="73">
         <f t="shared" si="46"/>
@@ -13105,7 +13818,7 @@
     <row r="68" spans="7:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="H68" s="73">
         <f t="shared" ref="H68:BR68" si="48">H15*H$6</f>
@@ -13133,7 +13846,7 @@
       </c>
       <c r="N68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O68" s="73">
         <f t="shared" si="48"/>
@@ -13177,11 +13890,11 @@
       </c>
       <c r="Y68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68" s="73">
         <f t="shared" si="48"/>
@@ -13189,23 +13902,23 @@
       </c>
       <c r="AB68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF68" s="73">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AG68" s="73">
         <f t="shared" si="48"/>
@@ -13363,7 +14076,7 @@
     <row r="69" spans="7:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H69" s="73">
         <f t="shared" ref="H69:BR69" si="50">H16*H$6</f>
@@ -13435,11 +14148,11 @@
       </c>
       <c r="Y69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69" s="73">
         <f t="shared" si="50"/>
@@ -13447,23 +14160,23 @@
       </c>
       <c r="AB69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF69" s="73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="73">
         <f t="shared" si="50"/>
@@ -13621,7 +14334,7 @@
     <row r="70" spans="7:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H70" s="73">
         <f t="shared" ref="H70:BR70" si="52">H17*H$6</f>
@@ -13693,11 +14406,11 @@
       </c>
       <c r="Y70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA70" s="73">
         <f t="shared" si="52"/>
@@ -13705,23 +14418,23 @@
       </c>
       <c r="AB70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF70" s="73">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" s="73">
         <f t="shared" si="52"/>
@@ -13879,7 +14592,7 @@
     <row r="71" spans="7:71" x14ac:dyDescent="0.25">
       <c r="G71" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71" s="73">
         <f t="shared" ref="H71:BR71" si="54">H18*H$6</f>
@@ -13951,11 +14664,11 @@
       </c>
       <c r="Y71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71" s="73">
         <f t="shared" si="54"/>
@@ -13963,23 +14676,23 @@
       </c>
       <c r="AB71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AF71" s="73">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AG71" s="73">
         <f t="shared" si="54"/>
@@ -14137,7 +14850,7 @@
     <row r="72" spans="7:71" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H72" s="73">
         <f t="shared" ref="H72:BR72" si="56">H19*H$6</f>
@@ -14209,11 +14922,11 @@
       </c>
       <c r="Y72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72" s="73">
         <f t="shared" si="56"/>
@@ -14221,23 +14934,23 @@
       </c>
       <c r="AB72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF72" s="73">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG72" s="73">
         <f t="shared" si="56"/>
@@ -14395,7 +15108,7 @@
     <row r="73" spans="7:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H73" s="73">
         <f t="shared" ref="H73:BR73" si="58">H20*H$6</f>
@@ -14467,11 +15180,11 @@
       </c>
       <c r="Y73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" s="73">
         <f t="shared" si="58"/>
@@ -14483,19 +15196,19 @@
       </c>
       <c r="AC73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AF73" s="73">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AG73" s="73">
         <f t="shared" si="58"/>
@@ -14653,7 +15366,7 @@
     <row r="74" spans="7:71" x14ac:dyDescent="0.25">
       <c r="G74" s="73">
         <f t="shared" ref="G74:G81" si="60">SUM(H74:BR74)</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H74" s="73">
         <f t="shared" ref="H74:BR74" si="61">H21*H$6</f>
@@ -14725,11 +15438,11 @@
       </c>
       <c r="Y74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA74" s="73">
         <f t="shared" si="61"/>
@@ -14737,23 +15450,23 @@
       </c>
       <c r="AB74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74" s="73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG74" s="73">
         <f t="shared" si="61"/>
@@ -14907,7 +15620,7 @@
     <row r="75" spans="7:71" x14ac:dyDescent="0.25">
       <c r="G75" s="73">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H75" s="73">
         <f t="shared" ref="H75:BR75" si="62">H22*H$6</f>
@@ -14979,11 +15692,11 @@
       </c>
       <c r="Y75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75" s="73">
         <f t="shared" si="62"/>
@@ -14995,19 +15708,19 @@
       </c>
       <c r="AC75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF75" s="73">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG75" s="73">
         <f t="shared" si="62"/>
@@ -22552,6 +23265,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="R1:X2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AR7:AV7"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AL7:AQ7"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="BA2:BB3"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="Y7:AG7"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="BS1:BS4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="BD2:BM2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="BC2:BC4"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="N2:N4"/>
@@ -22568,138 +23324,277 @@
     <mergeCell ref="Y2:AG2"/>
     <mergeCell ref="Y1:AQ1"/>
     <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="BS1:BS4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="BD2:BM2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AR7:AV7"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="AL7:AQ7"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="BA2:BB3"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="Y7:AG7"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="R1:X2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AQ3:AQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BS23 I8:X13 Z8:BS13">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+  <conditionalFormatting sqref="I23:BS23 Z8:BS15 AC16:BS16 AG17:BS18 AA19:BS19 I8:X22 Z20:BS22">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS28">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H23">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H28">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16:AB16">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC17:AF17">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AB17">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18:AF18">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22712,7 +23607,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22725,7 +23620,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
+  <conditionalFormatting sqref="Y21">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22738,7 +23633,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
+  <conditionalFormatting sqref="Y22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22807,144 +23702,144 @@
       <c r="C1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="129" t="s">
+      <c r="E1" s="128"/>
+      <c r="F1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="133" t="s">
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="129" t="s">
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="131"/>
+      <c r="AS1" s="128"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="142" t="s">
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="142" t="s">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="142" t="s">
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="146"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="148"/>
       <c r="AJ2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="142" t="s">
+      <c r="AK2" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="146"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="148"/>
       <c r="AN2" s="36"/>
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="48"/>
-      <c r="AR2" s="138" t="s">
+      <c r="AR2" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="140" t="s">
+      <c r="AS2" s="142" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="129" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="128"/>
       <c r="P3" s="36" t="s">
         <v>30</v>
       </c>
@@ -22954,20 +23849,20 @@
       <c r="R3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="142" t="s">
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
       <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
@@ -22980,11 +23875,11 @@
       <c r="AF3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="126" t="s">
+      <c r="AG3" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="128"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="130"/>
       <c r="AJ3" s="37" t="s">
         <v>7</v>
       </c>
@@ -23009,77 +23904,77 @@
       <c r="AQ3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="143"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="126" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="126" t="s">
+      <c r="K4" s="130"/>
+      <c r="L4" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="127" t="s">
+      <c r="M4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="128" t="s">
+      <c r="O4" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="P4" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="125" t="s">
+      <c r="Q4" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="125" t="s">
+      <c r="R4" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="126" t="s">
+      <c r="S4" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="T4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="127" t="s">
+      <c r="U4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="127" t="s">
+      <c r="V4" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="132" t="s">
+      <c r="W4" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="126" t="s">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="127" t="s">
+      <c r="Z4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="127" t="s">
+      <c r="AA4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="147" t="s">
+      <c r="AB4" s="132" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="40"/>
@@ -23108,40 +24003,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
       <c r="W5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="147"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="132"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="40"/>
@@ -23588,18 +24483,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -23614,20 +24511,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CD81F-5938-4D5C-BB0D-6842C77207F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35FB1A8-2B78-4AEE-AA79-37C0248748B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2082,7 +2082,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2378,43 +2378,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2426,16 +2396,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,25 +2420,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2484,9 +2490,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2522,7 +2525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3803,11 +3806,11 @@
   <dimension ref="A1:BT244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="AA12" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="AB8" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="AL5" sqref="AL5"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="AU15" sqref="AU15"/>
+      <selection pane="bottomRight" activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3841,64 +3844,64 @@
       <c r="E1" s="55"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="112" t="s">
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="112" t="s">
+      <c r="Q1" s="104"/>
+      <c r="R1" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="112" t="s">
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="112" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="114"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="104"/>
       <c r="BB1" s="115" t="s">
         <v>9</v>
       </c>
@@ -3916,12 +3919,12 @@
       <c r="BN1" s="116"/>
       <c r="BO1" s="116"/>
       <c r="BP1" s="117"/>
-      <c r="BQ1" s="112" t="s">
+      <c r="BQ1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="102" t="s">
+      <c r="BR1" s="103"/>
+      <c r="BS1" s="104"/>
+      <c r="BT1" s="113" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3933,125 +3936,125 @@
       <c r="E2" s="55"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="102" t="s">
+      <c r="N2" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="111" t="s">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105" t="s">
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105" t="s">
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="111" t="s">
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105" t="s">
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" s="101" t="s">
+      <c r="AW2" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="111" t="s">
+      <c r="AX2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="105" t="s">
+      <c r="AY2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" s="101" t="s">
+      <c r="AZ2" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="BB2" s="122" t="s">
+      <c r="BB2" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="BC2" s="123"/>
+      <c r="BC2" s="111"/>
       <c r="BD2" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="BE2" s="111" t="s">
+      <c r="BE2" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="105"/>
-      <c r="BH2" s="105"/>
-      <c r="BI2" s="105"/>
-      <c r="BJ2" s="105"/>
-      <c r="BK2" s="105"/>
-      <c r="BL2" s="105"/>
-      <c r="BM2" s="105"/>
-      <c r="BN2" s="105"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
+      <c r="BH2" s="101"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
       <c r="BO2" s="70" t="s">
         <v>113</v>
       </c>
       <c r="BP2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="BQ2" s="111" t="s">
+      <c r="BQ2" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="BR2" s="105" t="s">
+      <c r="BR2" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="BS2" s="101" t="s">
+      <c r="BS2" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="BT2" s="103"/>
+      <c r="BT2" s="114"/>
     </row>
     <row r="3" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4079,19 +4082,19 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/48</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="111" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="111" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="100" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="70" t="s">
@@ -4112,16 +4115,16 @@
       <c r="X3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="111" t="s">
+      <c r="Y3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="105" t="s">
+      <c r="Z3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="105" t="s">
+      <c r="AA3" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="105" t="s">
+      <c r="AB3" s="101" t="s">
         <v>84</v>
       </c>
       <c r="AC3" s="70" t="s">
@@ -4139,57 +4142,57 @@
       <c r="AG3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="105" t="s">
+      <c r="AH3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="105" t="s">
+      <c r="AI3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="105" t="s">
+      <c r="AJ3" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="105" t="s">
+      <c r="AK3" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="AL3" s="105" t="s">
+      <c r="AL3" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="AM3" s="105" t="s">
+      <c r="AM3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="105" t="s">
+      <c r="AN3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="105" t="s">
+      <c r="AO3" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="AP3" s="105" t="s">
+      <c r="AP3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AQ3" s="105" t="s">
+      <c r="AQ3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="AR3" s="101" t="s">
+      <c r="AR3" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="AS3" s="111" t="s">
+      <c r="AS3" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="AT3" s="105" t="s">
+      <c r="AT3" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="AU3" s="105" t="s">
+      <c r="AU3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="110"/>
-      <c r="BC3" s="124"/>
-      <c r="BD3" s="103"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="106"/>
+      <c r="BC3" s="112"/>
+      <c r="BD3" s="114"/>
       <c r="BE3" s="79" t="s">
         <v>13</v>
       </c>
@@ -4226,10 +4229,10 @@
       <c r="BP3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="BQ3" s="111"/>
-      <c r="BR3" s="105"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="103"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="105"/>
+      <c r="BT3" s="114"/>
     </row>
     <row r="4" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4239,21 +4242,21 @@
       <c r="E4" s="22"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="110"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="106"/>
       <c r="P4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="111"/>
+      <c r="R4" s="100"/>
       <c r="S4" s="70" t="s">
         <v>78</v>
       </c>
@@ -4272,10 +4275,10 @@
       <c r="X4" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
       <c r="AC4" s="70" t="s">
         <v>87</v>
       </c>
@@ -4291,33 +4294,33 @@
       <c r="AG4" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="111"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="111"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="105"/>
       <c r="BB4" s="73" t="s">
         <v>75</v>
       </c>
       <c r="BC4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="BD4" s="104"/>
+      <c r="BD4" s="119"/>
       <c r="BE4" s="79" t="s">
         <v>103</v>
       </c>
@@ -4354,10 +4357,10 @@
       <c r="BP4" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="BQ4" s="111"/>
-      <c r="BR4" s="105"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="103"/>
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="105"/>
+      <c r="BT4" s="114"/>
     </row>
     <row r="5" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -4800,52 +4803,52 @@
         <f>SUM(X5:X5)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="110">
+      <c r="Y7" s="106">
         <f>SUM(Y5:AG5)</f>
         <v>8</v>
       </c>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="110">
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="106">
         <f>SUM(AH5:AL5)</f>
         <v>5</v>
       </c>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="110">
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="106">
         <f>SUM(AM5:AR5)</f>
         <v>2</v>
       </c>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="110">
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="106">
         <f>SUM(AS5:AW5)</f>
         <v>4</v>
       </c>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="120"/>
-      <c r="AX7" s="110">
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="106">
         <f>SUM(AX5:BA5)</f>
         <v>3</v>
       </c>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="120"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="109"/>
       <c r="BD7" s="76"/>
       <c r="BE7" s="75">
         <f>SUM(BE5:BE5)</f>
@@ -4879,19 +4882,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="26">
         <f t="shared" ref="D8:D20" si="0">G8/$G$5*20+BT8*$BT$5</f>
-        <v>7.270833333333333</v>
+        <v>9.7708333333333339</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" ref="E8:E20" si="1">F8/$G$6*20+BT8*$BT$6</f>
-        <v>7.5434782608695654</v>
+        <v>10.152173913043478</v>
       </c>
       <c r="F8" s="19">
         <f>G61</f>
-        <v>15.05</v>
+        <v>21.05</v>
       </c>
       <c r="G8" s="19">
         <f>G31</f>
-        <v>15.05</v>
+        <v>21.05</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -4970,16 +4973,28 @@
       <c r="AR8" s="98">
         <v>99</v>
       </c>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
+      <c r="AS8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="73">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="73">
+        <v>1</v>
+      </c>
       <c r="AV8" s="73"/>
       <c r="AW8" s="98">
         <v>99</v>
       </c>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="18"/>
+      <c r="AX8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="18">
+        <v>1</v>
+      </c>
       <c r="BA8" s="98">
         <v>99</v>
       </c>
@@ -5035,19 +5050,19 @@
       <c r="C9" s="5"/>
       <c r="D9" s="26">
         <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>4.8695652173913038</v>
+        <v>7.1521739130434785</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" ref="F9:F23" si="2">G62</f>
-        <v>11.2</v>
+        <v>16.45</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ref="G9:G28" si="3">G32</f>
-        <v>11.2</v>
+        <v>16.45</v>
       </c>
       <c r="H9" s="90"/>
       <c r="I9" s="14"/>
@@ -5126,16 +5141,28 @@
       <c r="AR9" s="98">
         <v>99</v>
       </c>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
+      <c r="AS9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="73">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="73">
+        <v>1</v>
+      </c>
       <c r="AV9" s="73"/>
       <c r="AW9" s="98">
         <v>99</v>
       </c>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="18"/>
+      <c r="AX9" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="AY9" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="AZ9" s="18">
+        <v>0.75</v>
+      </c>
       <c r="BA9" s="98">
         <v>99</v>
       </c>
@@ -5188,19 +5215,19 @@
       <c r="C10" s="4"/>
       <c r="D10" s="26">
         <f t="shared" si="0"/>
-        <v>5.854166666666667</v>
+        <v>8.1979166666666679</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>6.1086956521739131</v>
+        <v>8.554347826086957</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>14.05</v>
+        <v>19.675000000000001</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="3"/>
-        <v>14.05</v>
+        <v>19.675000000000001</v>
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="14"/>
@@ -5279,16 +5306,28 @@
       <c r="AR10" s="98">
         <v>99</v>
       </c>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
+      <c r="AS10" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="99">
+        <v>1</v>
+      </c>
       <c r="AV10" s="73"/>
       <c r="AW10" s="98">
         <v>99</v>
       </c>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="18"/>
+      <c r="AX10" s="78">
+        <v>0.875</v>
+      </c>
+      <c r="AY10" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA10" s="98">
         <v>99</v>
       </c>
@@ -5341,19 +5380,19 @@
       <c r="C11" s="5"/>
       <c r="D11" s="26">
         <f t="shared" si="0"/>
-        <v>6.4375000000000009</v>
+        <v>8.5208333333333321</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>6.6739130434782616</v>
+        <v>8.8478260869565215</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="2"/>
-        <v>13.05</v>
+        <v>18.05</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="3"/>
-        <v>13.05</v>
+        <v>18.05</v>
       </c>
       <c r="H11" s="90"/>
       <c r="I11" s="14"/>
@@ -5432,15 +5471,25 @@
       <c r="AR11" s="98">
         <v>99</v>
       </c>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
+      <c r="AS11" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="99">
+        <v>1</v>
+      </c>
       <c r="AV11" s="73"/>
       <c r="AW11" s="98">
         <v>99</v>
       </c>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
+      <c r="AX11" s="78">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="78">
+        <v>1</v>
+      </c>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="98">
         <v>99</v>
@@ -5497,19 +5546,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>5.375</v>
+        <v>7.875</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>5.6086956521739131</v>
+        <v>8.2173913043478244</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="2"/>
-        <v>12.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>12.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H12" s="90"/>
       <c r="I12" s="14"/>
@@ -5588,16 +5637,28 @@
       <c r="AR12" s="98">
         <v>99</v>
       </c>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
+      <c r="AS12" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="99">
+        <v>1</v>
+      </c>
       <c r="AV12" s="73"/>
       <c r="AW12" s="98">
         <v>99</v>
       </c>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="18"/>
+      <c r="AX12" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="AY12" s="78">
+        <v>1.25</v>
+      </c>
+      <c r="AZ12" s="18">
+        <v>1</v>
+      </c>
       <c r="BA12" s="98">
         <v>99</v>
       </c>
@@ -5650,19 +5711,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>5.5625</v>
+        <v>7.90625</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>5.804347826086957</v>
+        <v>8.25</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="2"/>
-        <v>13.350000000000001</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="3"/>
-        <v>13.350000000000001</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="H13" s="90"/>
       <c r="I13" s="14"/>
@@ -5741,16 +5802,28 @@
       <c r="AR13" s="98">
         <v>99</v>
       </c>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
+      <c r="AS13" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="99">
+        <v>1</v>
+      </c>
       <c r="AV13" s="73"/>
       <c r="AW13" s="98">
         <v>99</v>
       </c>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="18"/>
+      <c r="AX13" s="78">
+        <v>0.875</v>
+      </c>
+      <c r="AY13" s="78">
+        <v>0.875</v>
+      </c>
+      <c r="AZ13" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA13" s="98">
         <v>99</v>
       </c>
@@ -5803,19 +5876,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="26">
         <f t="shared" si="0"/>
-        <v>4.895833333333333</v>
+        <v>7.1979166666666661</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>5.108695652173914</v>
+        <v>7.5108695652173907</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="2"/>
-        <v>11.75</v>
+        <v>17.274999999999999</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="3"/>
-        <v>11.75</v>
+        <v>17.274999999999999</v>
       </c>
       <c r="H14" s="90"/>
       <c r="I14" s="14"/>
@@ -5894,16 +5967,28 @@
       <c r="AR14" s="98">
         <v>99</v>
       </c>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
+      <c r="AS14" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AT14" s="73">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="73">
+        <v>1</v>
+      </c>
       <c r="AV14" s="73"/>
       <c r="AW14" s="98">
         <v>99</v>
       </c>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="18"/>
+      <c r="AX14" s="78">
+        <v>0.75</v>
+      </c>
+      <c r="AY14" s="78">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA14" s="98">
         <v>99</v>
       </c>
@@ -5956,19 +6041,19 @@
       <c r="C15" s="5"/>
       <c r="D15" s="26">
         <f t="shared" si="0"/>
-        <v>6.072916666666667</v>
+        <v>8.4166666666666661</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>6.3369565217391299</v>
+        <v>8.7826086956521738</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="2"/>
-        <v>14.574999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="3"/>
-        <v>14.574999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="H15" s="90"/>
       <c r="I15" s="14"/>
@@ -6049,16 +6134,28 @@
       <c r="AR15" s="98">
         <v>99</v>
       </c>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
+      <c r="AS15" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="99">
+        <v>1</v>
+      </c>
       <c r="AV15" s="73"/>
       <c r="AW15" s="98">
         <v>99</v>
       </c>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="18"/>
+      <c r="AX15" s="78">
+        <v>0.875</v>
+      </c>
+      <c r="AY15" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="AZ15" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA15" s="98">
         <v>99</v>
       </c>
@@ -6111,19 +6208,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="26">
         <f t="shared" si="0"/>
-        <v>6.7500000000000009</v>
+        <v>9.1458333333333339</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="2"/>
-        <v>13.8</v>
+        <v>19.55</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="3"/>
-        <v>13.8</v>
+        <v>19.55</v>
       </c>
       <c r="H16" s="90"/>
       <c r="I16" s="14"/>
@@ -6202,16 +6299,28 @@
       <c r="AR16" s="98">
         <v>99</v>
       </c>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
+      <c r="AS16" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="99">
+        <v>1</v>
+      </c>
       <c r="AV16" s="73"/>
       <c r="AW16" s="98">
         <v>99</v>
       </c>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="18"/>
+      <c r="AX16" s="78">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="77">
+        <v>0.875</v>
+      </c>
+      <c r="AZ16" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA16" s="98">
         <v>99</v>
       </c>
@@ -6267,19 +6376,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>5.9062500000000009</v>
+        <v>8.40625</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>6.1630434782608701</v>
+        <v>8.7717391304347831</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="2"/>
-        <v>14.175000000000001</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="3"/>
-        <v>14.175000000000001</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="14"/>
@@ -6358,16 +6467,28 @@
       <c r="AR17" s="98">
         <v>99</v>
       </c>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
+      <c r="AS17" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="99">
+        <v>1</v>
+      </c>
       <c r="AV17" s="73"/>
       <c r="AW17" s="98">
         <v>99</v>
       </c>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="18"/>
+      <c r="AX17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="18">
+        <v>1</v>
+      </c>
       <c r="BA17" s="98">
         <v>99</v>
       </c>
@@ -6420,19 +6541,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="26">
         <f t="shared" si="0"/>
-        <v>4.53125</v>
+        <v>7.03125</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>4.7282608695652169</v>
+        <v>7.3369565217391308</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="2"/>
-        <v>10.875</v>
+        <v>16.875</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="3"/>
-        <v>10.875</v>
+        <v>16.875</v>
       </c>
       <c r="H18" s="90"/>
       <c r="I18" s="14"/>
@@ -6511,16 +6632,28 @@
       <c r="AR18" s="98">
         <v>99</v>
       </c>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
+      <c r="AS18" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="99">
+        <v>1</v>
+      </c>
       <c r="AV18" s="73"/>
       <c r="AW18" s="98">
         <v>99</v>
       </c>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="18"/>
+      <c r="AX18" s="78">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="18">
+        <v>1</v>
+      </c>
       <c r="BA18" s="98">
         <v>99</v>
       </c>
@@ -6573,19 +6706,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="26">
         <f t="shared" si="0"/>
-        <v>5.1041666666666661</v>
+        <v>7.34375</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>5.3260869565217392</v>
+        <v>7.6630434782608692</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="2"/>
-        <v>12.25</v>
+        <v>17.625</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="3"/>
-        <v>12.25</v>
+        <v>17.625</v>
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="14"/>
@@ -6664,16 +6797,28 @@
       <c r="AR19" s="98">
         <v>99</v>
       </c>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
+      <c r="AS19" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="99">
+        <v>1</v>
+      </c>
       <c r="AV19" s="73"/>
       <c r="AW19" s="98">
         <v>99</v>
       </c>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="18"/>
+      <c r="AX19" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="AY19" s="78">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="18">
+        <v>0.75</v>
+      </c>
       <c r="BA19" s="98">
         <v>99</v>
       </c>
@@ -6728,19 +6873,19 @@
       <c r="C20" s="5"/>
       <c r="D20" s="26">
         <f t="shared" si="0"/>
-        <v>5.2083333333333339</v>
+        <v>7.5</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>5.4347826086956523</v>
+        <v>7.8260869565217392</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H20" s="90"/>
       <c r="I20" s="14"/>
@@ -6819,16 +6964,28 @@
       <c r="AR20" s="98">
         <v>99</v>
       </c>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
+      <c r="AS20" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="99">
+        <v>1</v>
+      </c>
       <c r="AV20" s="73"/>
       <c r="AW20" s="98">
         <v>99</v>
       </c>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="18"/>
+      <c r="AX20" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="AY20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="18">
+        <v>0.875</v>
+      </c>
       <c r="BA20" s="98">
         <v>99</v>
       </c>
@@ -6881,19 +7038,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="26">
         <f t="shared" ref="D21:D23" si="4">G21/$G$5*20+BT21*$BT$5</f>
-        <v>5.5937500000000009</v>
+        <v>8.0416666666666679</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" ref="E21:E23" si="5">F21/$G$6*20+BT21*$BT$6</f>
-        <v>5.8369565217391308</v>
+        <v>8.3913043478260878</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="2"/>
-        <v>13.425000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="3"/>
-        <v>13.425000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="H21" s="90"/>
       <c r="I21" s="67"/>
@@ -6972,16 +7129,28 @@
       <c r="AR21" s="98">
         <v>99</v>
       </c>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
+      <c r="AS21" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="99">
+        <v>1</v>
+      </c>
       <c r="AV21" s="73"/>
       <c r="AW21" s="98">
         <v>99</v>
       </c>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
+      <c r="AX21" s="78">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="65">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="65">
+        <v>0.875</v>
+      </c>
       <c r="BA21" s="98">
         <v>99</v>
       </c>
@@ -7035,19 +7204,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="26">
         <f t="shared" si="4"/>
-        <v>6.541666666666667</v>
+        <v>9.0416666666666679</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="5"/>
-        <v>6.7826086956521738</v>
+        <v>9.3913043478260878</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="2"/>
-        <v>13.3</v>
+        <v>19.3</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="3"/>
-        <v>13.3</v>
+        <v>19.3</v>
       </c>
       <c r="H22" s="90"/>
       <c r="I22" s="67"/>
@@ -7126,16 +7295,28 @@
       <c r="AR22" s="98">
         <v>99</v>
       </c>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
+      <c r="AS22" s="99">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="99">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="99">
+        <v>1</v>
+      </c>
       <c r="AV22" s="73"/>
       <c r="AW22" s="98">
         <v>99</v>
       </c>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="65"/>
+      <c r="AX22" s="78">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="78">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="65">
+        <v>1</v>
+      </c>
       <c r="BA22" s="98">
         <v>99</v>
       </c>
@@ -8143,17 +8324,17 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AS29" s="71" t="e">
+      <c r="AS29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT29" s="71" t="e">
+        <v>0.9933333333333334</v>
+      </c>
+      <c r="AT29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="71" t="e">
         <f t="shared" si="9"/>
@@ -8163,17 +8344,17 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AX29" s="71" t="e">
+      <c r="AX29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY29" s="71" t="e">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AY29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ29" s="71" t="e">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AZ29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="BA29" s="71">
         <f t="shared" si="9"/>
@@ -8259,7 +8440,7 @@
     <row r="31" spans="1:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f>SUM(H31:BS31)</f>
-        <v>15.05</v>
+        <v>21.05</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AN31" si="11">H8*H$5</f>
@@ -8411,15 +8592,15 @@
       </c>
       <c r="AS31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31" s="71">
         <f t="shared" si="13"/>
@@ -8431,15 +8612,15 @@
       </c>
       <c r="AX31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="71">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="71">
         <f t="shared" si="13"/>
@@ -8521,7 +8702,7 @@
     <row r="32" spans="1:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="71">
         <f t="shared" ref="G32:G51" si="14">SUM(H32:BS32)</f>
-        <v>11.2</v>
+        <v>16.45</v>
       </c>
       <c r="H32" s="71">
         <f t="shared" ref="H32:BT32" si="15">H9*H$5</f>
@@ -8673,15 +8854,15 @@
       </c>
       <c r="AS32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32" s="71">
         <f t="shared" si="15"/>
@@ -8693,15 +8874,15 @@
       </c>
       <c r="AX32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ32" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA32" s="71">
         <f t="shared" si="15"/>
@@ -8783,7 +8964,7 @@
     <row r="33" spans="4:72" x14ac:dyDescent="0.25">
       <c r="G33" s="71">
         <f t="shared" si="14"/>
-        <v>14.05</v>
+        <v>19.675000000000001</v>
       </c>
       <c r="H33" s="71">
         <f t="shared" ref="H33:BT33" si="17">H10*H$5</f>
@@ -8935,15 +9116,15 @@
       </c>
       <c r="AS33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="71">
         <f t="shared" si="17"/>
@@ -8955,15 +9136,15 @@
       </c>
       <c r="AX33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ33" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA33" s="71">
         <f t="shared" si="17"/>
@@ -9045,7 +9226,7 @@
     <row r="34" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="71">
         <f t="shared" si="14"/>
-        <v>13.05</v>
+        <v>18.05</v>
       </c>
       <c r="H34" s="71">
         <f t="shared" ref="H34:BT34" si="19">H11*H$5</f>
@@ -9197,15 +9378,15 @@
       </c>
       <c r="AS34" s="71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" s="71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="71">
         <f t="shared" si="19"/>
@@ -9217,11 +9398,11 @@
       </c>
       <c r="AX34" s="71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="71">
         <f t="shared" si="19"/>
@@ -9307,7 +9488,7 @@
     <row r="35" spans="4:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="71">
         <f t="shared" si="14"/>
-        <v>12.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H35" s="71">
         <f t="shared" ref="H35:BT35" si="21">H12*H$5</f>
@@ -9459,15 +9640,15 @@
       </c>
       <c r="AS35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35" s="71">
         <f t="shared" si="21"/>
@@ -9479,15 +9660,15 @@
       </c>
       <c r="AX35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ35" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="71">
         <f t="shared" si="21"/>
@@ -9569,7 +9750,7 @@
     <row r="36" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="71">
         <f t="shared" si="14"/>
-        <v>13.350000000000001</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="H36" s="71">
         <f t="shared" ref="H36:BT36" si="23">H13*H$5</f>
@@ -9721,15 +9902,15 @@
       </c>
       <c r="AS36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="71">
         <f t="shared" si="23"/>
@@ -9741,15 +9922,15 @@
       </c>
       <c r="AX36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ36" s="71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA36" s="71">
         <f t="shared" si="23"/>
@@ -9831,7 +10012,7 @@
     <row r="37" spans="4:72" x14ac:dyDescent="0.25">
       <c r="G37" s="71">
         <f t="shared" si="14"/>
-        <v>11.75</v>
+        <v>17.274999999999999</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" ref="H37:BT37" si="25">H14*H$5</f>
@@ -9983,15 +10164,15 @@
       </c>
       <c r="AS37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="71">
         <f t="shared" si="25"/>
@@ -10003,15 +10184,15 @@
       </c>
       <c r="AX37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA37" s="71">
         <f t="shared" si="25"/>
@@ -10093,7 +10274,7 @@
     <row r="38" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="71">
         <f t="shared" si="14"/>
-        <v>14.574999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="H38" s="71">
         <f t="shared" ref="H38:BT38" si="27">H15*H$5</f>
@@ -10245,15 +10426,15 @@
       </c>
       <c r="AS38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="71">
         <f t="shared" si="27"/>
@@ -10265,15 +10446,15 @@
       </c>
       <c r="AX38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ38" s="71">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA38" s="71">
         <f t="shared" si="27"/>
@@ -10355,7 +10536,7 @@
     <row r="39" spans="4:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="71">
         <f t="shared" si="14"/>
-        <v>13.8</v>
+        <v>19.55</v>
       </c>
       <c r="H39" s="71">
         <f t="shared" ref="H39:BT39" si="29">H16*H$5</f>
@@ -10507,15 +10688,15 @@
       </c>
       <c r="AS39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="71">
         <f t="shared" si="29"/>
@@ -10527,15 +10708,15 @@
       </c>
       <c r="AX39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ39" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA39" s="71">
         <f t="shared" si="29"/>
@@ -10617,7 +10798,7 @@
     <row r="40" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="71">
         <f t="shared" si="14"/>
-        <v>14.175000000000001</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="H40" s="71">
         <f t="shared" ref="H40:BT40" si="31">H17*H$5</f>
@@ -10769,15 +10950,15 @@
       </c>
       <c r="AS40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="71">
         <f t="shared" si="31"/>
@@ -10789,15 +10970,15 @@
       </c>
       <c r="AX40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="71">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="71">
         <f t="shared" si="31"/>
@@ -10879,7 +11060,7 @@
     <row r="41" spans="4:72" x14ac:dyDescent="0.25">
       <c r="G41" s="71">
         <f t="shared" si="14"/>
-        <v>10.875</v>
+        <v>16.875</v>
       </c>
       <c r="H41" s="71">
         <f t="shared" ref="H41:BT41" si="33">H18*H$5</f>
@@ -11031,15 +11212,15 @@
       </c>
       <c r="AS41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="71">
         <f t="shared" si="33"/>
@@ -11051,15 +11232,15 @@
       </c>
       <c r="AX41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="71">
         <f t="shared" si="33"/>
@@ -11141,7 +11322,7 @@
     <row r="42" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="71">
         <f t="shared" si="14"/>
-        <v>12.25</v>
+        <v>17.625</v>
       </c>
       <c r="H42" s="71">
         <f t="shared" ref="H42:BT42" si="35">H19*H$5</f>
@@ -11293,15 +11474,15 @@
       </c>
       <c r="AS42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42" s="71">
         <f t="shared" si="35"/>
@@ -11313,15 +11494,15 @@
       </c>
       <c r="AX42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="71">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA42" s="71">
         <f t="shared" si="35"/>
@@ -11403,7 +11584,7 @@
     <row r="43" spans="4:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="71">
         <f t="shared" si="14"/>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H43" s="71">
         <f t="shared" ref="H43:BT43" si="37">H20*H$5</f>
@@ -11555,15 +11736,15 @@
       </c>
       <c r="AS43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="71">
         <f t="shared" si="37"/>
@@ -11575,15 +11756,15 @@
       </c>
       <c r="AX43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA43" s="71">
         <f t="shared" si="37"/>
@@ -11665,7 +11846,7 @@
     <row r="44" spans="4:72" x14ac:dyDescent="0.25">
       <c r="G44" s="71">
         <f t="shared" si="14"/>
-        <v>13.425000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="H44" s="71">
         <f t="shared" ref="H44:BT44" si="39">H21*H$5</f>
@@ -11817,15 +11998,15 @@
       </c>
       <c r="AS44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44" s="71">
         <f t="shared" si="39"/>
@@ -11837,15 +12018,15 @@
       </c>
       <c r="AX44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA44" s="71">
         <f t="shared" si="39"/>
@@ -11929,7 +12110,7 @@
       <c r="E45" s="23"/>
       <c r="G45" s="71">
         <f t="shared" si="14"/>
-        <v>13.3</v>
+        <v>19.3</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:BT45" si="41">H22*H$5</f>
@@ -12081,15 +12262,15 @@
       </c>
       <c r="AS45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="71">
         <f t="shared" si="41"/>
@@ -12101,15 +12282,15 @@
       </c>
       <c r="AX45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45" s="71">
         <f t="shared" si="41"/>
@@ -13803,7 +13984,7 @@
     <row r="61" spans="4:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" ref="G61:G73" si="55">SUM(H61:BS61)</f>
-        <v>15.05</v>
+        <v>21.05</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:BS61" si="56">H8*H$6</f>
@@ -13955,15 +14136,15 @@
       </c>
       <c r="AS61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV61" s="71">
         <f t="shared" si="56"/>
@@ -13975,15 +14156,15 @@
       </c>
       <c r="AX61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ61" s="71">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA61" s="71">
         <f t="shared" si="56"/>
@@ -14065,7 +14246,7 @@
     <row r="62" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="55"/>
-        <v>11.2</v>
+        <v>16.45</v>
       </c>
       <c r="H62" s="71">
         <f t="shared" ref="H62:BS62" si="59">H9*H$6</f>
@@ -14217,15 +14398,15 @@
       </c>
       <c r="AS62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV62" s="71">
         <f t="shared" si="59"/>
@@ -14237,15 +14418,15 @@
       </c>
       <c r="AX62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ62" s="71">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA62" s="71">
         <f t="shared" si="59"/>
@@ -14327,7 +14508,7 @@
     <row r="63" spans="4:72" x14ac:dyDescent="0.25">
       <c r="G63" s="2">
         <f t="shared" si="55"/>
-        <v>14.05</v>
+        <v>19.675000000000001</v>
       </c>
       <c r="H63" s="71">
         <f t="shared" ref="H63:BS63" si="62">H10*H$6</f>
@@ -14479,15 +14660,15 @@
       </c>
       <c r="AS63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV63" s="71">
         <f t="shared" si="62"/>
@@ -14499,15 +14680,15 @@
       </c>
       <c r="AX63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ63" s="71">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA63" s="71">
         <f t="shared" si="62"/>
@@ -14589,7 +14770,7 @@
     <row r="64" spans="4:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="2">
         <f t="shared" si="55"/>
-        <v>13.05</v>
+        <v>18.05</v>
       </c>
       <c r="H64" s="71">
         <f t="shared" ref="H64:BS64" si="65">H11*H$6</f>
@@ -14741,15 +14922,15 @@
       </c>
       <c r="AS64" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU64" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV64" s="71">
         <f t="shared" si="65"/>
@@ -14761,11 +14942,11 @@
       </c>
       <c r="AX64" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ64" s="71">
         <f t="shared" si="65"/>
@@ -14851,7 +15032,7 @@
     <row r="65" spans="7:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="2">
         <f t="shared" si="55"/>
-        <v>12.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65:BS65" si="68">H12*H$6</f>
@@ -15003,15 +15184,15 @@
       </c>
       <c r="AS65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV65" s="71">
         <f t="shared" si="68"/>
@@ -15023,15 +15204,15 @@
       </c>
       <c r="AX65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ65" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" s="71">
         <f t="shared" si="68"/>
@@ -15113,7 +15294,7 @@
     <row r="66" spans="7:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="2">
         <f t="shared" si="55"/>
-        <v>13.350000000000001</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" ref="H66:BS66" si="71">H13*H$6</f>
@@ -15265,15 +15446,15 @@
       </c>
       <c r="AS66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV66" s="71">
         <f t="shared" si="71"/>
@@ -15285,15 +15466,15 @@
       </c>
       <c r="AX66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ66" s="71">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA66" s="71">
         <f t="shared" si="71"/>
@@ -15375,7 +15556,7 @@
     <row r="67" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G67" s="2">
         <f t="shared" si="55"/>
-        <v>11.75</v>
+        <v>17.274999999999999</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" ref="H67:BS67" si="74">H14*H$6</f>
@@ -15527,15 +15708,15 @@
       </c>
       <c r="AS67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV67" s="71">
         <f t="shared" si="74"/>
@@ -15547,15 +15728,15 @@
       </c>
       <c r="AX67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" s="71">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA67" s="71">
         <f t="shared" si="74"/>
@@ -15637,7 +15818,7 @@
     <row r="68" spans="7:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="2">
         <f t="shared" si="55"/>
-        <v>14.574999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" ref="H68:BS68" si="77">H15*H$6</f>
@@ -15789,15 +15970,15 @@
       </c>
       <c r="AS68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV68" s="71">
         <f t="shared" si="77"/>
@@ -15809,15 +15990,15 @@
       </c>
       <c r="AX68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AY68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ68" s="71">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA68" s="71">
         <f t="shared" si="77"/>
@@ -15899,7 +16080,7 @@
     <row r="69" spans="7:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="2">
         <f t="shared" si="55"/>
-        <v>13.8</v>
+        <v>19.55</v>
       </c>
       <c r="H69" s="71">
         <f t="shared" ref="H69:BS69" si="80">H16*H$6</f>
@@ -16051,15 +16232,15 @@
       </c>
       <c r="AS69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV69" s="71">
         <f t="shared" si="80"/>
@@ -16071,15 +16252,15 @@
       </c>
       <c r="AX69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AZ69" s="71">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA69" s="71">
         <f t="shared" si="80"/>
@@ -16161,7 +16342,7 @@
     <row r="70" spans="7:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="2">
         <f t="shared" si="55"/>
-        <v>14.175000000000001</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="H70" s="71">
         <f t="shared" ref="H70:BS70" si="83">H17*H$6</f>
@@ -16313,15 +16494,15 @@
       </c>
       <c r="AS70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV70" s="71">
         <f t="shared" si="83"/>
@@ -16333,15 +16514,15 @@
       </c>
       <c r="AX70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ70" s="71">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA70" s="71">
         <f t="shared" si="83"/>
@@ -16423,7 +16604,7 @@
     <row r="71" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G71" s="2">
         <f t="shared" si="55"/>
-        <v>10.875</v>
+        <v>16.875</v>
       </c>
       <c r="H71" s="71">
         <f t="shared" ref="H71:BS71" si="86">H18*H$6</f>
@@ -16575,15 +16756,15 @@
       </c>
       <c r="AS71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV71" s="71">
         <f t="shared" si="86"/>
@@ -16595,15 +16776,15 @@
       </c>
       <c r="AX71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ71" s="71">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA71" s="71">
         <f t="shared" si="86"/>
@@ -16685,7 +16866,7 @@
     <row r="72" spans="7:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2">
         <f t="shared" si="55"/>
-        <v>12.25</v>
+        <v>17.625</v>
       </c>
       <c r="H72" s="71">
         <f t="shared" ref="H72:BS72" si="89">H19*H$6</f>
@@ -16837,15 +17018,15 @@
       </c>
       <c r="AS72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV72" s="71">
         <f t="shared" si="89"/>
@@ -16857,15 +17038,15 @@
       </c>
       <c r="AX72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ72" s="71">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA72" s="71">
         <f t="shared" si="89"/>
@@ -16947,7 +17128,7 @@
     <row r="73" spans="7:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2">
         <f t="shared" si="55"/>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H73" s="71">
         <f t="shared" ref="H73:BS73" si="92">H20*H$6</f>
@@ -17099,15 +17280,15 @@
       </c>
       <c r="AS73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV73" s="71">
         <f t="shared" si="92"/>
@@ -17119,15 +17300,15 @@
       </c>
       <c r="AX73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AY73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ73" s="71">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA73" s="71">
         <f t="shared" si="92"/>
@@ -17209,7 +17390,7 @@
     <row r="74" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G74" s="71">
         <f t="shared" ref="G74:G81" si="95">SUM(H74:BS74)</f>
-        <v>13.425000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="H74" s="71">
         <f t="shared" ref="H74:BS74" si="96">H21*H$6</f>
@@ -17361,15 +17542,15 @@
       </c>
       <c r="AS74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV74" s="71">
         <f t="shared" si="96"/>
@@ -17381,15 +17562,15 @@
       </c>
       <c r="AX74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ74" s="71">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BA74" s="71">
         <f t="shared" si="96"/>
@@ -17467,7 +17648,7 @@
     <row r="75" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G75" s="71">
         <f t="shared" si="95"/>
-        <v>13.3</v>
+        <v>19.3</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:BS75" si="98">H22*H$6</f>
@@ -17619,15 +17800,15 @@
       </c>
       <c r="AS75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV75" s="71">
         <f t="shared" si="98"/>
@@ -17639,15 +17820,15 @@
       </c>
       <c r="AX75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ75" s="71">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA75" s="71">
         <f t="shared" si="98"/>
@@ -25140,18 +25321,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="R1:X2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="Y2:AG2"/>
+    <mergeCell ref="Y1:AR1"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="BT1:BT4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="BE2:BN2"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="BB1:BP1"/>
+    <mergeCell ref="BD2:BD4"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AS7:AW7"/>
     <mergeCell ref="AX7:BA7"/>
@@ -25168,38 +25369,18 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="BT1:BT4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="BE2:BN2"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="BB1:BP1"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="Y2:AG2"/>
-    <mergeCell ref="Y1:AR1"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="R1:X2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AK3:AK4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
     <cfRule type="cellIs" dxfId="133" priority="144" operator="between">
@@ -25210,7 +25391,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 I8:X22 AN8:AN23 AS8:AV23 BG8:BG23 BK8:BK23 BQ8:BT23 BB8:BD23 AX8:AZ23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23">
+  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 I8:X22 AN8:AN23 BG8:BG23 BK8:BK23 BQ8:BT23 BB8:BD23 AX8:AZ23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23">
     <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25838,144 +26019,144 @@
       <c r="C1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="125" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="132" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="133"/>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="125" t="s">
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="126"/>
+      <c r="AS1" s="132"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="32"/>
       <c r="C2" s="36"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="142" t="s">
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="142" t="s">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="142" t="s">
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="146"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="142" t="s">
+      <c r="AK2" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="146"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="147"/>
       <c r="AN2" s="35"/>
       <c r="AO2" s="35"/>
       <c r="AP2" s="35"/>
       <c r="AQ2" s="47"/>
-      <c r="AR2" s="138" t="s">
+      <c r="AR2" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="140" t="s">
+      <c r="AS2" s="141" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="125" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="126"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="35" t="s">
         <v>30</v>
       </c>
@@ -25985,20 +26166,20 @@
       <c r="R3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="142" t="s">
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
       <c r="AC3" s="39" t="s">
         <v>40</v>
       </c>
@@ -26011,11 +26192,11 @@
       <c r="AF3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="131" t="s">
+      <c r="AG3" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="129"/>
       <c r="AJ3" s="36" t="s">
         <v>7</v>
       </c>
@@ -26040,77 +26221,77 @@
       <c r="AQ3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="141"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="142"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="131" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="131" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="129" t="s">
+      <c r="N4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="128" t="s">
+      <c r="O4" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="127" t="s">
+      <c r="Q4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="127" t="s">
+      <c r="R4" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="131" t="s">
+      <c r="S4" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="129" t="s">
+      <c r="T4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="129" t="s">
+      <c r="U4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="129" t="s">
+      <c r="V4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="147" t="s">
+      <c r="W4" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="131" t="s">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="129" t="s">
+      <c r="Z4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="129" t="s">
+      <c r="AA4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="130" t="s">
+      <c r="AB4" s="148" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="39"/>
@@ -26139,40 +26320,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="30" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
       <c r="W5" s="33" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="130"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="148"/>
       <c r="AC5" s="39"/>
       <c r="AD5" s="40"/>
       <c r="AE5" s="39"/>
@@ -26619,6 +26800,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -26633,32 +26840,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B86643-BAAE-45BE-8393-D8E66EBD272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69E369-40DB-4175-A66E-90571A29691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,6 +392,30 @@
           </rPr>
           <t xml:space="preserve">
 manque controles sur les setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{0784F3EB-A0D3-471D-B175-15DF5D836AFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de trowws de RuntimeException</t>
         </r>
       </text>
     </comment>
@@ -1413,7 +1437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,6 +1490,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1493,7 +1530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2086,17 +2123,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2122,15 +2148,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2191,7 +2208,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="49" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="48" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2537,9 +2554,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2555,7 +2569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2651,25 +2665,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4622,11 +4639,11 @@
   <dimension ref="A1:CH244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="AM13" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="J13" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="BE1" sqref="BE1:CD1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="BE18" sqref="BE18"/>
+      <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4664,16 +4681,16 @@
       <c r="E1" s="55"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="P1" s="105" t="s">
         <v>10</v>
       </c>
@@ -4719,46 +4736,46 @@
       <c r="AX1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AY1" s="158"/>
-      <c r="AZ1" s="158"/>
-      <c r="BA1" s="158"/>
+      <c r="AY1" s="156"/>
+      <c r="AZ1" s="156"/>
+      <c r="BA1" s="156"/>
       <c r="BB1" s="106"/>
       <c r="BC1" s="106"/>
       <c r="BD1" s="107"/>
-      <c r="BE1" s="118" t="s">
+      <c r="BE1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="119"/>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="119"/>
-      <c r="BK1" s="119"/>
-      <c r="BL1" s="119"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="119"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="119"/>
-      <c r="BQ1" s="119"/>
-      <c r="BR1" s="119"/>
-      <c r="BS1" s="119"/>
-      <c r="BT1" s="119"/>
-      <c r="BU1" s="119"/>
-      <c r="BV1" s="119"/>
-      <c r="BW1" s="119"/>
-      <c r="BX1" s="119"/>
-      <c r="BY1" s="119"/>
-      <c r="BZ1" s="119"/>
-      <c r="CA1" s="119"/>
-      <c r="CB1" s="119"/>
-      <c r="CC1" s="119"/>
-      <c r="CD1" s="120"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="118"/>
+      <c r="BO1" s="118"/>
+      <c r="BP1" s="118"/>
+      <c r="BQ1" s="118"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="118"/>
+      <c r="BY1" s="118"/>
+      <c r="BZ1" s="118"/>
+      <c r="CA1" s="118"/>
+      <c r="CB1" s="118"/>
+      <c r="CC1" s="118"/>
+      <c r="CD1" s="119"/>
       <c r="CE1" s="105" t="s">
         <v>15</v>
       </c>
       <c r="CF1" s="106"/>
       <c r="CG1" s="107"/>
-      <c r="CH1" s="116" t="s">
+      <c r="CH1" s="115" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4770,28 +4787,28 @@
       <c r="E2" s="55"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="L2" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="123" t="s">
+      <c r="M2" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="122" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="103"/>
@@ -4845,9 +4862,9 @@
       <c r="AX2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="159"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="151"/>
+      <c r="BA2" s="157"/>
       <c r="BB2" s="104" t="s">
         <v>8</v>
       </c>
@@ -4860,24 +4877,24 @@
       <c r="BE2" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="152"/>
-      <c r="BH2" s="152"/>
-      <c r="BI2" s="152"/>
+      <c r="BF2" s="151"/>
+      <c r="BG2" s="151"/>
+      <c r="BH2" s="151"/>
+      <c r="BI2" s="151"/>
       <c r="BJ2" s="114"/>
-      <c r="BK2" s="121" t="s">
+      <c r="BK2" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="BL2" s="121" t="s">
+      <c r="BL2" s="120" t="s">
         <v>150</v>
       </c>
       <c r="BM2" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="BN2" s="152"/>
-      <c r="BO2" s="152"/>
-      <c r="BP2" s="152"/>
-      <c r="BQ2" s="152"/>
+      <c r="BN2" s="151"/>
+      <c r="BO2" s="151"/>
+      <c r="BP2" s="151"/>
+      <c r="BQ2" s="151"/>
       <c r="BR2" s="114"/>
       <c r="BS2" s="103" t="s">
         <v>102</v>
@@ -4906,7 +4923,7 @@
       <c r="CG2" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="CH2" s="117"/>
+      <c r="CH2" s="116"/>
     </row>
     <row r="3" spans="1:86" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4920,7 +4937,7 @@
       </c>
       <c r="D3" s="21" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G5,")")</f>
-        <v>Note/20 ( sur 141)</v>
+        <v>Note/20 ( sur 138)</v>
       </c>
       <c r="E3" s="22" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
@@ -4932,16 +4949,16 @@
       </c>
       <c r="G3" s="7" t="str">
         <f>CONCATENATE("Note/",G5)</f>
-        <v>Note/141</v>
-      </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="128"/>
+        <v>Note/138</v>
+      </c>
+      <c r="H3" s="125"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="127"/>
       <c r="P3" s="103" t="s">
         <v>13</v>
       </c>
@@ -5060,12 +5077,12 @@
       <c r="BI3" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="BJ3" s="156" t="s">
+      <c r="BJ3" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="117"/>
-      <c r="BL3" s="117"/>
-      <c r="BM3" s="153" t="s">
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="152" t="s">
         <v>152</v>
       </c>
       <c r="BN3" s="104" t="s">
@@ -5080,10 +5097,10 @@
       <c r="BQ3" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="BR3" s="155" t="s">
+      <c r="BR3" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="BS3" s="79" t="s">
+      <c r="BS3" s="158" t="s">
         <v>13</v>
       </c>
       <c r="BT3" s="70" t="s">
@@ -5122,7 +5139,7 @@
       <c r="CE3" s="103"/>
       <c r="CF3" s="104"/>
       <c r="CG3" s="108"/>
-      <c r="CH3" s="117"/>
+      <c r="CH3" s="116"/>
     </row>
     <row r="4" spans="1:86" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -5132,13 +5149,13 @@
       <c r="E4" s="22"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="127"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="109"/>
       <c r="J4" s="109"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="109"/>
-      <c r="N4" s="122"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="109"/>
       <c r="P4" s="73" t="s">
         <v>18</v>
@@ -5215,21 +5232,21 @@
       <c r="BB4" s="104"/>
       <c r="BC4" s="104"/>
       <c r="BD4" s="108"/>
-      <c r="BE4" s="154"/>
-      <c r="BF4" s="154"/>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="153"/>
+      <c r="BE4" s="153"/>
+      <c r="BF4" s="153"/>
+      <c r="BG4" s="153"/>
+      <c r="BH4" s="153"/>
+      <c r="BI4" s="153"/>
+      <c r="BJ4" s="155"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="121"/>
+      <c r="BM4" s="152"/>
       <c r="BN4" s="104"/>
       <c r="BO4" s="104"/>
       <c r="BP4" s="104"/>
       <c r="BQ4" s="104"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="79" t="s">
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="158" t="s">
         <v>103</v>
       </c>
       <c r="BT4" s="70" t="s">
@@ -5268,7 +5285,7 @@
       <c r="CE4" s="103"/>
       <c r="CF4" s="104"/>
       <c r="CG4" s="108"/>
-      <c r="CH4" s="117"/>
+      <c r="CH4" s="116"/>
     </row>
     <row r="5" spans="1:86" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -5279,7 +5296,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7">
         <f>SUM(H5:CG5)</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="61">
         <v>1</v>
@@ -5462,13 +5479,13 @@
         <v>3</v>
       </c>
       <c r="BP5" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ5" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR5" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS5" s="73">
         <v>0</v>
@@ -5892,7 +5909,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="26">
         <f t="shared" ref="D8:D20" si="0">G8/$G$5*20+CH8*$CH$5</f>
-        <v>10.539007092198581</v>
+        <v>10.746376811594203</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" ref="E8:E20" si="1">F8/$G$6*20+CH8*$CH$6</f>
@@ -6041,12 +6058,24 @@
       <c r="BL8" s="93">
         <v>1</v>
       </c>
-      <c r="BM8" s="93"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
+      <c r="BM8" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="93">
+        <v>1</v>
+      </c>
       <c r="BS8" s="98">
         <v>99</v>
       </c>
@@ -6096,7 +6125,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="26">
         <f t="shared" si="0"/>
-        <v>7.3191489361702136</v>
+        <v>7.4782608695652177</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
@@ -6245,12 +6274,24 @@
       <c r="BL9" s="93">
         <v>1</v>
       </c>
-      <c r="BM9" s="93"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="93"/>
-      <c r="BR9" s="93"/>
+      <c r="BM9" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BN9" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="93">
+        <v>1</v>
+      </c>
       <c r="BS9" s="98">
         <v>99</v>
       </c>
@@ -6297,7 +6338,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="26">
         <f t="shared" si="0"/>
-        <v>9.1489361702127656</v>
+        <v>9.3478260869565215</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
@@ -6446,12 +6487,24 @@
       <c r="BL10" s="93">
         <v>1</v>
       </c>
-      <c r="BM10" s="93"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="93"/>
-      <c r="BR10" s="93"/>
+      <c r="BM10" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="93">
+        <v>1</v>
+      </c>
       <c r="BS10" s="98">
         <v>99</v>
       </c>
@@ -6498,7 +6551,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="26">
         <f t="shared" si="0"/>
-        <v>9.1560283687943258</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
@@ -6700,7 +6753,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>8.2695035460992905</v>
+        <v>8.4492753623188399</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
@@ -6849,12 +6902,24 @@
       <c r="BL12" s="93">
         <v>1</v>
       </c>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="93"/>
-      <c r="BR12" s="93"/>
+      <c r="BM12" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BN12" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="93">
+        <v>1</v>
+      </c>
       <c r="BS12" s="98">
         <v>99</v>
       </c>
@@ -6901,7 +6966,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>8.75177304964539</v>
+        <v>8.9420289855072461</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
@@ -7050,12 +7115,24 @@
       <c r="BL13" s="93">
         <v>1</v>
       </c>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="93"/>
-      <c r="BP13" s="93"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
+      <c r="BM13" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="93">
+        <v>1</v>
+      </c>
       <c r="BS13" s="98">
         <v>99</v>
       </c>
@@ -7102,19 +7179,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="26">
         <f t="shared" si="0"/>
-        <v>7.75177304964539</v>
+        <v>8.0108695652173907</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>7.9745762711864394</v>
+        <v>8.0169491525423719</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="2"/>
-        <v>23.524999999999999</v>
+        <v>23.65</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="3"/>
-        <v>54.65</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="H14" s="90"/>
       <c r="I14" s="14"/>
@@ -7122,7 +7199,9 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="54"/>
+      <c r="N14" s="54">
+        <v>0.125</v>
+      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="73"/>
@@ -7251,12 +7330,24 @@
       <c r="BL14" s="93">
         <v>1</v>
       </c>
-      <c r="BM14" s="93"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="93"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="93"/>
-      <c r="BR14" s="93"/>
+      <c r="BM14" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BN14" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BQ14" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="93">
+        <v>1</v>
+      </c>
       <c r="BS14" s="98">
         <v>99</v>
       </c>
@@ -7303,7 +7394,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="26">
         <f t="shared" si="0"/>
-        <v>9.1099290780141846</v>
+        <v>9.3079710144927539</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
@@ -7454,12 +7545,24 @@
       <c r="BL15" s="93">
         <v>1</v>
       </c>
-      <c r="BM15" s="93"/>
-      <c r="BN15" s="93"/>
-      <c r="BO15" s="93"/>
-      <c r="BP15" s="93"/>
-      <c r="BQ15" s="93"/>
-      <c r="BR15" s="93"/>
+      <c r="BM15" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="93">
+        <v>1</v>
+      </c>
       <c r="BS15" s="98">
         <v>99</v>
       </c>
@@ -7506,7 +7609,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="26">
         <f t="shared" si="0"/>
-        <v>10.148936170212766</v>
+        <v>10.347826086956522</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
@@ -7655,12 +7758,24 @@
       <c r="BL16" s="93">
         <v>1</v>
       </c>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="93"/>
-      <c r="BO16" s="93"/>
-      <c r="BP16" s="93"/>
-      <c r="BQ16" s="93"/>
-      <c r="BR16" s="93"/>
+      <c r="BM16" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="93">
+        <v>1</v>
+      </c>
       <c r="BS16" s="98">
         <v>99</v>
       </c>
@@ -7710,7 +7825,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>9.2553191489361701</v>
+        <v>9.4565217391304337</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
@@ -7859,12 +7974,24 @@
       <c r="BL17" s="93">
         <v>1</v>
       </c>
-      <c r="BM17" s="93"/>
-      <c r="BN17" s="93"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="93"/>
-      <c r="BQ17" s="93"/>
-      <c r="BR17" s="93"/>
+      <c r="BM17" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BN17" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO17" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP17" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ17" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR17" s="93">
+        <v>1</v>
+      </c>
       <c r="BS17" s="98">
         <v>99</v>
       </c>
@@ -7911,19 +8038,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="26">
         <f t="shared" si="0"/>
-        <v>6.0638297872340434</v>
+        <v>7.7898550724637685</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>6.7372881355932197</v>
+        <v>8.0932203389830502</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="2"/>
-        <v>19.875</v>
+        <v>23.875</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="3"/>
-        <v>42.75</v>
+        <v>53.75</v>
       </c>
       <c r="H18" s="90"/>
       <c r="I18" s="14"/>
@@ -8036,24 +8163,48 @@
       <c r="BD18" s="98">
         <v>99</v>
       </c>
-      <c r="BE18" s="29"/>
+      <c r="BE18" s="100">
+        <v>1</v>
+      </c>
       <c r="BF18" s="100">
         <v>99</v>
       </c>
-      <c r="BG18" s="100"/>
-      <c r="BH18" s="100"/>
-      <c r="BI18" s="100"/>
+      <c r="BG18" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="100">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="100">
+        <v>1</v>
+      </c>
       <c r="BJ18" s="100">
         <v>99</v>
       </c>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="93"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="93"/>
-      <c r="BQ18" s="93"/>
-      <c r="BR18" s="93"/>
+      <c r="BK18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="93">
+        <v>1</v>
+      </c>
       <c r="BS18" s="98">
         <v>99</v>
       </c>
@@ -8100,19 +8251,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="26">
         <f t="shared" si="0"/>
-        <v>6.0992907801418443</v>
+        <v>7.8260869565217392</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>6.6101694915254239</v>
+        <v>7.9661016949152543</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="14"/>
@@ -8225,24 +8376,48 @@
       <c r="BD19" s="98">
         <v>99</v>
       </c>
-      <c r="BE19" s="29"/>
+      <c r="BE19" s="29">
+        <v>1</v>
+      </c>
       <c r="BF19" s="100">
         <v>99</v>
       </c>
-      <c r="BG19" s="100"/>
-      <c r="BH19" s="100"/>
-      <c r="BI19" s="100"/>
+      <c r="BG19" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="100">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="100">
+        <v>1</v>
+      </c>
       <c r="BJ19" s="100">
         <v>99</v>
       </c>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="93"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="93"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="93"/>
+      <c r="BK19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="93">
+        <v>1</v>
+      </c>
       <c r="BS19" s="98">
         <v>99</v>
       </c>
@@ -8291,19 +8466,19 @@
       <c r="C20" s="5"/>
       <c r="D20" s="26">
         <f t="shared" si="0"/>
-        <v>6.8723404255319149</v>
+        <v>8.6159420289855078</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>6.7372881355932197</v>
+        <v>8.0932203389830502</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="2"/>
-        <v>19.875</v>
+        <v>23.875</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="3"/>
-        <v>48.45</v>
+        <v>59.45</v>
       </c>
       <c r="H20" s="90"/>
       <c r="I20" s="14"/>
@@ -8416,24 +8591,48 @@
       <c r="BD20" s="98">
         <v>99</v>
       </c>
-      <c r="BE20" s="29"/>
+      <c r="BE20" s="29">
+        <v>1</v>
+      </c>
       <c r="BF20" s="100">
         <v>99</v>
       </c>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="100"/>
-      <c r="BI20" s="100"/>
+      <c r="BG20" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="100">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="100">
+        <v>1</v>
+      </c>
       <c r="BJ20" s="100">
         <v>99</v>
       </c>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
+      <c r="BK20" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="BL20" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="BM20" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="BN20" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO20" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP20" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR20" s="93">
+        <v>1</v>
+      </c>
       <c r="BS20" s="98">
         <v>99</v>
       </c>
@@ -8480,19 +8679,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="26">
         <f t="shared" ref="D21:D23" si="4">G21/$G$5*20+CH21*$CH$5</f>
-        <v>7.4468085106382977</v>
+        <v>9.2028985507246368</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" ref="E21:E23" si="5">F21/$G$6*20+CH21*$CH$6</f>
-        <v>7.5593220338983063</v>
+        <v>8.9152542372881367</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="2"/>
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="3"/>
-        <v>52.5</v>
+        <v>63.5</v>
       </c>
       <c r="H21" s="90"/>
       <c r="I21" s="67"/>
@@ -8605,24 +8804,48 @@
       <c r="BD21" s="98">
         <v>99</v>
       </c>
-      <c r="BE21" s="65"/>
+      <c r="BE21" s="65">
+        <v>1</v>
+      </c>
       <c r="BF21" s="100">
         <v>99</v>
       </c>
-      <c r="BG21" s="100"/>
-      <c r="BH21" s="100"/>
-      <c r="BI21" s="100"/>
+      <c r="BG21" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="100">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="100">
+        <v>1</v>
+      </c>
       <c r="BJ21" s="100">
         <v>99</v>
       </c>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="93"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
+      <c r="BK21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BM21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ21" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR21" s="93">
+        <v>1</v>
+      </c>
       <c r="BS21" s="98">
         <v>99</v>
       </c>
@@ -8670,19 +8893,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="26">
         <f t="shared" si="4"/>
-        <v>8.5177304964539005</v>
+        <v>10.27536231884058</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="5"/>
-        <v>8.5593220338983063</v>
+        <v>9.9152542372881367</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="2"/>
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H22" s="90"/>
       <c r="I22" s="67"/>
@@ -8795,24 +9018,48 @@
       <c r="BD22" s="98">
         <v>99</v>
       </c>
-      <c r="BE22" s="65"/>
+      <c r="BE22" s="65">
+        <v>1</v>
+      </c>
       <c r="BF22" s="100">
         <v>99</v>
       </c>
-      <c r="BG22" s="100"/>
-      <c r="BH22" s="100"/>
-      <c r="BI22" s="100"/>
+      <c r="BG22" s="100">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="100">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="100">
+        <v>1</v>
+      </c>
       <c r="BJ22" s="100">
         <v>99</v>
       </c>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="93"/>
-      <c r="BM22" s="93"/>
-      <c r="BN22" s="93"/>
-      <c r="BO22" s="93"/>
-      <c r="BP22" s="93"/>
-      <c r="BQ22" s="93"/>
-      <c r="BR22" s="93"/>
+      <c r="BK22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="93">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="93">
+        <v>1</v>
+      </c>
       <c r="BS22" s="98">
         <v>99</v>
       </c>
@@ -9545,7 +9792,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="26">
         <f t="shared" si="6"/>
-        <v>17.879432624113477</v>
+        <v>18.246376811594203</v>
       </c>
       <c r="E28" s="26">
         <f t="shared" si="7"/>
@@ -10020,35 +10267,35 @@
       </c>
       <c r="BK29" s="71">
         <f t="shared" ref="BK29:BQ29" si="13">AVERAGE(BK8:BK27)</f>
-        <v>1</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="BL29" s="71">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BM29" s="71" t="e">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="BM29" s="71">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN29" s="71" t="e">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="BN29" s="71">
         <f t="shared" ref="BN29:BP29" si="14">AVERAGE(BN8:BN27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="71">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="BP29" s="71">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ29" s="71" t="e">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="BQ29" s="71">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BR29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="BR29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BS29" s="71">
         <f t="shared" si="9"/>
@@ -11858,7 +12105,7 @@
     <row r="37" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G37" s="71">
         <f t="shared" si="20"/>
-        <v>54.65</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" ref="H37:CH37" si="41">H14*H$5</f>
@@ -11886,7 +12133,7 @@
       </c>
       <c r="N37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O37" s="71">
         <f t="shared" si="41"/>
@@ -13018,7 +13265,7 @@
     <row r="41" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G41" s="71">
         <f t="shared" si="20"/>
-        <v>42.75</v>
+        <v>53.75</v>
       </c>
       <c r="H41" s="71">
         <f t="shared" ref="H41:CH41" si="57">H18*H$5</f>
@@ -13218,7 +13465,7 @@
       </c>
       <c r="BE41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF41" s="71">
         <f t="shared" si="57"/>
@@ -13226,15 +13473,15 @@
       </c>
       <c r="BG41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH41" s="71">
         <f t="shared" ref="BH41:BI41" si="60">BH18*BH$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI41" s="71">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ41" s="71">
         <f t="shared" si="57"/>
@@ -13308,7 +13555,7 @@
     <row r="42" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="71">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H42" s="71">
         <f t="shared" ref="H42:CH42" si="61">H19*H$5</f>
@@ -13508,7 +13755,7 @@
       </c>
       <c r="BE42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF42" s="71">
         <f t="shared" si="61"/>
@@ -13516,15 +13763,15 @@
       </c>
       <c r="BG42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH42" s="71">
         <f t="shared" ref="BH42:BI42" si="64">BH19*BH$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI42" s="71">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ42" s="71">
         <f t="shared" si="61"/>
@@ -13598,7 +13845,7 @@
     <row r="43" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="71">
         <f t="shared" si="20"/>
-        <v>48.45</v>
+        <v>59.45</v>
       </c>
       <c r="H43" s="71">
         <f t="shared" ref="H43:CH43" si="65">H20*H$5</f>
@@ -13798,7 +14045,7 @@
       </c>
       <c r="BE43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF43" s="71">
         <f t="shared" si="65"/>
@@ -13806,15 +14053,15 @@
       </c>
       <c r="BG43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH43" s="71">
         <f t="shared" ref="BH43:BI43" si="68">BH20*BH$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI43" s="71">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ43" s="71">
         <f t="shared" si="65"/>
@@ -13888,7 +14135,7 @@
     <row r="44" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G44" s="71">
         <f t="shared" si="20"/>
-        <v>52.5</v>
+        <v>63.5</v>
       </c>
       <c r="H44" s="71">
         <f t="shared" ref="H44:CH44" si="69">H21*H$5</f>
@@ -14088,7 +14335,7 @@
       </c>
       <c r="BE44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF44" s="71">
         <f t="shared" si="69"/>
@@ -14096,15 +14343,15 @@
       </c>
       <c r="BG44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH44" s="71">
         <f t="shared" ref="BH44:BI44" si="72">BH21*BH$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI44" s="71">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ44" s="71">
         <f t="shared" si="69"/>
@@ -14180,7 +14427,7 @@
       <c r="E45" s="23"/>
       <c r="G45" s="71">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:CH45" si="73">H22*H$5</f>
@@ -14380,7 +14627,7 @@
       </c>
       <c r="BE45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF45" s="71">
         <f t="shared" si="73"/>
@@ -14388,15 +14635,15 @@
       </c>
       <c r="BG45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH45" s="71">
         <f t="shared" ref="BH45:BI45" si="76">BH22*BH$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI45" s="71">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ45" s="71">
         <f t="shared" si="73"/>
@@ -17990,7 +18237,7 @@
     <row r="67" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G67" s="2">
         <f t="shared" si="101"/>
-        <v>23.524999999999999</v>
+        <v>23.65</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" ref="H67:CG67" si="132">H14*H$6</f>
@@ -18018,7 +18265,7 @@
       </c>
       <c r="N67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O67" s="71">
         <f t="shared" si="132"/>
@@ -19150,7 +19397,7 @@
     <row r="71" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G71" s="2">
         <f t="shared" si="101"/>
-        <v>19.875</v>
+        <v>23.875</v>
       </c>
       <c r="H71" s="71">
         <f t="shared" ref="H71:CG71" si="152">H18*H$6</f>
@@ -19350,7 +19597,7 @@
       </c>
       <c r="BE71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF71" s="71">
         <f t="shared" si="152"/>
@@ -19358,15 +19605,15 @@
       </c>
       <c r="BG71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH71" s="71">
         <f t="shared" ref="BH71:BI71" si="155">BH18*BH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI71" s="71">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ71" s="71">
         <f t="shared" si="152"/>
@@ -19440,7 +19687,7 @@
     <row r="72" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2">
         <f t="shared" si="101"/>
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="H72" s="71">
         <f t="shared" ref="H72:CG72" si="157">H19*H$6</f>
@@ -19640,7 +19887,7 @@
       </c>
       <c r="BE72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF72" s="71">
         <f t="shared" si="157"/>
@@ -19648,15 +19895,15 @@
       </c>
       <c r="BG72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH72" s="71">
         <f t="shared" ref="BH72:BI72" si="160">BH19*BH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI72" s="71">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ72" s="71">
         <f t="shared" si="157"/>
@@ -19730,7 +19977,7 @@
     <row r="73" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2">
         <f t="shared" si="101"/>
-        <v>19.875</v>
+        <v>23.875</v>
       </c>
       <c r="H73" s="71">
         <f t="shared" ref="H73:CG73" si="162">H20*H$6</f>
@@ -19930,7 +20177,7 @@
       </c>
       <c r="BE73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF73" s="71">
         <f t="shared" si="162"/>
@@ -19938,15 +20185,15 @@
       </c>
       <c r="BG73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH73" s="71">
         <f t="shared" ref="BH73:BI73" si="165">BH20*BH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI73" s="71">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ73" s="71">
         <f t="shared" si="162"/>
@@ -20020,7 +20267,7 @@
     <row r="74" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G74" s="71">
         <f t="shared" ref="G74:G81" si="167">SUM(H74:CG74)</f>
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="H74" s="71">
         <f t="shared" ref="H74:CG74" si="168">H21*H$6</f>
@@ -20220,7 +20467,7 @@
       </c>
       <c r="BE74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF74" s="71">
         <f t="shared" si="168"/>
@@ -20228,15 +20475,15 @@
       </c>
       <c r="BG74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH74" s="71">
         <f t="shared" ref="BH74:BI74" si="171">BH21*BH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI74" s="71">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ74" s="71">
         <f t="shared" si="168"/>
@@ -20306,7 +20553,7 @@
     <row r="75" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G75" s="71">
         <f t="shared" si="167"/>
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:CG75" si="172">H22*H$6</f>
@@ -20506,7 +20753,7 @@
       </c>
       <c r="BE75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF75" s="71">
         <f t="shared" si="172"/>
@@ -20514,15 +20761,15 @@
       </c>
       <c r="BG75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH75" s="71">
         <f t="shared" ref="BH75:BI75" si="175">BH22*BH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI75" s="71">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ75" s="71">
         <f t="shared" si="172"/>
@@ -28259,7 +28506,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 I8:X22 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 BE8:BE23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23">
+  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 I8:X22 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23 BE8:BE23">
     <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29290,144 +29537,144 @@
       <c r="C1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="133" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="137" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="140"/>
+      <c r="AK1" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="133" t="s">
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="135"/>
+      <c r="AS1" s="134"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="32"/>
       <c r="C2" s="36"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="146" t="s">
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="146" t="s">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="146" t="s">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="150"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="146" t="s">
+      <c r="AK2" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="150"/>
+      <c r="AL2" s="146"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="35"/>
       <c r="AO2" s="35"/>
       <c r="AP2" s="35"/>
       <c r="AQ2" s="47"/>
-      <c r="AR2" s="142" t="s">
+      <c r="AR2" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="144" t="s">
+      <c r="AS2" s="143" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="133" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
       <c r="P3" s="35" t="s">
         <v>30</v>
       </c>
@@ -29437,20 +29684,20 @@
       <c r="R3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="146" t="s">
+      <c r="S3" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="146" t="s">
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
       <c r="AC3" s="39" t="s">
         <v>40</v>
       </c>
@@ -29463,11 +29710,11 @@
       <c r="AF3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="130" t="s">
+      <c r="AG3" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="132"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
       <c r="AJ3" s="36" t="s">
         <v>7</v>
       </c>
@@ -29492,77 +29739,77 @@
       <c r="AQ3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="145"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="144"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="130" t="s">
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="130" t="s">
+      <c r="K4" s="131"/>
+      <c r="L4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="131" t="s">
+      <c r="M4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="132" t="s">
+      <c r="O4" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="129" t="s">
+      <c r="Q4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="129" t="s">
+      <c r="R4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="130" t="s">
+      <c r="S4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="131" t="s">
+      <c r="T4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="131" t="s">
+      <c r="U4" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="131" t="s">
+      <c r="V4" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="136" t="s">
+      <c r="W4" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="130" t="s">
+      <c r="X4" s="131"/>
+      <c r="Y4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="131" t="s">
+      <c r="Z4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="131" t="s">
+      <c r="AA4" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="151" t="s">
+      <c r="AB4" s="150" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="39"/>
@@ -29591,40 +29838,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="30" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="130"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
       <c r="W5" s="33" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="151"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="150"/>
       <c r="AC5" s="39"/>
       <c r="AD5" s="40"/>
       <c r="AE5" s="39"/>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69E369-40DB-4175-A66E-90571A29691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418980E2-7BDA-469C-A6B6-A9B9E2788CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,6 +55,78 @@
           </rPr>
           <t xml:space="preserve">
 manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{5CD42182-F0AB-49AD-87F2-205F8DDB739C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de trowws de RuntimeException</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{9A959F01-9985-40F8-84DA-812F9AF331FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0" shapeId="0" xr:uid="{4158316F-451B-4E54-9112-1EC4A80C4D9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
         </r>
       </text>
     </comment>
@@ -227,6 +299,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{A43C78AD-B178-47F4-924D-E8129AB156AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+c'est la vue qui affiche les messages</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y12" authorId="0" shapeId="0" xr:uid="{1935A505-7675-4E75-B008-E2876B796CF3}">
       <text>
         <r>
@@ -344,6 +440,54 @@
           </rPr>
           <t xml:space="preserve">
 manque l'appel au setter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{09755F72-5869-4B48-B335-05169F998855}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="0" shapeId="0" xr:uid="{1669574D-B76B-42B7-9F60-40A0496B6B72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
         </r>
       </text>
     </comment>
@@ -564,6 +708,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{842CEF1E-83C4-41F5-A33A-164C1DBA1E2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{A5045660-069C-40C0-B129-B96C7D410198}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y17" authorId="0" shapeId="0" xr:uid="{7214300A-1EDA-4F3A-8D06-5A27D57E6FEA}">
       <text>
         <r>
@@ -609,6 +801,54 @@
           </rPr>
           <t xml:space="preserve">
 manque controles sur un setter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{2EE4C8A2-D145-4629-9930-30DF62D08B42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X18" authorId="0" shapeId="0" xr:uid="{694FACDC-AF4A-4846-9A66-3EDEAE0AE36C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
         </r>
       </text>
     </comment>
@@ -682,6 +922,54 @@
           </rPr>
           <t xml:space="preserve">
 manque instanciation UUID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{BC91C036-0250-4CFC-ABAF-3751D8D2B885}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X19" authorId="0" shapeId="0" xr:uid="{2A86887F-038B-4E99-B3DB-464014F46E3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'envoi au metier</t>
         </r>
       </text>
     </comment>
@@ -807,6 +1095,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{4C84FDB3-2439-449C-92BC-C7A5F735A6CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+printStackTrace</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y21" authorId="0" shapeId="0" xr:uid="{DC033F28-48DD-4D36-BB8C-C9995D50ECE5}">
       <text>
         <r>
@@ -900,6 +1212,30 @@
           </rPr>
           <t xml:space="preserve">
 manque un appel au setter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{FB416B9D-648E-495C-96CC-3A68FD4C292B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+c'est la vue qui affiche les messages</t>
         </r>
       </text>
     </comment>
@@ -4639,11 +4975,11 @@
   <dimension ref="A1:CH244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="J13" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="J17" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5909,19 +6245,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="26">
         <f t="shared" ref="D8:D20" si="0">G8/$G$5*20+CH8*$CH$5</f>
-        <v>10.746376811594203</v>
+        <v>14.043478260869566</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" ref="E8:E20" si="1">F8/$G$6*20+CH8*$CH$6</f>
-        <v>10.508474576271187</v>
+        <v>13.305084745762711</v>
       </c>
       <c r="F8" s="19">
         <f>G61</f>
-        <v>28.05</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G8" s="19">
         <f>G31</f>
-        <v>67.25</v>
+        <v>90</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5933,13 +6269,27 @@
       <c r="O8" s="14"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="R8" s="20">
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="T8" s="20">
+        <v>1</v>
+      </c>
+      <c r="U8" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="V8" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="W8" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="X8" s="20">
+        <v>1.25</v>
+      </c>
       <c r="Y8" s="94">
         <v>0.8</v>
       </c>
@@ -6125,19 +6475,19 @@
       <c r="C9" s="5"/>
       <c r="D9" s="26">
         <f t="shared" si="0"/>
-        <v>7.4782608695652177</v>
+        <v>9.8876811594202891</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>7.5677966101694913</v>
+        <v>9.6440677966101713</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" ref="F9:F23" si="2">G62</f>
-        <v>22.324999999999999</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ref="G9:G28" si="3">G32</f>
-        <v>51.6</v>
+        <v>68.224999999999994</v>
       </c>
       <c r="H9" s="90"/>
       <c r="I9" s="14"/>
@@ -6145,17 +6495,33 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="54"/>
+      <c r="N9" s="66">
+        <v>0.125</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="6"/>
+      <c r="R9" s="73">
+        <v>1</v>
+      </c>
+      <c r="S9" s="73">
+        <v>1</v>
+      </c>
+      <c r="T9" s="73">
+        <v>1</v>
+      </c>
+      <c r="U9" s="73">
+        <v>1</v>
+      </c>
+      <c r="V9" s="73">
+        <v>1</v>
+      </c>
+      <c r="W9" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="101">
+        <v>0.5</v>
+      </c>
       <c r="Y9" s="94">
         <v>0.75</v>
       </c>
@@ -6338,19 +6704,19 @@
       <c r="C10" s="4"/>
       <c r="D10" s="26">
         <f t="shared" si="0"/>
-        <v>9.3478260869565215</v>
+        <v>12.10144927536232</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>8.9152542372881367</v>
+        <v>11.288135593220339</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>26.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>83.5</v>
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="14"/>
@@ -6362,13 +6728,27 @@
       <c r="O10" s="14"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="6"/>
+      <c r="R10" s="73">
+        <v>1</v>
+      </c>
+      <c r="S10" s="73">
+        <v>1</v>
+      </c>
+      <c r="T10" s="73">
+        <v>1</v>
+      </c>
+      <c r="U10" s="73">
+        <v>1</v>
+      </c>
+      <c r="V10" s="73">
+        <v>1</v>
+      </c>
+      <c r="W10" s="73">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
       <c r="Y10" s="94">
         <v>0.8</v>
       </c>
@@ -6753,19 +7133,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>8.4492753623188399</v>
+        <v>11.782608695652172</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>8.5254237288135588</v>
+        <v>11.16949152542373</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="2"/>
-        <v>25.15</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>58.3</v>
+        <v>81.3</v>
       </c>
       <c r="H12" s="90"/>
       <c r="I12" s="14"/>
@@ -6773,17 +7153,33 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="54">
+        <v>0.8</v>
+      </c>
       <c r="O12" s="14"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="6"/>
+      <c r="R12" s="73">
+        <v>1</v>
+      </c>
+      <c r="S12" s="73">
+        <v>1</v>
+      </c>
+      <c r="T12" s="73">
+        <v>1</v>
+      </c>
+      <c r="U12" s="73">
+        <v>1</v>
+      </c>
+      <c r="V12" s="73">
+        <v>1</v>
+      </c>
+      <c r="W12" s="73">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
       <c r="Y12" s="94">
         <v>0.8</v>
       </c>
@@ -6966,19 +7362,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>8.9420289855072461</v>
+        <v>11.260869565217391</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>8.677966101694917</v>
+        <v>10.711864406779661</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>31.6</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="3"/>
-        <v>61.7</v>
+        <v>77.7</v>
       </c>
       <c r="H13" s="90"/>
       <c r="I13" s="14"/>
@@ -6990,13 +7386,27 @@
       <c r="O13" s="14"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="52"/>
+      <c r="R13" s="101">
+        <v>1</v>
+      </c>
+      <c r="S13" s="101">
+        <v>1</v>
+      </c>
+      <c r="T13" s="101">
+        <v>1</v>
+      </c>
+      <c r="U13" s="101">
+        <v>1</v>
+      </c>
+      <c r="V13" s="101">
+        <v>1</v>
+      </c>
+      <c r="W13" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="X13" s="101">
+        <v>0.5</v>
+      </c>
       <c r="Y13" s="96">
         <v>0.8</v>
       </c>
@@ -7179,19 +7589,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="26">
         <f t="shared" si="0"/>
-        <v>8.0108695652173907</v>
+        <v>9.5688405797101463</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>8.0169491525423719</v>
+        <v>9.4576271186440675</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="2"/>
-        <v>23.65</v>
+        <v>27.9</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="3"/>
-        <v>55.274999999999999</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="H14" s="90"/>
       <c r="I14" s="14"/>
@@ -7205,13 +7615,27 @@
       <c r="O14" s="14"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="6"/>
+      <c r="R14" s="73">
+        <v>1</v>
+      </c>
+      <c r="S14" s="73">
+        <v>1</v>
+      </c>
+      <c r="T14" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="U14" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="V14" s="73">
+        <v>0</v>
+      </c>
+      <c r="W14" s="73">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
       <c r="Y14" s="97">
         <v>0.75</v>
       </c>
@@ -7394,19 +7818,19 @@
       <c r="C15" s="5"/>
       <c r="D15" s="26">
         <f t="shared" si="0"/>
-        <v>9.3079710144927539</v>
+        <v>11.735507246376811</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>9.0932203389830502</v>
+        <v>11.211864406779661</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="2"/>
-        <v>26.824999999999999</v>
+        <v>33.075000000000003</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="3"/>
-        <v>64.224999999999994</v>
+        <v>80.974999999999994</v>
       </c>
       <c r="H15" s="90"/>
       <c r="I15" s="14"/>
@@ -7420,13 +7844,27 @@
       <c r="O15" s="14"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="6"/>
+      <c r="R15" s="73">
+        <v>1</v>
+      </c>
+      <c r="S15" s="73">
+        <v>1</v>
+      </c>
+      <c r="T15" s="101">
+        <v>1.125</v>
+      </c>
+      <c r="U15" s="101">
+        <v>1.125</v>
+      </c>
+      <c r="V15" s="73">
+        <v>1</v>
+      </c>
+      <c r="W15" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0.5</v>
+      </c>
       <c r="Y15" s="97">
         <v>0.8</v>
       </c>
@@ -7609,19 +8047,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="26">
         <f t="shared" si="0"/>
-        <v>10.347826086956522</v>
+        <v>13.210144927536232</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.457627118644067</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="2"/>
-        <v>26.55</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>84.25</v>
       </c>
       <c r="H16" s="90"/>
       <c r="I16" s="14"/>
@@ -7633,13 +8071,27 @@
       <c r="O16" s="14"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="6"/>
+      <c r="R16" s="73">
+        <v>1</v>
+      </c>
+      <c r="S16" s="73">
+        <v>1</v>
+      </c>
+      <c r="T16" s="73">
+        <v>1</v>
+      </c>
+      <c r="U16" s="73">
+        <v>1.25</v>
+      </c>
+      <c r="V16" s="73">
+        <v>1</v>
+      </c>
+      <c r="W16" s="73">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
       <c r="Y16" s="97">
         <v>0.8</v>
       </c>
@@ -7825,19 +8277,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>9.4565217391304337</v>
+        <v>11.938405797101449</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>9.2118644067796609</v>
+        <v>11.372881355932202</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="2"/>
-        <v>27.175000000000001</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="3"/>
-        <v>65.25</v>
+        <v>82.375</v>
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="14"/>
@@ -7849,13 +8301,27 @@
       <c r="O17" s="14"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="6"/>
+      <c r="R17" s="73">
+        <v>1</v>
+      </c>
+      <c r="S17" s="73">
+        <v>1</v>
+      </c>
+      <c r="T17" s="73">
+        <v>1.25</v>
+      </c>
+      <c r="U17" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="V17" s="73">
+        <v>1</v>
+      </c>
+      <c r="W17" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="101">
+        <v>0.5</v>
+      </c>
       <c r="Y17" s="97">
         <v>0.8</v>
       </c>
@@ -8038,19 +8504,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="26">
         <f t="shared" si="0"/>
-        <v>7.7898550724637685</v>
+        <v>10.326086956521738</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>8.0932203389830502</v>
+        <v>10.296610169491524</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="2"/>
-        <v>23.875</v>
+        <v>30.375</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="3"/>
-        <v>53.75</v>
+        <v>71.25</v>
       </c>
       <c r="H18" s="90"/>
       <c r="I18" s="14"/>
@@ -8062,13 +8528,27 @@
       <c r="O18" s="14"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="11"/>
+      <c r="R18" s="73">
+        <v>1</v>
+      </c>
+      <c r="S18" s="73">
+        <v>1</v>
+      </c>
+      <c r="T18" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="U18" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="V18" s="101">
+        <v>1</v>
+      </c>
+      <c r="W18" s="101">
+        <v>0.625</v>
+      </c>
+      <c r="X18" s="101">
+        <v>0.625</v>
+      </c>
       <c r="Y18" s="97">
         <v>0.75</v>
       </c>
@@ -8251,19 +8731,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="26">
         <f t="shared" si="0"/>
-        <v>7.8260869565217392</v>
+        <v>10.144927536231885</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>7.9661016949152543</v>
+        <v>10</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="14"/>
@@ -8275,13 +8755,27 @@
       <c r="O19" s="14"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="6"/>
+      <c r="R19" s="101">
+        <v>1</v>
+      </c>
+      <c r="S19" s="101">
+        <v>1</v>
+      </c>
+      <c r="T19" s="101">
+        <v>1</v>
+      </c>
+      <c r="U19" s="101">
+        <v>1</v>
+      </c>
+      <c r="V19" s="101">
+        <v>1</v>
+      </c>
+      <c r="W19" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="101">
+        <v>0.5</v>
+      </c>
       <c r="Y19" s="97">
         <v>0.5</v>
       </c>
@@ -8466,19 +8960,19 @@
       <c r="C20" s="5"/>
       <c r="D20" s="26">
         <f t="shared" si="0"/>
-        <v>8.6159420289855078</v>
+        <v>11.586956521739131</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>8.0932203389830502</v>
+        <v>10.635593220338983</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="2"/>
-        <v>23.875</v>
+        <v>31.375000000000004</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="3"/>
-        <v>59.45</v>
+        <v>79.95</v>
       </c>
       <c r="H20" s="90"/>
       <c r="I20" s="14"/>
@@ -8490,13 +8984,27 @@
       <c r="O20" s="14"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="12"/>
+      <c r="R20" s="73">
+        <v>1</v>
+      </c>
+      <c r="S20" s="73">
+        <v>1</v>
+      </c>
+      <c r="T20" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="U20" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="V20" s="73">
+        <v>1</v>
+      </c>
+      <c r="W20" s="73">
+        <v>1.125</v>
+      </c>
+      <c r="X20" s="12">
+        <v>1.125</v>
+      </c>
       <c r="Y20" s="97">
         <v>0.8</v>
       </c>
@@ -8679,19 +9187,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="26">
         <f t="shared" ref="D21:D23" si="4">G21/$G$5*20+CH21*$CH$5</f>
-        <v>9.2028985507246368</v>
+        <v>11.829710144927537</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" ref="E21:E23" si="5">F21/$G$6*20+CH21*$CH$6</f>
-        <v>8.9152542372881367</v>
+        <v>11.161016949152543</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="2"/>
-        <v>26.3</v>
+        <v>32.924999999999997</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="3"/>
-        <v>63.5</v>
+        <v>81.625</v>
       </c>
       <c r="H21" s="90"/>
       <c r="I21" s="67"/>
@@ -8699,17 +9207,33 @@
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="66">
+        <v>0.125</v>
+      </c>
       <c r="O21" s="67"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
+      <c r="R21" s="20">
+        <v>1</v>
+      </c>
+      <c r="S21" s="20">
+        <v>1</v>
+      </c>
+      <c r="T21" s="20">
+        <v>1</v>
+      </c>
+      <c r="U21" s="20">
+        <v>1</v>
+      </c>
+      <c r="V21" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="W21" s="20">
+        <v>1</v>
+      </c>
+      <c r="X21" s="20">
+        <v>1</v>
+      </c>
       <c r="Y21" s="97">
         <v>0.8</v>
       </c>
@@ -8893,19 +9417,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="26">
         <f t="shared" si="4"/>
-        <v>10.27536231884058</v>
+        <v>13.608695652173914</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="5"/>
-        <v>9.9152542372881367</v>
+        <v>12.559322033898304</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="2"/>
-        <v>26.3</v>
+        <v>34.1</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H22" s="90"/>
       <c r="I22" s="67"/>
@@ -8913,17 +9437,33 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
-      <c r="N22" s="66"/>
+      <c r="N22" s="66">
+        <v>0.8</v>
+      </c>
       <c r="O22" s="67"/>
       <c r="P22" s="67"/>
       <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
+      <c r="R22" s="20">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20">
+        <v>1</v>
+      </c>
+      <c r="T22" s="20">
+        <v>1</v>
+      </c>
+      <c r="U22" s="20">
+        <v>1</v>
+      </c>
+      <c r="V22" s="20">
+        <v>1</v>
+      </c>
+      <c r="W22" s="20">
+        <v>1</v>
+      </c>
+      <c r="X22" s="20">
+        <v>1</v>
+      </c>
       <c r="Y22" s="97">
         <v>0.8</v>
       </c>
@@ -10071,7 +10611,7 @@
       </c>
       <c r="N29" s="71">
         <f t="shared" si="9"/>
-        <v>0.125</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="O29" s="71" t="e">
         <f t="shared" si="9"/>
@@ -10085,33 +10625,33 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="71" t="e">
+      <c r="R29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="S29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="71" t="e">
+        <v>1.0178571428571428</v>
+      </c>
+      <c r="T29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="71" t="e">
+        <v>1.0535714285714286</v>
+      </c>
+      <c r="U29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="71" t="e">
+        <v>1.0803571428571428</v>
+      </c>
+      <c r="V29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="71" t="e">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="W29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="71" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="X29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="Y29" s="71">
         <f t="shared" si="9"/>
@@ -10365,7 +10905,7 @@
     <row r="31" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f>SUM(H31:CG31)</f>
-        <v>67.25</v>
+        <v>90</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AN31" si="15">H8*H$5</f>
@@ -10409,31 +10949,31 @@
       </c>
       <c r="R31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="V31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y31" s="71">
         <f t="shared" si="15"/>
@@ -10655,7 +11195,7 @@
     <row r="32" spans="1:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="71">
         <f t="shared" ref="G32:G51" si="20">SUM(H32:CG32)</f>
-        <v>51.6</v>
+        <v>68.224999999999994</v>
       </c>
       <c r="H32" s="71">
         <f t="shared" ref="H32:CH32" si="21">H9*H$5</f>
@@ -10683,7 +11223,7 @@
       </c>
       <c r="N32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O32" s="71">
         <f t="shared" si="21"/>
@@ -10699,31 +11239,31 @@
       </c>
       <c r="R32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y32" s="71">
         <f t="shared" si="21"/>
@@ -10945,7 +11485,7 @@
     <row r="33" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G33" s="71">
         <f t="shared" si="20"/>
-        <v>64.5</v>
+        <v>83.5</v>
       </c>
       <c r="H33" s="71">
         <f t="shared" ref="H33:CH33" si="25">H10*H$5</f>
@@ -10989,31 +11529,31 @@
       </c>
       <c r="R33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33" s="71">
         <f t="shared" si="25"/>
@@ -11525,7 +12065,7 @@
     <row r="35" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="71">
         <f t="shared" si="20"/>
-        <v>58.3</v>
+        <v>81.3</v>
       </c>
       <c r="H35" s="71">
         <f t="shared" ref="H35:CH35" si="33">H12*H$5</f>
@@ -11553,7 +12093,7 @@
       </c>
       <c r="N35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35" s="71">
         <f t="shared" si="33"/>
@@ -11569,31 +12109,31 @@
       </c>
       <c r="R35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y35" s="71">
         <f t="shared" si="33"/>
@@ -11815,7 +12355,7 @@
     <row r="36" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="71">
         <f t="shared" si="20"/>
-        <v>61.7</v>
+        <v>77.7</v>
       </c>
       <c r="H36" s="71">
         <f t="shared" ref="H36:CH36" si="37">H13*H$5</f>
@@ -11859,31 +12399,31 @@
       </c>
       <c r="R36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y36" s="71">
         <f t="shared" si="37"/>
@@ -12105,7 +12645,7 @@
     <row r="37" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G37" s="71">
         <f t="shared" si="20"/>
-        <v>55.274999999999999</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" ref="H37:CH37" si="41">H14*H$5</f>
@@ -12149,19 +12689,19 @@
       </c>
       <c r="R37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="U37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="V37" s="71">
         <f t="shared" si="41"/>
@@ -12395,7 +12935,7 @@
     <row r="38" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="71">
         <f t="shared" si="20"/>
-        <v>64.224999999999994</v>
+        <v>80.974999999999994</v>
       </c>
       <c r="H38" s="71">
         <f t="shared" ref="H38:CH38" si="45">H15*H$5</f>
@@ -12439,31 +12979,31 @@
       </c>
       <c r="R38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="U38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="V38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y38" s="71">
         <f t="shared" si="45"/>
@@ -12685,7 +13225,7 @@
     <row r="39" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="71">
         <f t="shared" si="20"/>
-        <v>64.5</v>
+        <v>84.25</v>
       </c>
       <c r="H39" s="71">
         <f t="shared" ref="H39:CH39" si="49">H16*H$5</f>
@@ -12729,31 +13269,31 @@
       </c>
       <c r="R39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="V39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39" s="71">
         <f t="shared" si="49"/>
@@ -12975,7 +13515,7 @@
     <row r="40" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="71">
         <f t="shared" si="20"/>
-        <v>65.25</v>
+        <v>82.375</v>
       </c>
       <c r="H40" s="71">
         <f t="shared" ref="H40:CH40" si="53">H17*H$5</f>
@@ -13019,31 +13559,31 @@
       </c>
       <c r="R40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="V40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y40" s="71">
         <f t="shared" si="53"/>
@@ -13265,7 +13805,7 @@
     <row r="41" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G41" s="71">
         <f t="shared" si="20"/>
-        <v>53.75</v>
+        <v>71.25</v>
       </c>
       <c r="H41" s="71">
         <f t="shared" ref="H41:CH41" si="57">H18*H$5</f>
@@ -13309,31 +13849,31 @@
       </c>
       <c r="R41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="U41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="V41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="X41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y41" s="71">
         <f t="shared" si="57"/>
@@ -13555,7 +14095,7 @@
     <row r="42" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="71">
         <f t="shared" si="20"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H42" s="71">
         <f t="shared" ref="H42:CH42" si="61">H19*H$5</f>
@@ -13599,31 +14139,31 @@
       </c>
       <c r="R42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y42" s="71">
         <f t="shared" si="61"/>
@@ -13845,7 +14385,7 @@
     <row r="43" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="71">
         <f t="shared" si="20"/>
-        <v>59.45</v>
+        <v>79.95</v>
       </c>
       <c r="H43" s="71">
         <f t="shared" ref="H43:CH43" si="65">H20*H$5</f>
@@ -13889,31 +14429,31 @@
       </c>
       <c r="R43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="U43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="V43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="X43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="Y43" s="71">
         <f t="shared" si="65"/>
@@ -14135,7 +14675,7 @@
     <row r="44" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G44" s="71">
         <f t="shared" si="20"/>
-        <v>63.5</v>
+        <v>81.625</v>
       </c>
       <c r="H44" s="71">
         <f t="shared" ref="H44:CH44" si="69">H21*H$5</f>
@@ -14163,7 +14703,7 @@
       </c>
       <c r="N44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O44" s="71">
         <f t="shared" si="69"/>
@@ -14179,31 +14719,31 @@
       </c>
       <c r="R44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y44" s="71">
         <f t="shared" si="69"/>
@@ -14427,7 +14967,7 @@
       <c r="E45" s="23"/>
       <c r="G45" s="71">
         <f t="shared" si="20"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:CH45" si="73">H22*H$5</f>
@@ -14455,7 +14995,7 @@
       </c>
       <c r="N45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="71">
         <f t="shared" si="73"/>
@@ -14471,31 +15011,31 @@
       </c>
       <c r="R45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y45" s="71">
         <f t="shared" si="73"/>
@@ -16497,7 +17037,7 @@
     <row r="61" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" ref="G61:G73" si="101">SUM(H61:CG61)</f>
-        <v>28.05</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:CG61" si="102">H8*H$6</f>
@@ -16541,31 +17081,31 @@
       </c>
       <c r="R61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y61" s="71">
         <f t="shared" si="102"/>
@@ -16787,7 +17327,7 @@
     <row r="62" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="101"/>
-        <v>22.324999999999999</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="H62" s="71">
         <f t="shared" ref="H62:CG62" si="107">H9*H$6</f>
@@ -16815,7 +17355,7 @@
       </c>
       <c r="N62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O62" s="71">
         <f t="shared" si="107"/>
@@ -16831,31 +17371,31 @@
       </c>
       <c r="R62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y62" s="71">
         <f t="shared" si="107"/>
@@ -17077,7 +17617,7 @@
     <row r="63" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G63" s="2">
         <f t="shared" si="101"/>
-        <v>26.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H63" s="71">
         <f t="shared" ref="H63:CG63" si="112">H10*H$6</f>
@@ -17121,31 +17661,31 @@
       </c>
       <c r="R63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="71">
         <f t="shared" si="112"/>
@@ -17657,7 +18197,7 @@
     <row r="65" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="2">
         <f t="shared" si="101"/>
-        <v>25.15</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65:CG65" si="122">H12*H$6</f>
@@ -17685,7 +18225,7 @@
       </c>
       <c r="N65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O65" s="71">
         <f t="shared" si="122"/>
@@ -17701,31 +18241,31 @@
       </c>
       <c r="R65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="71">
         <f t="shared" si="122"/>
@@ -17947,7 +18487,7 @@
     <row r="66" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="2">
         <f t="shared" si="101"/>
-        <v>25.6</v>
+        <v>31.6</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" ref="H66:CG66" si="127">H13*H$6</f>
@@ -17991,31 +18531,31 @@
       </c>
       <c r="R66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y66" s="71">
         <f t="shared" si="127"/>
@@ -18237,7 +18777,7 @@
     <row r="67" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G67" s="2">
         <f t="shared" si="101"/>
-        <v>23.65</v>
+        <v>27.9</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" ref="H67:CG67" si="132">H14*H$6</f>
@@ -18281,19 +18821,19 @@
       </c>
       <c r="R67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="U67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="V67" s="71">
         <f t="shared" si="132"/>
@@ -18527,7 +19067,7 @@
     <row r="68" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="2">
         <f t="shared" si="101"/>
-        <v>26.824999999999999</v>
+        <v>33.075000000000003</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" ref="H68:CG68" si="137">H15*H$6</f>
@@ -18571,31 +19111,31 @@
       </c>
       <c r="R68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="U68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="V68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y68" s="71">
         <f t="shared" si="137"/>
@@ -18817,7 +19357,7 @@
     <row r="69" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="2">
         <f t="shared" si="101"/>
-        <v>26.55</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H69" s="71">
         <f t="shared" ref="H69:CG69" si="142">H16*H$6</f>
@@ -18861,31 +19401,31 @@
       </c>
       <c r="R69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="71">
         <f t="shared" si="142"/>
@@ -19107,7 +19647,7 @@
     <row r="70" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="2">
         <f t="shared" si="101"/>
-        <v>27.175000000000001</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="H70" s="71">
         <f t="shared" ref="H70:CG70" si="147">H17*H$6</f>
@@ -19151,31 +19691,31 @@
       </c>
       <c r="R70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="V70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y70" s="71">
         <f t="shared" si="147"/>
@@ -19397,7 +19937,7 @@
     <row r="71" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G71" s="2">
         <f t="shared" si="101"/>
-        <v>23.875</v>
+        <v>30.375</v>
       </c>
       <c r="H71" s="71">
         <f t="shared" ref="H71:CG71" si="152">H18*H$6</f>
@@ -19441,31 +19981,31 @@
       </c>
       <c r="R71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="U71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="V71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="X71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="Y71" s="71">
         <f t="shared" si="152"/>
@@ -19687,7 +20227,7 @@
     <row r="72" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2">
         <f t="shared" si="101"/>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="H72" s="71">
         <f t="shared" ref="H72:CG72" si="157">H19*H$6</f>
@@ -19731,31 +20271,31 @@
       </c>
       <c r="R72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y72" s="71">
         <f t="shared" si="157"/>
@@ -19977,7 +20517,7 @@
     <row r="73" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2">
         <f t="shared" si="101"/>
-        <v>23.875</v>
+        <v>31.375000000000004</v>
       </c>
       <c r="H73" s="71">
         <f t="shared" ref="H73:CG73" si="162">H20*H$6</f>
@@ -20021,31 +20561,31 @@
       </c>
       <c r="R73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="U73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="V73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="X73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="Y73" s="71">
         <f t="shared" si="162"/>
@@ -20267,7 +20807,7 @@
     <row r="74" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G74" s="71">
         <f t="shared" ref="G74:G81" si="167">SUM(H74:CG74)</f>
-        <v>26.3</v>
+        <v>32.924999999999997</v>
       </c>
       <c r="H74" s="71">
         <f t="shared" ref="H74:CG74" si="168">H21*H$6</f>
@@ -20295,7 +20835,7 @@
       </c>
       <c r="N74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O74" s="71">
         <f t="shared" si="168"/>
@@ -20311,31 +20851,31 @@
       </c>
       <c r="R74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="71">
         <f t="shared" si="168"/>
@@ -20553,7 +21093,7 @@
     <row r="75" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G75" s="71">
         <f t="shared" si="167"/>
-        <v>26.3</v>
+        <v>34.1</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:CG75" si="172">H22*H$6</f>
@@ -20581,7 +21121,7 @@
       </c>
       <c r="N75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O75" s="71">
         <f t="shared" si="172"/>
@@ -20597,31 +21137,31 @@
       </c>
       <c r="R75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="71">
         <f t="shared" si="172"/>
@@ -28506,7 +29046,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 I8:X22 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23 BE8:BE23">
+  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23 BE8:BE23 I8:X22">
     <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2Bis_GJ52.xlsx
+++ b/BaremeJavaBaseTest2Bis_GJ52.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418980E2-7BDA-469C-A6B6-A9B9E2788CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C847CC-C693-468C-BABA-3127132BFBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7575" windowWidth="25110" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3031,7 +3031,70 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="230">
+  <dxfs count="239">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4975,11 +5038,11 @@
   <dimension ref="A1:CH244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4200" ySplit="3210" topLeftCell="J17" activePane="bottomRight"/>
+      <pane xSplit="4200" ySplit="3210" topLeftCell="A6" activePane="bottomRight"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5277,11 +5340,11 @@
       </c>
       <c r="E3" s="22" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 59)</v>
+        <v>Note/20 ( sur 55)</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/59</v>
+        <v>Note/55</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -5881,22 +5944,22 @@
       <c r="F6" s="22"/>
       <c r="G6" s="7">
         <f>SUM(H6:CG6)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6" s="62">
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="59">
         <v>1</v>
@@ -6245,30 +6308,48 @@
       <c r="C8" s="4"/>
       <c r="D8" s="26">
         <f t="shared" ref="D8:D20" si="0">G8/$G$5*20+CH8*$CH$5</f>
-        <v>14.043478260869566</v>
+        <v>17.811594202898551</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" ref="E8:E20" si="1">F8/$G$6*20+CH8*$CH$6</f>
-        <v>13.305084745762711</v>
+        <v>18.2</v>
       </c>
       <c r="F8" s="19">
         <f>G61</f>
-        <v>36.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="G8" s="19">
         <f>G31</f>
-        <v>90</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="H8" s="101">
+        <v>1</v>
+      </c>
+      <c r="I8" s="100">
+        <v>99</v>
+      </c>
+      <c r="J8" s="100">
+        <v>99</v>
+      </c>
+      <c r="K8" s="100">
+        <v>99</v>
+      </c>
+      <c r="L8" s="100">
+        <v>99</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
       <c r="N8" s="54"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
       <c r="R8" s="20">
         <v>1</v>
       </c>
@@ -6359,7 +6440,9 @@
       <c r="AU8" s="73">
         <v>1</v>
       </c>
-      <c r="AV8" s="73"/>
+      <c r="AV8" s="73">
+        <v>1</v>
+      </c>
       <c r="AW8" s="98">
         <v>99</v>
       </c>
@@ -6432,7 +6515,9 @@
       <c r="BT8" s="98">
         <v>99</v>
       </c>
-      <c r="BU8" s="73"/>
+      <c r="BU8" s="73">
+        <v>1</v>
+      </c>
       <c r="BV8" s="98">
         <v>99</v>
       </c>
@@ -6442,7 +6527,9 @@
       <c r="BX8" s="98">
         <v>99</v>
       </c>
-      <c r="BY8" s="73"/>
+      <c r="BY8" s="73">
+        <v>1</v>
+      </c>
       <c r="BZ8" s="98">
         <v>99</v>
       </c>
@@ -6458,9 +6545,15 @@
       <c r="CD8" s="98">
         <v>99</v>
       </c>
-      <c r="CE8" s="73"/>
-      <c r="CF8" s="73"/>
-      <c r="CG8" s="6"/>
+      <c r="CE8" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="6">
+        <v>1</v>
+      </c>
       <c r="CH8" s="2">
         <v>1</v>
       </c>
@@ -6475,32 +6568,50 @@
       <c r="C9" s="5"/>
       <c r="D9" s="26">
         <f t="shared" si="0"/>
-        <v>9.8876811594202891</v>
+        <v>13.293478260869565</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>9.6440677966101713</v>
+        <v>13.8</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" ref="F9:F23" si="2">G62</f>
-        <v>28.450000000000003</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ref="G9:G28" si="3">G32</f>
-        <v>68.224999999999994</v>
-      </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+        <v>91.724999999999994</v>
+      </c>
+      <c r="H9" s="90">
+        <v>1</v>
+      </c>
+      <c r="I9" s="100">
+        <v>99</v>
+      </c>
+      <c r="J9" s="100">
+        <v>99</v>
+      </c>
+      <c r="K9" s="100">
+        <v>99</v>
+      </c>
+      <c r="L9" s="100">
+        <v>99</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
       <c r="N9" s="66">
         <v>0.125</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="73"/>
+      <c r="O9" s="14">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="73">
+        <v>1</v>
+      </c>
       <c r="R9" s="73">
         <v>1</v>
       </c>
@@ -6591,7 +6702,9 @@
       <c r="AU9" s="73">
         <v>1</v>
       </c>
-      <c r="AV9" s="73"/>
+      <c r="AV9" s="73">
+        <v>1</v>
+      </c>
       <c r="AW9" s="98">
         <v>99</v>
       </c>
@@ -6664,7 +6777,9 @@
       <c r="BT9" s="98">
         <v>99</v>
       </c>
-      <c r="BU9" s="73"/>
+      <c r="BU9" s="73">
+        <v>1</v>
+      </c>
       <c r="BV9" s="98">
         <v>99</v>
       </c>
@@ -6674,7 +6789,9 @@
       <c r="BX9" s="98">
         <v>99</v>
       </c>
-      <c r="BY9" s="73"/>
+      <c r="BY9" s="73">
+        <v>0</v>
+      </c>
       <c r="BZ9" s="98">
         <v>99</v>
       </c>
@@ -6690,9 +6807,15 @@
       <c r="CD9" s="98">
         <v>99</v>
       </c>
-      <c r="CE9" s="73"/>
-      <c r="CF9" s="73"/>
-      <c r="CG9" s="9"/>
+      <c r="CE9" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -6704,30 +6827,48 @@
       <c r="C10" s="4"/>
       <c r="D10" s="26">
         <f t="shared" si="0"/>
-        <v>12.10144927536232</v>
+        <v>15.362318840579709</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>11.288135593220339</v>
+        <v>14.927272727272726</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>33.299999999999997</v>
+        <v>41.05</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="3"/>
-        <v>83.5</v>
-      </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="H10" s="90">
+        <v>1</v>
+      </c>
+      <c r="I10" s="100">
+        <v>99</v>
+      </c>
+      <c r="J10" s="100">
+        <v>99</v>
+      </c>
+      <c r="K10" s="100">
+        <v>99</v>
+      </c>
+      <c r="L10" s="100">
+        <v>99</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
       <c r="N10" s="54"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="73"/>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="73">
+        <v>1</v>
+      </c>
       <c r="R10" s="73">
         <v>1</v>
       </c>
@@ -6818,7 +6959,9 @@
       <c r="AU10" s="101">
         <v>1</v>
       </c>
-      <c r="AV10" s="73"/>
+      <c r="AV10" s="73">
+        <v>1</v>
+      </c>
       <c r="AW10" s="98">
         <v>99</v>
       </c>
@@ -6891,7 +7034,9 @@
       <c r="BT10" s="98">
         <v>99</v>
       </c>
-      <c r="BU10" s="73"/>
+      <c r="BU10" s="73">
+        <v>1</v>
+      </c>
       <c r="BV10" s="98">
         <v>99</v>
       </c>
@@ -6901,7 +7046,9 @@
       <c r="BX10" s="98">
         <v>99</v>
       </c>
-      <c r="BY10" s="73"/>
+      <c r="BY10" s="73">
+        <v>0.75</v>
+      </c>
       <c r="BZ10" s="98">
         <v>99</v>
       </c>
@@ -6917,9 +7064,15 @@
       <c r="CD10" s="98">
         <v>99</v>
       </c>
-      <c r="CE10" s="73"/>
-      <c r="CF10" s="73"/>
-      <c r="CG10" s="6"/>
+      <c r="CE10" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -6931,28 +7084,42 @@
       <c r="C11" s="5"/>
       <c r="D11" s="26">
         <f t="shared" si="0"/>
-        <v>9.3333333333333339</v>
+        <v>12.086956521739131</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>9.4915254237288131</v>
+        <v>11.927272727272728</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="2"/>
-        <v>25.05</v>
+        <v>30.05</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="3"/>
-        <v>57.5</v>
-      </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+        <v>76.5</v>
+      </c>
+      <c r="H11" s="90">
+        <v>1</v>
+      </c>
+      <c r="I11" s="100">
+        <v>99</v>
+      </c>
+      <c r="J11" s="100">
+        <v>99</v>
+      </c>
+      <c r="K11" s="100">
+        <v>99</v>
+      </c>
+      <c r="L11" s="100">
+        <v>99</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1</v>
+      </c>
       <c r="N11" s="56"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="13">
+        <v>1</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
@@ -7031,7 +7198,9 @@
       <c r="AU11" s="101">
         <v>1</v>
       </c>
-      <c r="AV11" s="73"/>
+      <c r="AV11" s="73">
+        <v>1</v>
+      </c>
       <c r="AW11" s="98">
         <v>99</v>
       </c>
@@ -7090,7 +7259,9 @@
       <c r="BT11" s="98">
         <v>99</v>
       </c>
-      <c r="BU11" s="73"/>
+      <c r="BU11" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BV11" s="98">
         <v>99</v>
       </c>
@@ -7100,7 +7271,9 @@
       <c r="BX11" s="98">
         <v>99</v>
       </c>
-      <c r="BY11" s="73"/>
+      <c r="BY11" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BZ11" s="98">
         <v>99</v>
       </c>
@@ -7116,9 +7289,15 @@
       <c r="CD11" s="98">
         <v>99</v>
       </c>
-      <c r="CE11" s="73"/>
-      <c r="CF11" s="73"/>
-      <c r="CG11" s="8"/>
+      <c r="CE11" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="8">
+        <v>0</v>
+      </c>
       <c r="CH11" s="2">
         <v>1</v>
       </c>
@@ -7133,32 +7312,50 @@
       <c r="C12" s="5"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>11.782608695652172</v>
+        <v>14.89855072463768</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>11.16949152542373</v>
+        <v>15.072727272727274</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="2"/>
-        <v>32.950000000000003</v>
+        <v>41.45</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>81.3</v>
-      </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+        <v>102.8</v>
+      </c>
+      <c r="H12" s="90">
+        <v>1</v>
+      </c>
+      <c r="I12" s="100">
+        <v>99</v>
+      </c>
+      <c r="J12" s="100">
+        <v>99</v>
+      </c>
+      <c r="K12" s="100">
+        <v>99</v>
+      </c>
+      <c r="L12" s="100">
+        <v>99</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
       <c r="N12" s="54">
         <v>0.8</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="73"/>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>1</v>
+      </c>
       <c r="R12" s="73">
         <v>1</v>
       </c>
@@ -7249,7 +7446,9 @@
       <c r="AU12" s="101">
         <v>1</v>
       </c>
-      <c r="AV12" s="73"/>
+      <c r="AV12" s="73">
+        <v>1</v>
+      </c>
       <c r="AW12" s="98">
         <v>99</v>
       </c>
@@ -7322,7 +7521,9 @@
       <c r="BT12" s="98">
         <v>99</v>
       </c>
-      <c r="BU12" s="73"/>
+      <c r="BU12" s="73">
+        <v>0</v>
+      </c>
       <c r="BV12" s="98">
         <v>99</v>
       </c>
@@ -7332,7 +7533,9 @@
       <c r="BX12" s="98">
         <v>99</v>
       </c>
-      <c r="BY12" s="73"/>
+      <c r="BY12" s="73">
+        <v>0</v>
+      </c>
       <c r="BZ12" s="98">
         <v>99</v>
       </c>
@@ -7348,9 +7551,15 @@
       <c r="CD12" s="98">
         <v>99</v>
       </c>
-      <c r="CE12" s="73"/>
-      <c r="CF12" s="73"/>
-      <c r="CG12" s="9"/>
+      <c r="CE12" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="73">
+        <v>0.75</v>
+      </c>
+      <c r="CG12" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="13" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -7362,30 +7571,48 @@
       <c r="C13" s="4"/>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>11.260869565217391</v>
+        <v>14.594202898550726</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>10.711864406779661</v>
+        <v>14.58181818181818</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="2"/>
-        <v>31.6</v>
+        <v>40.099999999999994</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="3"/>
-        <v>77.7</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+        <v>100.7</v>
+      </c>
+      <c r="H13" s="90">
+        <v>1</v>
+      </c>
+      <c r="I13" s="100">
+        <v>99</v>
+      </c>
+      <c r="J13" s="100">
+        <v>99</v>
+      </c>
+      <c r="K13" s="100">
+        <v>99</v>
+      </c>
+      <c r="L13" s="100">
+        <v>99</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
       <c r="N13" s="54"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="73"/>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="101">
+        <v>1</v>
+      </c>
       <c r="R13" s="101">
         <v>1</v>
       </c>
@@ -7476,7 +7703,9 @@
       <c r="AU13" s="101">
         <v>1</v>
       </c>
-      <c r="AV13" s="73"/>
+      <c r="AV13" s="73">
+        <v>1</v>
+      </c>
       <c r="AW13" s="98">
         <v>99</v>
       </c>
@@ -7549,7 +7778,9 @@
       <c r="BT13" s="98">
         <v>99</v>
       </c>
-      <c r="BU13" s="73"/>
+      <c r="BU13" s="73">
+        <v>1</v>
+      </c>
       <c r="BV13" s="98">
         <v>99</v>
       </c>
@@ -7559,7 +7790,9 @@
       <c r="BX13" s="98">
         <v>99</v>
       </c>
-      <c r="BY13" s="73"/>
+      <c r="BY13" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BZ13" s="98">
         <v>99</v>
       </c>
@@ -7575,9 +7808,15 @@
       <c r="CD13" s="98">
         <v>99</v>
       </c>
-      <c r="CE13" s="73"/>
-      <c r="CF13" s="73"/>
-      <c r="CG13" s="9"/>
+      <c r="CE13" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -7589,32 +7828,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="26">
         <f t="shared" si="0"/>
-        <v>9.5688405797101463</v>
+        <v>12.032608695652174</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>9.4576271186440675</v>
+        <v>12.872727272727271</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="2"/>
-        <v>27.9</v>
+        <v>35.4</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="3"/>
-        <v>66.025000000000006</v>
-      </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+        <v>83.025000000000006</v>
+      </c>
+      <c r="H14" s="90">
+        <v>1</v>
+      </c>
+      <c r="I14" s="100">
+        <v>99</v>
+      </c>
+      <c r="J14" s="100">
+        <v>99</v>
+      </c>
+      <c r="K14" s="100">
+        <v>99</v>
+      </c>
+      <c r="L14" s="100">
+        <v>99</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
       <c r="N14" s="54">
         <v>0.125</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="73"/>
+      <c r="O14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="101">
+        <v>1</v>
+      </c>
       <c r="R14" s="73">
         <v>1</v>
       </c>
@@ -7705,7 +7962,9 @@
       <c r="AU14" s="73">
         <v>1</v>
       </c>
-      <c r="AV14" s="73"/>
+      <c r="AV14" s="73">
+        <v>1</v>
+      </c>
       <c r="AW14" s="98">
         <v>99</v>
       </c>
@@ -7778,7 +8037,9 @@
       <c r="BT14" s="98">
         <v>99</v>
       </c>
-      <c r="BU14" s="73"/>
+      <c r="BU14" s="73">
+        <v>1</v>
+      </c>
       <c r="BV14" s="98">
         <v>99</v>
       </c>
@@ -7788,7 +8049,9 @@
       <c r="BX14" s="98">
         <v>99</v>
       </c>
-      <c r="BY14" s="73"/>
+      <c r="BY14" s="73">
+        <v>0</v>
+      </c>
       <c r="BZ14" s="98">
         <v>99</v>
       </c>
@@ -7804,9 +8067,15 @@
       <c r="CD14" s="98">
         <v>99</v>
       </c>
-      <c r="CE14" s="73"/>
-      <c r="CF14" s="73"/>
-      <c r="CG14" s="6"/>
+      <c r="CE14" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -7818,32 +8087,50 @@
       <c r="C15" s="5"/>
       <c r="D15" s="26">
         <f t="shared" si="0"/>
-        <v>11.735507246376811</v>
+        <v>14.851449275362318</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>11.211864406779661</v>
+        <v>14.663636363636366</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="2"/>
-        <v>33.075000000000003</v>
+        <v>40.325000000000003</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="3"/>
-        <v>80.974999999999994</v>
-      </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+        <v>102.47499999999999</v>
+      </c>
+      <c r="H15" s="90">
+        <v>1</v>
+      </c>
+      <c r="I15" s="100">
+        <v>99</v>
+      </c>
+      <c r="J15" s="100">
+        <v>99</v>
+      </c>
+      <c r="K15" s="100">
+        <v>99</v>
+      </c>
+      <c r="L15" s="100">
+        <v>99</v>
+      </c>
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
       <c r="N15" s="54">
         <v>0.125</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="73"/>
+      <c r="O15" s="14">
+        <v>1</v>
+      </c>
+      <c r="P15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>1</v>
+      </c>
       <c r="R15" s="73">
         <v>1</v>
       </c>
@@ -7934,7 +8221,9 @@
       <c r="AU15" s="101">
         <v>1</v>
       </c>
-      <c r="AV15" s="73"/>
+      <c r="AV15" s="73">
+        <v>1</v>
+      </c>
       <c r="AW15" s="98">
         <v>99</v>
       </c>
@@ -8007,7 +8296,9 @@
       <c r="BT15" s="98">
         <v>99</v>
       </c>
-      <c r="BU15" s="73"/>
+      <c r="BU15" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BV15" s="98">
         <v>99</v>
       </c>
@@ -8017,7 +8308,9 @@
       <c r="BX15" s="98">
         <v>99</v>
       </c>
-      <c r="BY15" s="73"/>
+      <c r="BY15" s="73">
+        <v>0.75</v>
+      </c>
       <c r="BZ15" s="98">
         <v>99</v>
       </c>
@@ -8033,9 +8326,15 @@
       <c r="CD15" s="98">
         <v>99</v>
       </c>
-      <c r="CE15" s="73"/>
-      <c r="CF15" s="73"/>
-      <c r="CG15" s="10"/>
+      <c r="CE15" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -8047,30 +8346,48 @@
       <c r="C16" s="4"/>
       <c r="D16" s="26">
         <f t="shared" si="0"/>
-        <v>13.210144927536232</v>
+        <v>16.615942028985508</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>12.457627118644067</v>
+        <v>16.472727272727269</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="2"/>
-        <v>33.799999999999997</v>
+        <v>42.55</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="3"/>
-        <v>84.25</v>
-      </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+        <v>107.75</v>
+      </c>
+      <c r="H16" s="90">
+        <v>1</v>
+      </c>
+      <c r="I16" s="100">
+        <v>99</v>
+      </c>
+      <c r="J16" s="100">
+        <v>99</v>
+      </c>
+      <c r="K16" s="100">
+        <v>99</v>
+      </c>
+      <c r="L16" s="100">
+        <v>99</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
       <c r="N16" s="54"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="73"/>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>1</v>
+      </c>
       <c r="R16" s="73">
         <v>1</v>
       </c>
@@ -8161,7 +8478,9 @@
       <c r="AU16" s="101">
         <v>1</v>
       </c>
-      <c r="AV16" s="73"/>
+      <c r="AV16" s="73">
+        <v>1</v>
+      </c>
       <c r="AW16" s="98">
         <v>99</v>
       </c>
@@ -8234,7 +8553,9 @@
       <c r="BT16" s="98">
         <v>99</v>
       </c>
-      <c r="BU16" s="73"/>
+      <c r="BU16" s="73">
+        <v>1</v>
+      </c>
       <c r="BV16" s="98">
         <v>99</v>
       </c>
@@ -8244,7 +8565,9 @@
       <c r="BX16" s="98">
         <v>99</v>
       </c>
-      <c r="BY16" s="73"/>
+      <c r="BY16" s="73">
+        <v>0.75</v>
+      </c>
       <c r="BZ16" s="98">
         <v>99</v>
       </c>
@@ -8260,9 +8583,15 @@
       <c r="CD16" s="98">
         <v>99</v>
       </c>
-      <c r="CE16" s="73"/>
-      <c r="CF16" s="73"/>
-      <c r="CG16" s="6"/>
+      <c r="CE16" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="6">
+        <v>1</v>
+      </c>
       <c r="CH16" s="2">
         <v>1</v>
       </c>
@@ -8277,30 +8606,48 @@
       <c r="C17" s="4"/>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>11.938405797101449</v>
+        <v>15.344202898550725</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>11.372881355932202</v>
+        <v>15.381818181818181</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="2"/>
-        <v>33.549999999999997</v>
+        <v>42.3</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="3"/>
-        <v>82.375</v>
-      </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+        <v>105.875</v>
+      </c>
+      <c r="H17" s="90">
+        <v>1</v>
+      </c>
+      <c r="I17" s="100">
+        <v>99</v>
+      </c>
+      <c r="J17" s="100">
+        <v>99</v>
+      </c>
+      <c r="K17" s="100">
+        <v>99</v>
+      </c>
+      <c r="L17" s="100">
+        <v>99</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
       <c r="N17" s="54"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="73"/>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>1</v>
+      </c>
       <c r="R17" s="73">
         <v>1</v>
       </c>
@@ -8391,7 +8738,9 @@
       <c r="AU17" s="101">
         <v>1</v>
       </c>
-      <c r="AV17" s="73"/>
+      <c r="AV17" s="73">
+        <v>1</v>
+      </c>
       <c r="AW17" s="98">
         <v>99</v>
       </c>
@@ -8464,7 +8813,9 @@
       <c r="BT17" s="98">
         <v>99</v>
       </c>
-      <c r="BU17" s="73"/>
+      <c r="BU17" s="73">
+        <v>1</v>
+      </c>
       <c r="BV17" s="98">
         <v>99</v>
       </c>
@@ -8474,7 +8825,9 @@
       <c r="BX17" s="98">
         <v>99</v>
       </c>
-      <c r="BY17" s="73"/>
+      <c r="BY17" s="73">
+        <v>0.75</v>
+      </c>
       <c r="BZ17" s="98">
         <v>99</v>
       </c>
@@ -8490,9 +8843,15 @@
       <c r="CD17" s="98">
         <v>99</v>
       </c>
-      <c r="CE17" s="73"/>
-      <c r="CF17" s="73"/>
-      <c r="CG17" s="6"/>
+      <c r="CE17" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG17" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -8504,30 +8863,48 @@
       <c r="C18" s="4"/>
       <c r="D18" s="26">
         <f t="shared" si="0"/>
-        <v>10.326086956521738</v>
+        <v>13.369565217391305</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>10.296610169491524</v>
+        <v>13.590909090909092</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="2"/>
-        <v>30.375</v>
+        <v>37.375</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="3"/>
-        <v>71.25</v>
-      </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+        <v>92.25</v>
+      </c>
+      <c r="H18" s="90">
+        <v>1</v>
+      </c>
+      <c r="I18" s="100">
+        <v>99</v>
+      </c>
+      <c r="J18" s="100">
+        <v>99</v>
+      </c>
+      <c r="K18" s="100">
+        <v>99</v>
+      </c>
+      <c r="L18" s="100">
+        <v>99</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
       <c r="N18" s="54"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="73"/>
+      <c r="O18" s="14">
+        <v>1</v>
+      </c>
+      <c r="P18" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>1</v>
+      </c>
       <c r="R18" s="73">
         <v>1</v>
       </c>
@@ -8618,7 +8995,9 @@
       <c r="AU18" s="101">
         <v>1</v>
       </c>
-      <c r="AV18" s="73"/>
+      <c r="AV18" s="73">
+        <v>1</v>
+      </c>
       <c r="AW18" s="98">
         <v>99</v>
       </c>
@@ -8691,7 +9070,9 @@
       <c r="BT18" s="98">
         <v>99</v>
       </c>
-      <c r="BU18" s="73"/>
+      <c r="BU18" s="73">
+        <v>1</v>
+      </c>
       <c r="BV18" s="98">
         <v>99</v>
       </c>
@@ -8701,7 +9082,9 @@
       <c r="BX18" s="98">
         <v>99</v>
       </c>
-      <c r="BY18" s="73"/>
+      <c r="BY18" s="73">
+        <v>0</v>
+      </c>
       <c r="BZ18" s="98">
         <v>99</v>
       </c>
@@ -8717,9 +9100,15 @@
       <c r="CD18" s="98">
         <v>99</v>
       </c>
-      <c r="CE18" s="73"/>
-      <c r="CF18" s="73"/>
-      <c r="CG18" s="11"/>
+      <c r="CE18" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -8731,30 +9120,48 @@
       <c r="C19" s="4"/>
       <c r="D19" s="26">
         <f t="shared" si="0"/>
-        <v>10.144927536231885</v>
+        <v>13.115942028985508</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="2"/>
-        <v>29.5</v>
+        <v>36</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+        <v>90.5</v>
+      </c>
+      <c r="H19" s="90">
+        <v>1</v>
+      </c>
+      <c r="I19" s="100">
+        <v>99</v>
+      </c>
+      <c r="J19" s="100">
+        <v>99</v>
+      </c>
+      <c r="K19" s="100">
+        <v>99</v>
+      </c>
+      <c r="L19" s="100">
+        <v>99</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
       <c r="N19" s="54"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="73"/>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>1</v>
+      </c>
       <c r="R19" s="101">
         <v>1</v>
       </c>
@@ -8845,7 +9252,9 @@
       <c r="AU19" s="101">
         <v>1</v>
       </c>
-      <c r="AV19" s="73"/>
+      <c r="AV19" s="73">
+        <v>1</v>
+      </c>
       <c r="AW19" s="98">
         <v>99</v>
       </c>
@@ -8918,7 +9327,9 @@
       <c r="BT19" s="98">
         <v>99</v>
       </c>
-      <c r="BU19" s="73"/>
+      <c r="BU19" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BV19" s="98">
         <v>99</v>
       </c>
@@ -8928,7 +9339,9 @@
       <c r="BX19" s="98">
         <v>99</v>
       </c>
-      <c r="BY19" s="73"/>
+      <c r="BY19" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BZ19" s="98">
         <v>99</v>
       </c>
@@ -8944,11 +9357,15 @@
       <c r="CD19" s="98">
         <v>99</v>
       </c>
-      <c r="CE19" s="73"/>
+      <c r="CE19" s="73">
+        <v>0</v>
+      </c>
       <c r="CF19" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="CG19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="CG19" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -8960,30 +9377,48 @@
       <c r="C20" s="5"/>
       <c r="D20" s="26">
         <f t="shared" si="0"/>
-        <v>11.586956521739131</v>
+        <v>14.775362318840578</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>10.635593220338983</v>
+        <v>14.136363636363637</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="2"/>
-        <v>31.375000000000004</v>
+        <v>38.875</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="3"/>
-        <v>79.95</v>
-      </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+        <v>101.95</v>
+      </c>
+      <c r="H20" s="90">
+        <v>1</v>
+      </c>
+      <c r="I20" s="100">
+        <v>99</v>
+      </c>
+      <c r="J20" s="100">
+        <v>99</v>
+      </c>
+      <c r="K20" s="100">
+        <v>99</v>
+      </c>
+      <c r="L20" s="100">
+        <v>99</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
       <c r="N20" s="54"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="73"/>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="101">
+        <v>1</v>
+      </c>
       <c r="R20" s="73">
         <v>1</v>
       </c>
@@ -9074,7 +9509,9 @@
       <c r="AU20" s="101">
         <v>1</v>
       </c>
-      <c r="AV20" s="73"/>
+      <c r="AV20" s="73">
+        <v>1</v>
+      </c>
       <c r="AW20" s="98">
         <v>99</v>
       </c>
@@ -9147,7 +9584,9 @@
       <c r="BT20" s="98">
         <v>99</v>
       </c>
-      <c r="BU20" s="73"/>
+      <c r="BU20" s="73">
+        <v>1</v>
+      </c>
       <c r="BV20" s="98">
         <v>99</v>
       </c>
@@ -9157,7 +9596,9 @@
       <c r="BX20" s="98">
         <v>99</v>
       </c>
-      <c r="BY20" s="73"/>
+      <c r="BY20" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BZ20" s="98">
         <v>99</v>
       </c>
@@ -9173,9 +9614,15 @@
       <c r="CD20" s="98">
         <v>99</v>
       </c>
-      <c r="CE20" s="73"/>
-      <c r="CF20" s="73"/>
-      <c r="CG20" s="6"/>
+      <c r="CE20" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="73">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -9187,32 +9634,50 @@
       <c r="C21" s="4"/>
       <c r="D21" s="26">
         <f t="shared" ref="D21:D23" si="4">G21/$G$5*20+CH21*$CH$5</f>
-        <v>11.829710144927537</v>
+        <v>15.018115942028984</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" ref="E21:E23" si="5">F21/$G$6*20+CH21*$CH$6</f>
-        <v>11.161016949152543</v>
+        <v>14.881818181818181</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="2"/>
-        <v>32.924999999999997</v>
+        <v>40.924999999999997</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="3"/>
-        <v>81.625</v>
-      </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+        <v>103.625</v>
+      </c>
+      <c r="H21" s="90">
+        <v>1</v>
+      </c>
+      <c r="I21" s="100">
+        <v>99</v>
+      </c>
+      <c r="J21" s="100">
+        <v>99</v>
+      </c>
+      <c r="K21" s="100">
+        <v>99</v>
+      </c>
+      <c r="L21" s="100">
+        <v>99</v>
+      </c>
+      <c r="M21" s="67">
+        <v>1</v>
+      </c>
       <c r="N21" s="66">
         <v>0.125</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="20"/>
+      <c r="O21" s="67">
+        <v>1</v>
+      </c>
+      <c r="P21" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>1</v>
+      </c>
       <c r="R21" s="20">
         <v>1</v>
       </c>
@@ -9303,7 +9768,9 @@
       <c r="AU21" s="101">
         <v>1</v>
       </c>
-      <c r="AV21" s="73"/>
+      <c r="AV21" s="73">
+        <v>1</v>
+      </c>
       <c r="AW21" s="98">
         <v>99</v>
       </c>
@@ -9376,7 +9843,9 @@
       <c r="BT21" s="98">
         <v>99</v>
       </c>
-      <c r="BU21" s="73"/>
+      <c r="BU21" s="73">
+        <v>1</v>
+      </c>
       <c r="BV21" s="98">
         <v>99</v>
       </c>
@@ -9386,7 +9855,9 @@
       <c r="BX21" s="98">
         <v>99</v>
       </c>
-      <c r="BY21" s="73"/>
+      <c r="BY21" s="73">
+        <v>0</v>
+      </c>
       <c r="BZ21" s="98">
         <v>99</v>
       </c>
@@ -9402,9 +9873,15 @@
       <c r="CD21" s="98">
         <v>99</v>
       </c>
-      <c r="CE21" s="73"/>
-      <c r="CF21" s="73"/>
-      <c r="CG21" s="67"/>
+      <c r="CE21" s="73">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG21" s="67">
+        <v>0</v>
+      </c>
       <c r="CH21" s="68"/>
     </row>
     <row r="22" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9417,32 +9894,50 @@
       <c r="C22" s="4"/>
       <c r="D22" s="26">
         <f t="shared" si="4"/>
-        <v>13.608695652173914</v>
+        <v>17.231884057971016</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="5"/>
-        <v>12.559322033898304</v>
+        <v>17.218181818181819</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="2"/>
-        <v>34.1</v>
+        <v>44.6</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="H22" s="90"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
+        <v>112</v>
+      </c>
+      <c r="H22" s="90">
+        <v>1</v>
+      </c>
+      <c r="I22" s="100">
+        <v>99</v>
+      </c>
+      <c r="J22" s="100">
+        <v>99</v>
+      </c>
+      <c r="K22" s="100">
+        <v>99</v>
+      </c>
+      <c r="L22" s="100">
+        <v>99</v>
+      </c>
+      <c r="M22" s="67">
+        <v>1</v>
+      </c>
       <c r="N22" s="66">
         <v>0.8</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="20"/>
+      <c r="O22" s="67">
+        <v>1</v>
+      </c>
+      <c r="P22" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>1</v>
+      </c>
       <c r="R22" s="20">
         <v>1</v>
       </c>
@@ -9533,7 +10028,9 @@
       <c r="AU22" s="101">
         <v>1</v>
       </c>
-      <c r="AV22" s="73"/>
+      <c r="AV22" s="73">
+        <v>1</v>
+      </c>
       <c r="AW22" s="98">
         <v>99</v>
       </c>
@@ -9606,7 +10103,9 @@
       <c r="BT22" s="98">
         <v>99</v>
       </c>
-      <c r="BU22" s="73"/>
+      <c r="BU22" s="73">
+        <v>1</v>
+      </c>
       <c r="BV22" s="98">
         <v>99</v>
       </c>
@@ -9616,7 +10115,9 @@
       <c r="BX22" s="98">
         <v>99</v>
       </c>
-      <c r="BY22" s="73"/>
+      <c r="BY22" s="73">
+        <v>0.5</v>
+      </c>
       <c r="BZ22" s="98">
         <v>99</v>
       </c>
@@ -9632,9 +10133,15 @@
       <c r="CD22" s="98">
         <v>99</v>
       </c>
-      <c r="CE22" s="73"/>
-      <c r="CF22" s="73"/>
-      <c r="CG22" s="67"/>
+      <c r="CE22" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF22" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG22" s="67">
+        <v>1</v>
+      </c>
       <c r="CH22" s="68">
         <v>1</v>
       </c>
@@ -9660,10 +10167,18 @@
         <v>0</v>
       </c>
       <c r="H23" s="90"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="I23" s="100">
+        <v>99</v>
+      </c>
+      <c r="J23" s="100">
+        <v>99</v>
+      </c>
+      <c r="K23" s="100">
+        <v>99</v>
+      </c>
+      <c r="L23" s="100">
+        <v>99</v>
+      </c>
       <c r="M23" s="67"/>
       <c r="N23" s="66"/>
       <c r="O23" s="67"/>
@@ -9798,10 +10313,18 @@
         <v>0</v>
       </c>
       <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
+      <c r="I24" s="100">
+        <v>99</v>
+      </c>
+      <c r="J24" s="100">
+        <v>99</v>
+      </c>
+      <c r="K24" s="100">
+        <v>99</v>
+      </c>
+      <c r="L24" s="100">
+        <v>99</v>
+      </c>
       <c r="M24" s="90"/>
       <c r="N24" s="66"/>
       <c r="O24" s="90"/>
@@ -9936,10 +10459,18 @@
         <v>0</v>
       </c>
       <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
+      <c r="I25" s="100">
+        <v>99</v>
+      </c>
+      <c r="J25" s="100">
+        <v>99</v>
+      </c>
+      <c r="K25" s="100">
+        <v>99</v>
+      </c>
+      <c r="L25" s="100">
+        <v>99</v>
+      </c>
       <c r="M25" s="90"/>
       <c r="N25" s="66"/>
       <c r="O25" s="90"/>
@@ -10073,10 +10604,18 @@
         <v>0</v>
       </c>
       <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
+      <c r="I26" s="100">
+        <v>99</v>
+      </c>
+      <c r="J26" s="100">
+        <v>99</v>
+      </c>
+      <c r="K26" s="100">
+        <v>99</v>
+      </c>
+      <c r="L26" s="100">
+        <v>99</v>
+      </c>
       <c r="M26" s="90"/>
       <c r="N26" s="66"/>
       <c r="O26" s="90"/>
@@ -10210,10 +10749,18 @@
         <v>0</v>
       </c>
       <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
+      <c r="I27" s="100">
+        <v>99</v>
+      </c>
+      <c r="J27" s="100">
+        <v>99</v>
+      </c>
+      <c r="K27" s="100">
+        <v>99</v>
+      </c>
+      <c r="L27" s="100">
+        <v>99</v>
+      </c>
       <c r="M27" s="90"/>
       <c r="N27" s="66"/>
       <c r="O27" s="90"/>
@@ -10336,11 +10883,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="7"/>
-        <v>18.288135593220339</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="3"/>
@@ -10585,45 +11132,45 @@
       </c>
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="H29" s="2" t="e">
+      <c r="H29" s="2">
         <f>AVERAGE(H8:H27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="I29" s="71">
         <f t="shared" ref="I29:CH29" si="9">AVERAGE(I8:I27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="J29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="K29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="L29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="M29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="N29" s="71">
         <f t="shared" si="9"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="O29" s="71" t="e">
+      <c r="O29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="71" t="e">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="P29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="71" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="R29" s="71">
         <f t="shared" si="9"/>
@@ -10745,9 +11292,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AV29" s="71" t="e">
+      <c r="AV29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="71">
         <f t="shared" si="9"/>
@@ -10845,9 +11392,9 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="BU29" s="71" t="e">
+      <c r="BU29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BV29" s="71">
         <f t="shared" si="9"/>
@@ -10861,9 +11408,9 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="BY29" s="71" t="e">
+      <c r="BY29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="BZ29" s="71">
         <f t="shared" si="9"/>
@@ -10885,17 +11432,17 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="CE29" s="71" t="e">
+      <c r="CE29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CF29" s="71">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="CG29" s="71" t="e">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="CG29" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.35</v>
       </c>
       <c r="CH29" s="71">
         <f t="shared" si="9"/>
@@ -10905,11 +11452,11 @@
     <row r="31" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f>SUM(H31:CG31)</f>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AN31" si="15">H8*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="15"/>
@@ -10929,7 +11476,7 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="15"/>
@@ -10937,15 +11484,15 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="71">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="71">
         <f t="shared" si="15"/>
@@ -11069,7 +11616,7 @@
       </c>
       <c r="AV31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="71">
         <f t="shared" si="17"/>
@@ -11137,7 +11684,7 @@
       </c>
       <c r="BU31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV31" s="71">
         <f t="shared" si="17"/>
@@ -11153,7 +11700,7 @@
       </c>
       <c r="BY31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ31" s="71">
         <f t="shared" si="17"/>
@@ -11177,15 +11724,15 @@
       </c>
       <c r="CE31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG31" s="71">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH31" s="2">
         <f t="shared" si="17"/>
@@ -11195,11 +11742,11 @@
     <row r="32" spans="1:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="71">
         <f t="shared" ref="G32:G51" si="20">SUM(H32:CG32)</f>
-        <v>68.224999999999994</v>
+        <v>91.724999999999994</v>
       </c>
       <c r="H32" s="71">
         <f t="shared" ref="H32:CH32" si="21">H9*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="71">
         <f t="shared" si="21"/>
@@ -11219,7 +11766,7 @@
       </c>
       <c r="M32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="71">
         <f t="shared" si="21"/>
@@ -11227,15 +11774,15 @@
       </c>
       <c r="O32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="71">
         <f t="shared" si="21"/>
@@ -11359,7 +11906,7 @@
       </c>
       <c r="AV32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32" s="71">
         <f t="shared" si="21"/>
@@ -11427,7 +11974,7 @@
       </c>
       <c r="BU32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV32" s="71">
         <f t="shared" si="21"/>
@@ -11467,15 +12014,15 @@
       </c>
       <c r="CE32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32" s="71">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CH32" s="71">
         <f t="shared" si="21"/>
@@ -11485,11 +12032,11 @@
     <row r="33" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G33" s="71">
         <f t="shared" si="20"/>
-        <v>83.5</v>
+        <v>106</v>
       </c>
       <c r="H33" s="71">
         <f t="shared" ref="H33:CH33" si="25">H10*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="71">
         <f t="shared" si="25"/>
@@ -11509,7 +12056,7 @@
       </c>
       <c r="M33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="71">
         <f t="shared" si="25"/>
@@ -11517,15 +12064,15 @@
       </c>
       <c r="O33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="71">
         <f t="shared" si="25"/>
@@ -11649,7 +12196,7 @@
       </c>
       <c r="AV33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="71">
         <f t="shared" si="25"/>
@@ -11717,7 +12264,7 @@
       </c>
       <c r="BU33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV33" s="71">
         <f t="shared" si="25"/>
@@ -11733,7 +12280,7 @@
       </c>
       <c r="BY33" s="71">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ33" s="71">
         <f t="shared" si="25"/>
@@ -11775,11 +12322,11 @@
     <row r="34" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="71">
         <f t="shared" si="20"/>
-        <v>57.5</v>
+        <v>76.5</v>
       </c>
       <c r="H34" s="71">
         <f t="shared" ref="H34:CH34" si="29">H11*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="71">
         <f t="shared" si="29"/>
@@ -11799,7 +12346,7 @@
       </c>
       <c r="M34" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N34" s="71">
         <f t="shared" si="29"/>
@@ -11807,7 +12354,7 @@
       </c>
       <c r="O34" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P34" s="71">
         <f t="shared" si="29"/>
@@ -11939,7 +12486,7 @@
       </c>
       <c r="AV34" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="71">
         <f t="shared" si="29"/>
@@ -12007,7 +12554,7 @@
       </c>
       <c r="BU34" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV34" s="71">
         <f t="shared" si="29"/>
@@ -12023,7 +12570,7 @@
       </c>
       <c r="BY34" s="71">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ34" s="71">
         <f t="shared" si="29"/>
@@ -12065,11 +12612,11 @@
     <row r="35" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="71">
         <f t="shared" si="20"/>
-        <v>81.3</v>
+        <v>102.8</v>
       </c>
       <c r="H35" s="71">
         <f t="shared" ref="H35:CH35" si="33">H12*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="71">
         <f t="shared" si="33"/>
@@ -12089,7 +12636,7 @@
       </c>
       <c r="M35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35" s="71">
         <f t="shared" si="33"/>
@@ -12097,15 +12644,15 @@
       </c>
       <c r="O35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="71">
         <f t="shared" si="33"/>
@@ -12229,7 +12776,7 @@
       </c>
       <c r="AV35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="71">
         <f t="shared" si="33"/>
@@ -12337,15 +12884,15 @@
       </c>
       <c r="CE35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CG35" s="71">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CH35" s="71">
         <f t="shared" si="33"/>
@@ -12355,11 +12902,11 @@
     <row r="36" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="71">
         <f t="shared" si="20"/>
-        <v>77.7</v>
+        <v>100.7</v>
       </c>
       <c r="H36" s="71">
         <f t="shared" ref="H36:CH36" si="37">H13*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="71">
         <f t="shared" si="37"/>
@@ -12379,7 +12926,7 @@
       </c>
       <c r="M36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N36" s="71">
         <f t="shared" si="37"/>
@@ -12387,15 +12934,15 @@
       </c>
       <c r="O36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="71">
         <f t="shared" si="37"/>
@@ -12519,7 +13066,7 @@
       </c>
       <c r="AV36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="71">
         <f t="shared" si="37"/>
@@ -12587,7 +13134,7 @@
       </c>
       <c r="BU36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV36" s="71">
         <f t="shared" si="37"/>
@@ -12603,7 +13150,7 @@
       </c>
       <c r="BY36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ36" s="71">
         <f t="shared" si="37"/>
@@ -12635,7 +13182,7 @@
       </c>
       <c r="CG36" s="71">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH36" s="71">
         <f t="shared" si="37"/>
@@ -12645,11 +13192,11 @@
     <row r="37" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G37" s="71">
         <f t="shared" si="20"/>
-        <v>66.025000000000006</v>
+        <v>83.025000000000006</v>
       </c>
       <c r="H37" s="71">
         <f t="shared" ref="H37:CH37" si="41">H14*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="71">
         <f t="shared" si="41"/>
@@ -12669,7 +13216,7 @@
       </c>
       <c r="M37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37" s="71">
         <f t="shared" si="41"/>
@@ -12677,15 +13224,15 @@
       </c>
       <c r="O37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="71">
         <f t="shared" si="41"/>
@@ -12809,7 +13356,7 @@
       </c>
       <c r="AV37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="71">
         <f t="shared" si="41"/>
@@ -12877,7 +13424,7 @@
       </c>
       <c r="BU37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV37" s="71">
         <f t="shared" si="41"/>
@@ -12917,7 +13464,7 @@
       </c>
       <c r="CE37" s="71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF37" s="71">
         <f t="shared" si="41"/>
@@ -12935,11 +13482,11 @@
     <row r="38" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="71">
         <f t="shared" si="20"/>
-        <v>80.974999999999994</v>
+        <v>102.47499999999999</v>
       </c>
       <c r="H38" s="71">
         <f t="shared" ref="H38:CH38" si="45">H15*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="71">
         <f t="shared" si="45"/>
@@ -12959,7 +13506,7 @@
       </c>
       <c r="M38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N38" s="71">
         <f t="shared" si="45"/>
@@ -12967,15 +13514,15 @@
       </c>
       <c r="O38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="71">
         <f t="shared" si="45"/>
@@ -13099,7 +13646,7 @@
       </c>
       <c r="AV38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="71">
         <f t="shared" si="45"/>
@@ -13167,7 +13714,7 @@
       </c>
       <c r="BU38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV38" s="71">
         <f t="shared" si="45"/>
@@ -13183,7 +13730,7 @@
       </c>
       <c r="BY38" s="71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ38" s="71">
         <f t="shared" si="45"/>
@@ -13225,11 +13772,11 @@
     <row r="39" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="71">
         <f t="shared" si="20"/>
-        <v>84.25</v>
+        <v>107.75</v>
       </c>
       <c r="H39" s="71">
         <f t="shared" ref="H39:CH39" si="49">H16*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="71">
         <f t="shared" si="49"/>
@@ -13249,7 +13796,7 @@
       </c>
       <c r="M39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N39" s="71">
         <f t="shared" si="49"/>
@@ -13257,15 +13804,15 @@
       </c>
       <c r="O39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="71">
         <f t="shared" si="49"/>
@@ -13389,7 +13936,7 @@
       </c>
       <c r="AV39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39" s="71">
         <f t="shared" si="49"/>
@@ -13457,7 +14004,7 @@
       </c>
       <c r="BU39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV39" s="71">
         <f t="shared" si="49"/>
@@ -13473,7 +14020,7 @@
       </c>
       <c r="BY39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ39" s="71">
         <f t="shared" si="49"/>
@@ -13505,7 +14052,7 @@
       </c>
       <c r="CG39" s="71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH39" s="71">
         <f t="shared" si="49"/>
@@ -13515,11 +14062,11 @@
     <row r="40" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="71">
         <f t="shared" si="20"/>
-        <v>82.375</v>
+        <v>105.875</v>
       </c>
       <c r="H40" s="71">
         <f t="shared" ref="H40:CH40" si="53">H17*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="71">
         <f t="shared" si="53"/>
@@ -13539,7 +14086,7 @@
       </c>
       <c r="M40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N40" s="71">
         <f t="shared" si="53"/>
@@ -13547,15 +14094,15 @@
       </c>
       <c r="O40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="71">
         <f t="shared" si="53"/>
@@ -13679,7 +14226,7 @@
       </c>
       <c r="AV40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="71">
         <f t="shared" si="53"/>
@@ -13747,7 +14294,7 @@
       </c>
       <c r="BU40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV40" s="71">
         <f t="shared" si="53"/>
@@ -13763,7 +14310,7 @@
       </c>
       <c r="BY40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ40" s="71">
         <f t="shared" si="53"/>
@@ -13791,7 +14338,7 @@
       </c>
       <c r="CF40" s="71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG40" s="71">
         <f t="shared" si="53"/>
@@ -13805,11 +14352,11 @@
     <row r="41" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G41" s="71">
         <f t="shared" si="20"/>
-        <v>71.25</v>
+        <v>92.25</v>
       </c>
       <c r="H41" s="71">
         <f t="shared" ref="H41:CH41" si="57">H18*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="71">
         <f t="shared" si="57"/>
@@ -13829,7 +14376,7 @@
       </c>
       <c r="M41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N41" s="71">
         <f t="shared" si="57"/>
@@ -13837,15 +14384,15 @@
       </c>
       <c r="O41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="71">
         <f t="shared" si="57"/>
@@ -13969,7 +14516,7 @@
       </c>
       <c r="AV41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="71">
         <f t="shared" si="57"/>
@@ -14037,7 +14584,7 @@
       </c>
       <c r="BU41" s="71">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV41" s="71">
         <f t="shared" si="57"/>
@@ -14095,11 +14642,11 @@
     <row r="42" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="71">
         <f t="shared" si="20"/>
-        <v>70</v>
+        <v>90.5</v>
       </c>
       <c r="H42" s="71">
         <f t="shared" ref="H42:CH42" si="61">H19*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="71">
         <f t="shared" si="61"/>
@@ -14119,7 +14666,7 @@
       </c>
       <c r="M42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42" s="71">
         <f t="shared" si="61"/>
@@ -14127,15 +14674,15 @@
       </c>
       <c r="O42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="71">
         <f t="shared" si="61"/>
@@ -14259,7 +14806,7 @@
       </c>
       <c r="AV42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW42" s="71">
         <f t="shared" si="61"/>
@@ -14327,7 +14874,7 @@
       </c>
       <c r="BU42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV42" s="71">
         <f t="shared" si="61"/>
@@ -14343,7 +14890,7 @@
       </c>
       <c r="BY42" s="71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ42" s="71">
         <f t="shared" si="61"/>
@@ -14371,7 +14918,7 @@
       </c>
       <c r="CF42" s="71">
         <f t="shared" si="61"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CG42" s="71">
         <f t="shared" si="61"/>
@@ -14385,11 +14932,11 @@
     <row r="43" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="71">
         <f t="shared" si="20"/>
-        <v>79.95</v>
+        <v>101.95</v>
       </c>
       <c r="H43" s="71">
         <f t="shared" ref="H43:CH43" si="65">H20*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="71">
         <f t="shared" si="65"/>
@@ -14409,7 +14956,7 @@
       </c>
       <c r="M43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N43" s="71">
         <f t="shared" si="65"/>
@@ -14417,15 +14964,15 @@
       </c>
       <c r="O43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="71">
         <f t="shared" si="65"/>
@@ -14549,7 +15096,7 @@
       </c>
       <c r="AV43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW43" s="71">
         <f t="shared" si="65"/>
@@ -14617,7 +15164,7 @@
       </c>
       <c r="BU43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV43" s="71">
         <f t="shared" si="65"/>
@@ -14633,7 +15180,7 @@
       </c>
       <c r="BY43" s="71">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ43" s="71">
         <f t="shared" si="65"/>
@@ -14675,11 +15222,11 @@
     <row r="44" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G44" s="71">
         <f t="shared" si="20"/>
-        <v>81.625</v>
+        <v>103.625</v>
       </c>
       <c r="H44" s="71">
         <f t="shared" ref="H44:CH44" si="69">H21*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="71">
         <f t="shared" si="69"/>
@@ -14699,7 +15246,7 @@
       </c>
       <c r="M44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N44" s="71">
         <f t="shared" si="69"/>
@@ -14707,15 +15254,15 @@
       </c>
       <c r="O44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="71">
         <f t="shared" si="69"/>
@@ -14839,7 +15386,7 @@
       </c>
       <c r="AV44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="71">
         <f t="shared" si="69"/>
@@ -14907,7 +15454,7 @@
       </c>
       <c r="BU44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV44" s="71">
         <f t="shared" si="69"/>
@@ -14951,7 +15498,7 @@
       </c>
       <c r="CF44" s="71">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG44" s="71">
         <f t="shared" si="69"/>
@@ -14967,11 +15514,11 @@
       <c r="E45" s="23"/>
       <c r="G45" s="71">
         <f t="shared" si="20"/>
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H45" s="71">
         <f t="shared" ref="H45:CH45" si="73">H22*H$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="71">
         <f t="shared" si="73"/>
@@ -14991,7 +15538,7 @@
       </c>
       <c r="M45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N45" s="71">
         <f t="shared" si="73"/>
@@ -14999,15 +15546,15 @@
       </c>
       <c r="O45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="71">
         <f t="shared" si="73"/>
@@ -15131,7 +15678,7 @@
       </c>
       <c r="AV45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="71">
         <f t="shared" si="73"/>
@@ -15199,7 +15746,7 @@
       </c>
       <c r="BU45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV45" s="71">
         <f t="shared" si="73"/>
@@ -15215,7 +15762,7 @@
       </c>
       <c r="BY45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ45" s="71">
         <f t="shared" si="73"/>
@@ -15239,15 +15786,15 @@
       </c>
       <c r="CE45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG45" s="71">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH45" s="71">
         <f t="shared" si="73"/>
@@ -17037,11 +17584,11 @@
     <row r="61" spans="4:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" ref="G61:G73" si="101">SUM(H61:CG61)</f>
-        <v>36.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:CG61" si="102">H8*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="71">
         <f t="shared" si="102"/>
@@ -17061,7 +17608,7 @@
       </c>
       <c r="M61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="71">
         <f t="shared" si="102"/>
@@ -17069,15 +17616,15 @@
       </c>
       <c r="O61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="71">
         <f t="shared" si="102"/>
@@ -17201,7 +17748,7 @@
       </c>
       <c r="AV61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="71">
         <f t="shared" si="102"/>
@@ -17269,7 +17816,7 @@
       </c>
       <c r="BU61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV61" s="71">
         <f t="shared" si="102"/>
@@ -17285,7 +17832,7 @@
       </c>
       <c r="BY61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ61" s="71">
         <f t="shared" si="102"/>
@@ -17309,15 +17856,15 @@
       </c>
       <c r="CE61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG61" s="71">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH61" s="2">
         <f t="shared" ref="CH61" si="106">CH8*CH$6</f>
@@ -17327,11 +17874,11 @@
     <row r="62" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="101"/>
-        <v>28.450000000000003</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H62" s="71">
         <f t="shared" ref="H62:CG62" si="107">H9*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="71">
         <f t="shared" si="107"/>
@@ -17351,7 +17898,7 @@
       </c>
       <c r="M62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="71">
         <f t="shared" si="107"/>
@@ -17359,15 +17906,15 @@
       </c>
       <c r="O62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="71">
         <f t="shared" si="107"/>
@@ -17491,7 +18038,7 @@
       </c>
       <c r="AV62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW62" s="71">
         <f t="shared" si="107"/>
@@ -17559,7 +18106,7 @@
       </c>
       <c r="BU62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV62" s="71">
         <f t="shared" si="107"/>
@@ -17599,15 +18146,15 @@
       </c>
       <c r="CE62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG62" s="71">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CH62" s="2">
         <f t="shared" ref="CH62" si="111">CH9*CH$6</f>
@@ -17617,11 +18164,11 @@
     <row r="63" spans="4:86" x14ac:dyDescent="0.25">
       <c r="G63" s="2">
         <f t="shared" si="101"/>
-        <v>33.299999999999997</v>
+        <v>41.05</v>
       </c>
       <c r="H63" s="71">
         <f t="shared" ref="H63:CG63" si="112">H10*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="71">
         <f t="shared" si="112"/>
@@ -17641,7 +18188,7 @@
       </c>
       <c r="M63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="71">
         <f t="shared" si="112"/>
@@ -17649,15 +18196,15 @@
       </c>
       <c r="O63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="71">
         <f t="shared" si="112"/>
@@ -17781,7 +18328,7 @@
       </c>
       <c r="AV63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW63" s="71">
         <f t="shared" si="112"/>
@@ -17849,7 +18396,7 @@
       </c>
       <c r="BU63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV63" s="71">
         <f t="shared" si="112"/>
@@ -17865,7 +18412,7 @@
       </c>
       <c r="BY63" s="71">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BZ63" s="71">
         <f t="shared" si="112"/>
@@ -17907,11 +18454,11 @@
     <row r="64" spans="4:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="2">
         <f t="shared" si="101"/>
-        <v>25.05</v>
+        <v>30.05</v>
       </c>
       <c r="H64" s="71">
         <f t="shared" ref="H64:CG64" si="117">H11*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="71">
         <f t="shared" si="117"/>
@@ -17931,7 +18478,7 @@
       </c>
       <c r="M64" s="71">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="71">
         <f t="shared" si="117"/>
@@ -17939,7 +18486,7 @@
       </c>
       <c r="O64" s="71">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="71">
         <f t="shared" si="117"/>
@@ -18071,7 +18618,7 @@
       </c>
       <c r="AV64" s="71">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="71">
         <f t="shared" si="117"/>
@@ -18139,7 +18686,7 @@
       </c>
       <c r="BU64" s="71">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BV64" s="71">
         <f t="shared" si="117"/>
@@ -18155,7 +18702,7 @@
       </c>
       <c r="BY64" s="71">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ64" s="71">
         <f t="shared" si="117"/>
@@ -18197,11 +18744,11 @@
     <row r="65" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="2">
         <f t="shared" si="101"/>
-        <v>32.950000000000003</v>
+        <v>41.45</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65:CG65" si="122">H12*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="71">
         <f t="shared" si="122"/>
@@ -18221,7 +18768,7 @@
       </c>
       <c r="M65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="71">
         <f t="shared" si="122"/>
@@ -18229,15 +18776,15 @@
       </c>
       <c r="O65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="71">
         <f t="shared" si="122"/>
@@ -18361,7 +18908,7 @@
       </c>
       <c r="AV65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW65" s="71">
         <f t="shared" si="122"/>
@@ -18469,15 +19016,15 @@
       </c>
       <c r="CE65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CG65" s="71">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CH65" s="2">
         <f t="shared" ref="CH65" si="126">CH12*CH$6</f>
@@ -18487,11 +19034,11 @@
     <row r="66" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="2">
         <f t="shared" si="101"/>
-        <v>31.6</v>
+        <v>40.099999999999994</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" ref="H66:CG66" si="127">H13*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="71">
         <f t="shared" si="127"/>
@@ -18511,7 +19058,7 @@
       </c>
       <c r="M66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="71">
         <f t="shared" si="127"/>
@@ -18519,15 +19066,15 @@
       </c>
       <c r="O66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="71">
         <f t="shared" si="127"/>
@@ -18651,7 +19198,7 @@
       </c>
       <c r="AV66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW66" s="71">
         <f t="shared" si="127"/>
@@ -18719,7 +19266,7 @@
       </c>
       <c r="BU66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV66" s="71">
         <f t="shared" si="127"/>
@@ -18735,7 +19282,7 @@
       </c>
       <c r="BY66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ66" s="71">
         <f t="shared" si="127"/>
@@ -18767,7 +19314,7 @@
       </c>
       <c r="CG66" s="71">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH66" s="2">
         <f t="shared" ref="CH66" si="131">CH13*CH$6</f>
@@ -18777,11 +19324,11 @@
     <row r="67" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G67" s="2">
         <f t="shared" si="101"/>
-        <v>27.9</v>
+        <v>35.4</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" ref="H67:CG67" si="132">H14*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="71">
         <f t="shared" si="132"/>
@@ -18801,7 +19348,7 @@
       </c>
       <c r="M67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="71">
         <f t="shared" si="132"/>
@@ -18809,15 +19356,15 @@
       </c>
       <c r="O67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="71">
         <f t="shared" si="132"/>
@@ -18941,7 +19488,7 @@
       </c>
       <c r="AV67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW67" s="71">
         <f t="shared" si="132"/>
@@ -19009,7 +19556,7 @@
       </c>
       <c r="BU67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV67" s="71">
         <f t="shared" si="132"/>
@@ -19049,7 +19596,7 @@
       </c>
       <c r="CE67" s="71">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF67" s="71">
         <f t="shared" si="132"/>
@@ -19067,11 +19614,11 @@
     <row r="68" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="2">
         <f t="shared" si="101"/>
-        <v>33.075000000000003</v>
+        <v>40.325000000000003</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" ref="H68:CG68" si="137">H15*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="71">
         <f t="shared" si="137"/>
@@ -19091,7 +19638,7 @@
       </c>
       <c r="M68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="71">
         <f t="shared" si="137"/>
@@ -19099,15 +19646,15 @@
       </c>
       <c r="O68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="71">
         <f t="shared" si="137"/>
@@ -19231,7 +19778,7 @@
       </c>
       <c r="AV68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW68" s="71">
         <f t="shared" si="137"/>
@@ -19299,7 +19846,7 @@
       </c>
       <c r="BU68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BV68" s="71">
         <f t="shared" si="137"/>
@@ -19315,7 +19862,7 @@
       </c>
       <c r="BY68" s="71">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BZ68" s="71">
         <f t="shared" si="137"/>
@@ -19357,11 +19904,11 @@
     <row r="69" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="2">
         <f t="shared" si="101"/>
-        <v>33.799999999999997</v>
+        <v>42.55</v>
       </c>
       <c r="H69" s="71">
         <f t="shared" ref="H69:CG69" si="142">H16*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="71">
         <f t="shared" si="142"/>
@@ -19381,7 +19928,7 @@
       </c>
       <c r="M69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="71">
         <f t="shared" si="142"/>
@@ -19389,15 +19936,15 @@
       </c>
       <c r="O69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="71">
         <f t="shared" si="142"/>
@@ -19521,7 +20068,7 @@
       </c>
       <c r="AV69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW69" s="71">
         <f t="shared" si="142"/>
@@ -19589,7 +20136,7 @@
       </c>
       <c r="BU69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV69" s="71">
         <f t="shared" si="142"/>
@@ -19605,7 +20152,7 @@
       </c>
       <c r="BY69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BZ69" s="71">
         <f t="shared" si="142"/>
@@ -19637,7 +20184,7 @@
       </c>
       <c r="CG69" s="71">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH69" s="2">
         <f t="shared" ref="CH69" si="146">CH16*CH$6</f>
@@ -19647,11 +20194,11 @@
     <row r="70" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="2">
         <f t="shared" si="101"/>
-        <v>33.549999999999997</v>
+        <v>42.3</v>
       </c>
       <c r="H70" s="71">
         <f t="shared" ref="H70:CG70" si="147">H17*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="71">
         <f t="shared" si="147"/>
@@ -19671,7 +20218,7 @@
       </c>
       <c r="M70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="71">
         <f t="shared" si="147"/>
@@ -19679,15 +20226,15 @@
       </c>
       <c r="O70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="71">
         <f t="shared" si="147"/>
@@ -19811,7 +20358,7 @@
       </c>
       <c r="AV70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW70" s="71">
         <f t="shared" si="147"/>
@@ -19879,7 +20426,7 @@
       </c>
       <c r="BU70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV70" s="71">
         <f t="shared" si="147"/>
@@ -19895,7 +20442,7 @@
       </c>
       <c r="BY70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BZ70" s="71">
         <f t="shared" si="147"/>
@@ -19923,7 +20470,7 @@
       </c>
       <c r="CF70" s="71">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG70" s="71">
         <f t="shared" si="147"/>
@@ -19937,11 +20484,11 @@
     <row r="71" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G71" s="2">
         <f t="shared" si="101"/>
-        <v>30.375</v>
+        <v>37.375</v>
       </c>
       <c r="H71" s="71">
         <f t="shared" ref="H71:CG71" si="152">H18*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="71">
         <f t="shared" si="152"/>
@@ -19961,7 +20508,7 @@
       </c>
       <c r="M71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="71">
         <f t="shared" si="152"/>
@@ -19969,15 +20516,15 @@
       </c>
       <c r="O71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="71">
         <f t="shared" si="152"/>
@@ -20101,7 +20648,7 @@
       </c>
       <c r="AV71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW71" s="71">
         <f t="shared" si="152"/>
@@ -20169,7 +20716,7 @@
       </c>
       <c r="BU71" s="71">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV71" s="71">
         <f t="shared" si="152"/>
@@ -20227,11 +20774,11 @@
     <row r="72" spans="7:86" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="2">
         <f t="shared" si="101"/>
-        <v>29.5</v>
+        <v>36</v>
       </c>
       <c r="H72" s="71">
         <f t="shared" ref="H72:CG72" si="157">H19*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="71">
         <f t="shared" si="157"/>
@@ -20251,7 +20798,7 @@
       </c>
       <c r="M72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="71">
         <f t="shared" si="157"/>
@@ -20259,15 +20806,15 @@
       </c>
       <c r="O72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="71">
         <f t="shared" si="157"/>
@@ -20391,7 +20938,7 @@
       </c>
       <c r="AV72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW72" s="71">
         <f t="shared" si="157"/>
@@ -20459,7 +21006,7 @@
       </c>
       <c r="BU72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BV72" s="71">
         <f t="shared" si="157"/>
@@ -20475,7 +21022,7 @@
       </c>
       <c r="BY72" s="71">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ72" s="71">
         <f t="shared" si="157"/>
@@ -20503,7 +21050,7 @@
       </c>
       <c r="CF72" s="71">
         <f t="shared" si="157"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CG72" s="71">
         <f t="shared" si="157"/>
@@ -20517,11 +21064,11 @@
     <row r="73" spans="7:86" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="2">
         <f t="shared" si="101"/>
-        <v>31.375000000000004</v>
+        <v>38.875</v>
       </c>
       <c r="H73" s="71">
         <f t="shared" ref="H73:CG73" si="162">H20*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="71">
         <f t="shared" si="162"/>
@@ -20541,7 +21088,7 @@
       </c>
       <c r="M73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="71">
         <f t="shared" si="162"/>
@@ -20549,15 +21096,15 @@
       </c>
       <c r="O73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="71">
         <f t="shared" si="162"/>
@@ -20681,7 +21228,7 @@
       </c>
       <c r="AV73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW73" s="71">
         <f t="shared" si="162"/>
@@ -20749,7 +21296,7 @@
       </c>
       <c r="BU73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV73" s="71">
         <f t="shared" si="162"/>
@@ -20765,7 +21312,7 @@
       </c>
       <c r="BY73" s="71">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ73" s="71">
         <f t="shared" si="162"/>
@@ -20807,11 +21354,11 @@
     <row r="74" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G74" s="71">
         <f t="shared" ref="G74:G81" si="167">SUM(H74:CG74)</f>
-        <v>32.924999999999997</v>
+        <v>40.924999999999997</v>
       </c>
       <c r="H74" s="71">
         <f t="shared" ref="H74:CG74" si="168">H21*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="71">
         <f t="shared" si="168"/>
@@ -20831,7 +21378,7 @@
       </c>
       <c r="M74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="71">
         <f t="shared" si="168"/>
@@ -20839,15 +21386,15 @@
       </c>
       <c r="O74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="71">
         <f t="shared" si="168"/>
@@ -20971,7 +21518,7 @@
       </c>
       <c r="AV74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW74" s="71">
         <f t="shared" si="168"/>
@@ -21039,7 +21586,7 @@
       </c>
       <c r="BU74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV74" s="71">
         <f t="shared" si="168"/>
@@ -21083,7 +21630,7 @@
       </c>
       <c r="CF74" s="71">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG74" s="71">
         <f t="shared" si="168"/>
@@ -21093,11 +21640,11 @@
     <row r="75" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G75" s="71">
         <f t="shared" si="167"/>
-        <v>34.1</v>
+        <v>44.6</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" ref="H75:CG75" si="172">H22*H$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="71">
         <f t="shared" si="172"/>
@@ -21117,7 +21664,7 @@
       </c>
       <c r="M75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="71">
         <f t="shared" si="172"/>
@@ -21125,15 +21672,15 @@
       </c>
       <c r="O75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="71">
         <f t="shared" si="172"/>
@@ -21257,7 +21804,7 @@
       </c>
       <c r="AV75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW75" s="71">
         <f t="shared" si="172"/>
@@ -21325,7 +21872,7 @@
       </c>
       <c r="BU75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV75" s="71">
         <f t="shared" si="172"/>
@@ -21341,7 +21888,7 @@
       </c>
       <c r="BY75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ75" s="71">
         <f t="shared" si="172"/>
@@ -21365,15 +21912,15 @@
       </c>
       <c r="CE75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG75" s="71">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="7:86" x14ac:dyDescent="0.25">
@@ -22809,7 +23356,7 @@
     <row r="81" spans="7:85" x14ac:dyDescent="0.25">
       <c r="G81" s="71">
         <f t="shared" si="167"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H81" s="71">
         <f t="shared" ref="H81:CG81" si="196">H28*H$6</f>
@@ -22817,19 +23364,19 @@
       </c>
       <c r="I81" s="71">
         <f t="shared" si="196"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="71">
         <f t="shared" si="196"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="71">
         <f t="shared" si="196"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="71">
         <f t="shared" si="196"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="71">
         <f t="shared" si="196"/>
@@ -29038,93 +29585,132 @@
     <mergeCell ref="BK2:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E28">
-    <cfRule type="cellIs" dxfId="229" priority="240" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="249" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="241" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="250" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:AJ23 AC16:AJ16 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23 BE8:BE23 I8:X22">
-    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
+  <conditionalFormatting sqref="M23:AJ23 AC16:AJ16 AN8:AN23 BU8:BU23 BY8:BY23 CE8:CH23 AX8:AX23 Z8:AJ15 AG17:AJ18 AA19:AJ19 Z20:AJ22 AQ8:AQ23 AL8:AL23 AS8:AV23 BR8:BR23 BB8:BC23 BE8:BE23 M8:X22">
+    <cfRule type="cellIs" dxfId="236" priority="244" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="245" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="237" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="246" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:AJ28 AN24:AN27 AQ24:AQ27 AS24:AV27 BU24:BU27 BY24:BY27 CE24:CH27 BE24:BE27 AX24:AX27 AL24:AL27 AL28:AX28 BJ28 BR24:BR27 BR28:CH28 BB28:BE28 BB24:BC27">
-    <cfRule type="cellIs" dxfId="224" priority="229" operator="equal">
+  <conditionalFormatting sqref="I28:AJ28 AN24:AN27 AQ24:AQ27 AS24:AV27 BU24:BU27 BY24:BY27 CE24:CH27 BE24:BE27 AX24:AX27 AL24:AL27 AL28:AX28 BJ28 BR24:BR27 BR28:CH28 BB28:BE28 BB24:BC27 M24:AJ27">
+    <cfRule type="cellIs" dxfId="233" priority="238" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="239" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="231" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="240" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H23">
-    <cfRule type="cellIs" dxfId="221" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="229" priority="236" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="228" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="237" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H28">
-    <cfRule type="cellIs" dxfId="218" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="224" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="233" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="225" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="234" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="215" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="226" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="218" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="227" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="219" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="228" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="212" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="215" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="224" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="216" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="225" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="218" priority="217" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="218" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="219" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="cellIs" dxfId="212" priority="211" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="212" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="213" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
     <cfRule type="cellIs" dxfId="209" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29137,7 +29723,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
+  <conditionalFormatting sqref="Y14">
     <cfRule type="cellIs" dxfId="206" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29150,7 +29736,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
+  <conditionalFormatting sqref="Y15">
     <cfRule type="cellIs" dxfId="203" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29163,7 +29749,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
+  <conditionalFormatting sqref="Z16:AB16">
     <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29176,7 +29762,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
+  <conditionalFormatting sqref="Y16">
     <cfRule type="cellIs" dxfId="197" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29189,7 +29775,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
+  <conditionalFormatting sqref="AC17:AF17">
     <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29202,7 +29788,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:AB16">
+  <conditionalFormatting sqref="Z17:AB17">
     <cfRule type="cellIs" dxfId="191" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29215,7 +29801,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
+  <conditionalFormatting sqref="Y17">
     <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29228,7 +29814,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC17:AF17">
+  <conditionalFormatting sqref="Z18:AF18">
     <cfRule type="cellIs" dxfId="185" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29241,7 +29827,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AB17">
+  <conditionalFormatting sqref="Y18">
     <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29254,7 +29840,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
+  <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29267,7 +29853,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z18:AF18">
+  <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29280,7 +29866,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y18">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="173" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29293,7 +29879,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z19">
+  <conditionalFormatting sqref="Y21">
     <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29306,7 +29892,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
+  <conditionalFormatting sqref="Y22">
     <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29319,7 +29905,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
+  <conditionalFormatting sqref="AM8:AM23">
     <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29332,7 +29918,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
+  <conditionalFormatting sqref="AM24:AM27">
     <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29345,7 +29931,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
+  <conditionalFormatting sqref="AO8:AO23">
     <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29358,7 +29944,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM8:AM23">
+  <conditionalFormatting sqref="AO24:AO27">
     <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29371,7 +29957,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM24:AM27">
+  <conditionalFormatting sqref="AP8:AP23">
     <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29384,7 +29970,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO8:AO23">
+  <conditionalFormatting sqref="AP24:AP27">
     <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29397,7 +29983,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AO27">
+  <conditionalFormatting sqref="AR8:AR23">
     <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29410,7 +29996,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP8:AP23">
+  <conditionalFormatting sqref="AR24:AR27">
     <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29423,7 +30009,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AP27">
+  <conditionalFormatting sqref="BS8:BT23">
     <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29436,7 +30022,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR8:AR23">
+  <conditionalFormatting sqref="BS24:BT27">
     <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29449,7 +30035,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR24:AR27">
+  <conditionalFormatting sqref="BV8:BX23">
     <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29462,7 +30048,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS8:BT23">
+  <conditionalFormatting sqref="BV24:BX27">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29475,7 +30061,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS24:BT27">
+  <conditionalFormatting sqref="BZ8:CD23">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29488,7 +30074,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV8:BX23">
+  <conditionalFormatting sqref="BZ24:CD27">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29501,7 +30087,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV24:BX27">
+  <conditionalFormatting sqref="BD8:BD23">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29514,7 +30100,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ8:CD23">
+  <conditionalFormatting sqref="BD24:BD27">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29527,7 +30113,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ24:CD27">
+  <conditionalFormatting sqref="AW8:AW23">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29540,7 +30126,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BD23">
+  <conditionalFormatting sqref="AW24:AW27">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29553,7 +30139,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD24:BD27">
+  <conditionalFormatting sqref="AK8:AK23">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29566,7 +30152,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW8:AW23">
+  <conditionalFormatting sqref="AK24:AK28">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29579,7 +30165,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW24:AW27">
+  <conditionalFormatting sqref="BI8:BI23">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29592,7 +30178,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AK23">
+  <conditionalFormatting sqref="BI24:BI28">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29605,7 +30191,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AK28">
+  <conditionalFormatting sqref="BL8:BL23">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29618,7 +30204,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI8:BI23">
+  <conditionalFormatting sqref="BL24:BL28">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29631,7 +30217,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI24:BI28">
+  <conditionalFormatting sqref="BK8:BK23">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29644,7 +30230,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL8:BL23">
+  <conditionalFormatting sqref="BK24:BK28">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29657,7 +30243,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL24:BL28">
+  <conditionalFormatting sqref="BM8:BM23">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29670,7 +30256,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK8:BK23">
+  <conditionalFormatting sqref="BM24:BM28">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29683,7 +30269,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK24:BK28">
+  <conditionalFormatting sqref="BQ8:BQ23">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29696,7 +30282,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BM23">
+  <conditionalFormatting sqref="BQ24:BQ28">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29709,7 +30295,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM24:BM28">
+  <conditionalFormatting sqref="BP8:BP23">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29722,7 +30308,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ8:BQ23">
+  <conditionalFormatting sqref="BP24:BP28">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29735,7 +30321,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24:BQ28">
+  <conditionalFormatting sqref="BO8:BO23">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29748,7 +30334,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP8:BP23">
+  <conditionalFormatting sqref="BO24:BO28">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29761,7 +30347,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24:BP28">
+  <conditionalFormatting sqref="BN8:BN23">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29774,7 +30360,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO8:BO23">
+  <conditionalFormatting sqref="BN24:BN28">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29787,7 +30373,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO24:BO28">
+  <conditionalFormatting sqref="BH8:BH23">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29800,7 +30386,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN8:BN23">
+  <conditionalFormatting sqref="BH24:BH28">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29813,7 +30399,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN24:BN28">
+  <conditionalFormatting sqref="BG8:BG23">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29826,7 +30412,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH8:BH23">
+  <conditionalFormatting sqref="BG24:BG28">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29839,20 +30425,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH28">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG8:BG23">
+  <conditionalFormatting sqref="BF28">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29865,7 +30438,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG24:BG28">
+  <conditionalFormatting sqref="BF8:BF23">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29878,7 +30451,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF28">
+  <conditionalFormatting sqref="BF24:BF27">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA8:BA23">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29891,7 +30477,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF8:BF23">
+  <conditionalFormatting sqref="BA24:BA28">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29904,7 +30490,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24:BF27">
+  <conditionalFormatting sqref="AZ8:AZ23">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29917,7 +30503,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA8:BA23">
+  <conditionalFormatting sqref="AZ24:AZ28">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29930,7 +30516,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24:BA28">
+  <conditionalFormatting sqref="AY8:AY23">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29943,7 +30529,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ8:AZ23">
+  <conditionalFormatting sqref="AY24:AY28">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29956,7 +30542,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24:AZ28">
+  <conditionalFormatting sqref="BJ8:BJ23">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29969,7 +30555,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY23">
+  <conditionalFormatting sqref="BJ24:BJ27">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29982,7 +30568,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:AY28">
+  <conditionalFormatting sqref="I8:L23">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -29995,7 +30581,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ8:BJ23">
+  <conditionalFormatting sqref="I24:L27">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30008,7 +30594,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ24:BJ27">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
